--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tun46412/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tun46412/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4488A0A-4BF5-064B-84B4-277CF70C4B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB4215-6D4E-D545-B220-FAA51B8F283D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18920" yWindow="6060" windowWidth="25040" windowHeight="14320" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="11260" yWindow="3260" windowWidth="32620" windowHeight="19160" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Subject</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>MDSR_Contrast</t>
+  </si>
+  <si>
+    <t>VSL</t>
+  </si>
+  <si>
+    <t>VSR</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>DSR</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -349,11 +361,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -364,6 +413,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,15 +730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH36" sqref="A36:AH36"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,8 +841,20 @@
       <c r="AH1" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="AI1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -909,8 +973,24 @@
         <f>AF2-AE2</f>
         <v>0.128222</v>
       </c>
+      <c r="AI2" s="7">
+        <f>AVERAGE(C2,D2,K2,L2,)</f>
+        <v>-3.9237799999999996E-2</v>
+      </c>
+      <c r="AJ2" s="9">
+        <f>AVERAGE(G2,H2,O2,P2)</f>
+        <v>-6.5459500000000004E-2</v>
+      </c>
+      <c r="AK2" s="9">
+        <f>AVERAGE(S2,T2,AA2,AB2)</f>
+        <v>3.2294749999999997E-2</v>
+      </c>
+      <c r="AL2" s="8">
+        <f>AVERAGE(W2,X2,AE2,AF2)</f>
+        <v>4.1047E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1109,24 @@
         <f t="shared" ref="AH3:AH36" si="15">AF3-AE3</f>
         <v>0.116495</v>
       </c>
+      <c r="AI3" s="7">
+        <f t="shared" ref="AI3:AI36" si="16">AVERAGE(C3,D3,K3,L3,)</f>
+        <v>4.7954199999999995E-2</v>
+      </c>
+      <c r="AJ3" s="9">
+        <f t="shared" ref="AJ3:AJ36" si="17">AVERAGE(G3,H3,O3,P3)</f>
+        <v>0.10660425</v>
+      </c>
+      <c r="AK3" s="9">
+        <f t="shared" ref="AK3:AK36" si="18">AVERAGE(S3,T3,AA3,AB3)</f>
+        <v>5.5483999999999999E-2</v>
+      </c>
+      <c r="AL3" s="8">
+        <f t="shared" ref="AL3:AL36" si="19">AVERAGE(W3,X3,AE3,AF3)</f>
+        <v>4.8276249999999993E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1245,24 @@
         <f t="shared" si="15"/>
         <v>-2.7625000000000004E-2</v>
       </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.6209599999999993E-2</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f t="shared" si="17"/>
+        <v>-4.2212250000000007E-2</v>
+      </c>
+      <c r="AK4" s="9">
+        <f t="shared" si="18"/>
+        <v>-7.7330000000000003E-3</v>
+      </c>
+      <c r="AL4" s="8">
+        <f t="shared" si="19"/>
+        <v>-4.8980000000000013E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1269,8 +1381,24 @@
         <f t="shared" si="15"/>
         <v>-6.2880000000000019E-3</v>
       </c>
+      <c r="AI5" s="7">
+        <f t="shared" si="16"/>
+        <v>2.9134199999999999E-2</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f t="shared" si="17"/>
+        <v>0.105989</v>
+      </c>
+      <c r="AK5" s="9">
+        <f t="shared" si="18"/>
+        <v>4.2932999999999999E-2</v>
+      </c>
+      <c r="AL5" s="8">
+        <f t="shared" si="19"/>
+        <v>6.8273500000000001E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1389,8 +1517,24 @@
         <f t="shared" si="15"/>
         <v>-1.8792999999999997E-2</v>
       </c>
+      <c r="AI6" s="7">
+        <f t="shared" si="16"/>
+        <v>-2.3648800000000005E-2</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f t="shared" si="17"/>
+        <v>-6.7885000000000001E-2</v>
+      </c>
+      <c r="AK6" s="9">
+        <f t="shared" si="18"/>
+        <v>0.13813824999999999</v>
+      </c>
+      <c r="AL6" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8803999999999985E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1509,8 +1653,24 @@
         <f t="shared" si="15"/>
         <v>0.17085900000000001</v>
       </c>
+      <c r="AI7" s="7">
+        <f t="shared" si="16"/>
+        <v>-5.6217200000000009E-2</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" si="17"/>
+        <v>-5.1807249999999999E-2</v>
+      </c>
+      <c r="AK7" s="9">
+        <f t="shared" si="18"/>
+        <v>-4.7969749999999999E-2</v>
+      </c>
+      <c r="AL7" s="8">
+        <f t="shared" si="19"/>
+        <v>-2.6850250000000003E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1629,8 +1789,24 @@
         <f t="shared" si="15"/>
         <v>6.5564000000000011E-2</v>
       </c>
+      <c r="AI8" s="7">
+        <f t="shared" si="16"/>
+        <v>-2.2724200000000007E-2</v>
+      </c>
+      <c r="AJ8" s="9">
+        <f t="shared" si="17"/>
+        <v>9.4339250000000013E-2</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" si="18"/>
+        <v>-7.9387500000000014E-3</v>
+      </c>
+      <c r="AL8" s="8">
+        <f t="shared" si="19"/>
+        <v>6.5247750000000007E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1749,8 +1925,24 @@
         <f t="shared" si="15"/>
         <v>2.8873999999999997E-2</v>
       </c>
+      <c r="AI9" s="7">
+        <f t="shared" si="16"/>
+        <v>1.7913400000000003E-2</v>
+      </c>
+      <c r="AJ9" s="9">
+        <f t="shared" si="17"/>
+        <v>-5.7020000000000005E-3</v>
+      </c>
+      <c r="AK9" s="9">
+        <f t="shared" si="18"/>
+        <v>3.0810499999999998E-2</v>
+      </c>
+      <c r="AL9" s="8">
+        <f t="shared" si="19"/>
+        <v>4.1370749999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1869,8 +2061,24 @@
         <f t="shared" si="15"/>
         <v>-3.4949000000000008E-2</v>
       </c>
+      <c r="AI10" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.1989000000000002E-2</v>
+      </c>
+      <c r="AJ10" s="9">
+        <f t="shared" si="17"/>
+        <v>-8.2288249999999993E-2</v>
+      </c>
+      <c r="AK10" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.4464249999999996E-2</v>
+      </c>
+      <c r="AL10" s="8">
+        <f t="shared" si="19"/>
+        <v>-9.2915000000000011E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1989,8 +2197,24 @@
         <f t="shared" si="15"/>
         <v>0.13884199999999999</v>
       </c>
+      <c r="AI11" s="7">
+        <f t="shared" si="16"/>
+        <v>-1.0657599999999998E-2</v>
+      </c>
+      <c r="AJ11" s="9">
+        <f t="shared" si="17"/>
+        <v>7.815625000000001E-2</v>
+      </c>
+      <c r="AK11" s="9">
+        <f t="shared" si="18"/>
+        <v>-6.6930749999999997E-2</v>
+      </c>
+      <c r="AL11" s="8">
+        <f t="shared" si="19"/>
+        <v>-3.2353499999999993E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -2109,8 +2333,24 @@
         <f t="shared" si="15"/>
         <v>0.11433699999999999</v>
       </c>
+      <c r="AI12" s="7">
+        <f t="shared" si="16"/>
+        <v>4.1785999999999997E-2</v>
+      </c>
+      <c r="AJ12" s="9">
+        <f t="shared" si="17"/>
+        <v>-8.8347749999999989E-2</v>
+      </c>
+      <c r="AK12" s="9">
+        <f t="shared" si="18"/>
+        <v>1.6510500000000001E-2</v>
+      </c>
+      <c r="AL12" s="8">
+        <f t="shared" si="19"/>
+        <v>5.0752500000000034E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2229,8 +2469,24 @@
         <f t="shared" si="15"/>
         <v>0.28820499999999999</v>
       </c>
+      <c r="AI13" s="7">
+        <f t="shared" si="16"/>
+        <v>-8.3315999999999987E-2</v>
+      </c>
+      <c r="AJ13" s="9">
+        <f t="shared" si="17"/>
+        <v>7.7074999999999956E-3</v>
+      </c>
+      <c r="AK13" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.15903399999999998</v>
+      </c>
+      <c r="AL13" s="8">
+        <f t="shared" si="19"/>
+        <v>-7.7934500000000004E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -2349,8 +2605,24 @@
         <f t="shared" si="15"/>
         <v>8.2510000000000014E-3</v>
       </c>
+      <c r="AI14" s="7">
+        <f t="shared" si="16"/>
+        <v>3.0297200000000003E-2</v>
+      </c>
+      <c r="AJ14" s="9">
+        <f t="shared" si="17"/>
+        <v>6.8045250000000002E-2</v>
+      </c>
+      <c r="AK14" s="9">
+        <f t="shared" si="18"/>
+        <v>1.0559249999999999E-2</v>
+      </c>
+      <c r="AL14" s="8">
+        <f t="shared" si="19"/>
+        <v>5.9875250000000005E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -2469,8 +2741,24 @@
         <f t="shared" si="15"/>
         <v>0.17451800000000001</v>
       </c>
+      <c r="AI15" s="7">
+        <f t="shared" si="16"/>
+        <v>2.2809600000000003E-2</v>
+      </c>
+      <c r="AJ15" s="9">
+        <f t="shared" si="17"/>
+        <v>3.9279250000000002E-2</v>
+      </c>
+      <c r="AK15" s="9">
+        <f t="shared" si="18"/>
+        <v>9.5306500000000002E-2</v>
+      </c>
+      <c r="AL15" s="8">
+        <f t="shared" si="19"/>
+        <v>0.1317055</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2589,8 +2877,24 @@
         <f t="shared" si="15"/>
         <v>7.0837999999999998E-2</v>
       </c>
+      <c r="AI16" s="7">
+        <f t="shared" si="16"/>
+        <v>4.0528799999999997E-2</v>
+      </c>
+      <c r="AJ16" s="9">
+        <f t="shared" si="17"/>
+        <v>8.1983500000000001E-2</v>
+      </c>
+      <c r="AK16" s="9">
+        <f t="shared" si="18"/>
+        <v>-4.5107500000000009E-3</v>
+      </c>
+      <c r="AL16" s="8">
+        <f t="shared" si="19"/>
+        <v>2.2732249999999999E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -2709,8 +3013,24 @@
         <f t="shared" si="15"/>
         <v>-7.901E-3</v>
       </c>
+      <c r="AI17" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.15754300000000002</v>
+      </c>
+      <c r="AJ17" s="9">
+        <f t="shared" si="17"/>
+        <v>-5.2745E-2</v>
+      </c>
+      <c r="AK17" s="9">
+        <f t="shared" si="18"/>
+        <v>-8.2547999999999996E-2</v>
+      </c>
+      <c r="AL17" s="8">
+        <f t="shared" si="19"/>
+        <v>-5.8663499999999993E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -2829,8 +3149,24 @@
         <f t="shared" si="15"/>
         <v>-8.1648999999999999E-2</v>
       </c>
+      <c r="AI18" s="7">
+        <f t="shared" si="16"/>
+        <v>6.4694999999999989E-2</v>
+      </c>
+      <c r="AJ18" s="9">
+        <f t="shared" si="17"/>
+        <v>6.1928499999999997E-2</v>
+      </c>
+      <c r="AK18" s="9">
+        <f t="shared" si="18"/>
+        <v>5.105925E-2</v>
+      </c>
+      <c r="AL18" s="8">
+        <f t="shared" si="19"/>
+        <v>6.4655499999999991E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -2949,8 +3285,24 @@
         <f t="shared" si="15"/>
         <v>5.3892000000000009E-2</v>
       </c>
+      <c r="AI19" s="7">
+        <f t="shared" si="16"/>
+        <v>2.8167999999999999E-2</v>
+      </c>
+      <c r="AJ19" s="9">
+        <f t="shared" si="17"/>
+        <v>0.10244425</v>
+      </c>
+      <c r="AK19" s="9">
+        <f t="shared" si="18"/>
+        <v>6.5214750000000002E-2</v>
+      </c>
+      <c r="AL19" s="8">
+        <f t="shared" si="19"/>
+        <v>6.45955E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3069,8 +3421,24 @@
         <f t="shared" si="15"/>
         <v>2.7562E-2</v>
       </c>
+      <c r="AI20" s="7">
+        <f t="shared" si="16"/>
+        <v>-8.8270600000000005E-2</v>
+      </c>
+      <c r="AJ20" s="9">
+        <f t="shared" si="17"/>
+        <v>-1.822375E-2</v>
+      </c>
+      <c r="AK20" s="9">
+        <f t="shared" si="18"/>
+        <v>-9.2269249999999997E-2</v>
+      </c>
+      <c r="AL20" s="8">
+        <f t="shared" si="19"/>
+        <v>-0.11282575</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3189,8 +3557,24 @@
         <f t="shared" si="15"/>
         <v>2.9963E-2</v>
       </c>
+      <c r="AI21" s="7">
+        <f t="shared" si="16"/>
+        <v>-5.1382000000000008E-3</v>
+      </c>
+      <c r="AJ21" s="9">
+        <f t="shared" si="17"/>
+        <v>0.11568249999999999</v>
+      </c>
+      <c r="AK21" s="9">
+        <f t="shared" si="18"/>
+        <v>5.4522500000000002E-2</v>
+      </c>
+      <c r="AL21" s="8">
+        <f t="shared" si="19"/>
+        <v>3.970825E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3309,8 +3693,24 @@
         <f t="shared" si="15"/>
         <v>-1.6820000000000029E-3</v>
       </c>
+      <c r="AI22" s="7">
+        <f t="shared" si="16"/>
+        <v>-9.7035399999999994E-2</v>
+      </c>
+      <c r="AJ22" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.12607574999999999</v>
+      </c>
+      <c r="AK22" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.15663475000000002</v>
+      </c>
+      <c r="AL22" s="8">
+        <f t="shared" si="19"/>
+        <v>-9.5951000000000009E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -3429,8 +3829,24 @@
         <f t="shared" si="15"/>
         <v>6.5978000000000009E-2</v>
       </c>
+      <c r="AI23" s="7">
+        <f t="shared" si="16"/>
+        <v>2.4576399999999998E-2</v>
+      </c>
+      <c r="AJ23" s="9">
+        <f t="shared" si="17"/>
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="AK23" s="9">
+        <f t="shared" si="18"/>
+        <v>6.1766500000000002E-2</v>
+      </c>
+      <c r="AL23" s="8">
+        <f t="shared" si="19"/>
+        <v>3.5637500000000009E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3549,8 +3965,24 @@
         <f t="shared" si="15"/>
         <v>5.7551000000000005E-2</v>
       </c>
+      <c r="AI24" s="7">
+        <f t="shared" si="16"/>
+        <v>-5.5067199999999997E-2</v>
+      </c>
+      <c r="AJ24" s="9">
+        <f t="shared" si="17"/>
+        <v>1.3015999999999998E-2</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.16222075</v>
+      </c>
+      <c r="AL24" s="8">
+        <f t="shared" si="19"/>
+        <v>-4.6000000000000006E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3669,8 +4101,24 @@
         <f t="shared" si="15"/>
         <v>0.11473899999999999</v>
       </c>
+      <c r="AI25" s="7">
+        <f t="shared" si="16"/>
+        <v>4.1524000000000031E-3</v>
+      </c>
+      <c r="AJ25" s="9">
+        <f t="shared" si="17"/>
+        <v>-2.1472499999999992E-2</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" si="18"/>
+        <v>8.0752499999999974E-3</v>
+      </c>
+      <c r="AL25" s="8">
+        <f t="shared" si="19"/>
+        <v>2.43365E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3789,8 +4237,24 @@
         <f t="shared" si="15"/>
         <v>0.10894399999999999</v>
       </c>
+      <c r="AI26" s="7">
+        <f t="shared" si="16"/>
+        <v>8.9776000000000009E-2</v>
+      </c>
+      <c r="AJ26" s="9">
+        <f t="shared" si="17"/>
+        <v>4.2631250000000002E-2</v>
+      </c>
+      <c r="AK26" s="9">
+        <f t="shared" si="18"/>
+        <v>7.4145249999999996E-2</v>
+      </c>
+      <c r="AL26" s="8">
+        <f t="shared" si="19"/>
+        <v>0.11736150000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3909,8 +4373,24 @@
         <f t="shared" si="15"/>
         <v>7.3679999999999995E-2</v>
       </c>
+      <c r="AI27" s="7">
+        <f t="shared" si="16"/>
+        <v>-5.7021199999999994E-2</v>
+      </c>
+      <c r="AJ27" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.1003675</v>
+      </c>
+      <c r="AK27" s="9">
+        <f t="shared" si="18"/>
+        <v>-6.1442749999999997E-2</v>
+      </c>
+      <c r="AL27" s="8">
+        <f t="shared" si="19"/>
+        <v>-7.6287999999999995E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -4029,8 +4509,24 @@
         <f t="shared" si="15"/>
         <v>1.4388999999999999E-2</v>
       </c>
+      <c r="AI28" s="7">
+        <f t="shared" si="16"/>
+        <v>-2.5907999999999997E-2</v>
+      </c>
+      <c r="AJ28" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.11357425000000002</v>
+      </c>
+      <c r="AK28" s="9">
+        <f t="shared" si="18"/>
+        <v>7.1614250000000004E-2</v>
+      </c>
+      <c r="AL28" s="8">
+        <f t="shared" si="19"/>
+        <v>6.9037249999999994E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -4149,8 +4645,24 @@
         <f t="shared" si="15"/>
         <v>0.177814</v>
       </c>
+      <c r="AI29" s="7">
+        <f t="shared" si="16"/>
+        <v>-1.2303999999999999E-2</v>
+      </c>
+      <c r="AJ29" s="9">
+        <f t="shared" si="17"/>
+        <v>0.13344475</v>
+      </c>
+      <c r="AK29" s="9">
+        <f t="shared" si="18"/>
+        <v>-9.6657750000000014E-2</v>
+      </c>
+      <c r="AL29" s="8">
+        <f t="shared" si="19"/>
+        <v>-2.8802749999999998E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -4269,8 +4781,24 @@
         <f t="shared" si="15"/>
         <v>0.138019</v>
       </c>
+      <c r="AI30" s="7">
+        <f t="shared" si="16"/>
+        <v>3.4562000000000022E-3</v>
+      </c>
+      <c r="AJ30" s="9">
+        <f t="shared" si="17"/>
+        <v>5.6036750000000003E-2</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" si="18"/>
+        <v>4.9244999999999997E-2</v>
+      </c>
+      <c r="AL30" s="8">
+        <f t="shared" si="19"/>
+        <v>6.49975E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -4389,8 +4917,24 @@
         <f t="shared" si="15"/>
         <v>2.4188999999999999E-2</v>
       </c>
+      <c r="AI31" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.7578200000000005E-2</v>
+      </c>
+      <c r="AJ31" s="9">
+        <f t="shared" si="17"/>
+        <v>7.8625000000000222E-4</v>
+      </c>
+      <c r="AK31" s="9">
+        <f t="shared" si="18"/>
+        <v>-4.8022499999999992E-3</v>
+      </c>
+      <c r="AL31" s="8">
+        <f t="shared" si="19"/>
+        <v>-5.4132499999999971E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -4509,8 +5053,24 @@
         <f t="shared" si="15"/>
         <v>0.12911500000000001</v>
       </c>
+      <c r="AI32" s="7">
+        <f t="shared" si="16"/>
+        <v>4.1747800000000002E-2</v>
+      </c>
+      <c r="AJ32" s="9">
+        <f t="shared" si="17"/>
+        <v>6.7452999999999999E-2</v>
+      </c>
+      <c r="AK32" s="9">
+        <f t="shared" si="18"/>
+        <v>2.0338000000000002E-2</v>
+      </c>
+      <c r="AL32" s="8">
+        <f t="shared" si="19"/>
+        <v>-7.8152499999999993E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -4629,8 +5189,24 @@
         <f t="shared" si="15"/>
         <v>0.13767299999999999</v>
       </c>
+      <c r="AI33" s="7">
+        <f t="shared" si="16"/>
+        <v>7.9752000000000003E-2</v>
+      </c>
+      <c r="AJ33" s="9">
+        <f t="shared" si="17"/>
+        <v>5.491975000000001E-2</v>
+      </c>
+      <c r="AK33" s="9">
+        <f t="shared" si="18"/>
+        <v>1.1582000000000009E-2</v>
+      </c>
+      <c r="AL33" s="8">
+        <f t="shared" si="19"/>
+        <v>6.521275E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -4749,8 +5325,24 @@
         <f t="shared" si="15"/>
         <v>-6.4020000000000007E-2</v>
       </c>
+      <c r="AI34" s="7">
+        <f t="shared" si="16"/>
+        <v>-6.8100799999999989E-2</v>
+      </c>
+      <c r="AJ34" s="9">
+        <f t="shared" si="17"/>
+        <v>-8.8502999999999998E-2</v>
+      </c>
+      <c r="AK34" s="9">
+        <f t="shared" si="18"/>
+        <v>-9.4860000000000014E-3</v>
+      </c>
+      <c r="AL34" s="8">
+        <f t="shared" si="19"/>
+        <v>-1.7696999999999987E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -4869,8 +5461,24 @@
         <f t="shared" si="15"/>
         <v>2.6590000000000003E-2</v>
       </c>
+      <c r="AI35" s="7">
+        <f t="shared" si="16"/>
+        <v>-8.3086000000000007E-2</v>
+      </c>
+      <c r="AJ35" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.11785649999999999</v>
+      </c>
+      <c r="AK35" s="9">
+        <f t="shared" si="18"/>
+        <v>-0.10586999999999999</v>
+      </c>
+      <c r="AL35" s="8">
+        <f t="shared" si="19"/>
+        <v>-9.7544999999999993E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -4988,6 +5596,22 @@
       <c r="AH36" s="5">
         <f t="shared" si="15"/>
         <v>0.12265899999999999</v>
+      </c>
+      <c r="AI36" s="3">
+        <f t="shared" si="16"/>
+        <v>6.1770800000000001E-2</v>
+      </c>
+      <c r="AJ36" s="4">
+        <f t="shared" si="17"/>
+        <v>8.4722499999999989E-3</v>
+      </c>
+      <c r="AK36" s="4">
+        <f t="shared" si="18"/>
+        <v>6.2834749999999995E-2</v>
+      </c>
+      <c r="AL36" s="5">
+        <f t="shared" si="19"/>
+        <v>6.4755000000000007E-2</v>
       </c>
     </row>
   </sheetData>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tun46412/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBB4215-6D4E-D545-B220-FAA51B8F283D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FF155-0992-3547-9340-FC93A89B9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="3260" windowWidth="32620" windowHeight="19160" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,9 +39,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
     <t>s3836</t>
   </si>
   <si>
@@ -244,6 +250,9 @@
   </si>
   <si>
     <t>DSR</t>
+  </si>
+  <si>
+    <t>NM_vstri</t>
   </si>
 </sst>
 </file>
@@ -732,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,120 +752,120 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>6.6323999999999996</v>
@@ -992,7 +1001,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>5.8707000000000003</v>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>10.6219</v>
@@ -1264,7 +1273,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>6.7069999999999999</v>
@@ -1400,7 +1409,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>9.8196999999999992</v>
@@ -1536,7 +1545,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>9.8634000000000004</v>
@@ -1672,7 +1681,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>6.4911000000000003</v>
@@ -1808,7 +1817,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>3.8052999999999999</v>
@@ -1944,7 +1953,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>8.9419000000000004</v>
@@ -2080,7 +2089,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>7.8029000000000002</v>
@@ -2216,7 +2225,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>9.8434000000000008</v>
@@ -2352,7 +2361,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>6.5369000000000002</v>
@@ -2488,7 +2497,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>6.3827999999999996</v>
@@ -2624,7 +2633,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>7.1338999999999997</v>
@@ -2760,7 +2769,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>9.2367000000000008</v>
@@ -2896,7 +2905,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>7.0613999999999999</v>
@@ -3032,7 +3041,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>6.7188999999999997</v>
@@ -3168,7 +3177,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>9.7673000000000005</v>
@@ -3304,7 +3313,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>8.6026000000000007</v>
@@ -3440,7 +3449,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>7.6535000000000002</v>
@@ -3576,7 +3585,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>7.0533000000000001</v>
@@ -3712,7 +3721,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>5.4255000000000004</v>
@@ -3848,7 +3857,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>7.1264000000000003</v>
@@ -3984,7 +3993,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>8.3969000000000005</v>
@@ -4120,7 +4129,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>10.875999999999999</v>
@@ -4256,7 +4265,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>8.4403000000000006</v>
@@ -4392,7 +4401,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>6.7473000000000001</v>
@@ -4528,7 +4537,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>5.7484999999999999</v>
@@ -4664,7 +4673,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>6.6740000000000004</v>
@@ -4800,7 +4809,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>7.1413000000000002</v>
@@ -4936,7 +4945,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6">
         <v>5.1193</v>
@@ -5072,7 +5081,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6">
         <v>6.8760000000000003</v>
@@ -5208,7 +5217,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6">
         <v>10.682600000000001</v>
@@ -5344,7 +5353,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6">
         <v>9.7484000000000002</v>
@@ -5480,7 +5489,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>6.3623000000000003</v>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FF155-0992-3547-9340-FC93A89B9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C11B4C-149D-EF4D-BF5D-643FE4A59D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>DSR</t>
   </si>
   <si>
-    <t>NM_vstri</t>
+    <t>NM</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C746A-10BB-BC41-A677-7085F1C0D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72553E0B-A4DF-C843-9A05-5EDE2D38C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,19 +150,19 @@
     <t>Total_Use_Voxels</t>
   </si>
   <si>
-    <t>Marijuana Use</t>
+    <t>NM_vstri</t>
   </si>
   <si>
-    <t>Drug Use</t>
+    <t>Total_Use</t>
   </si>
   <si>
-    <t>Alcohol Use</t>
+    <t>Alcohol_Use</t>
   </si>
   <si>
-    <t>Total Use</t>
+    <t>Drug_Use</t>
   </si>
   <si>
-    <t>NM_vstri</t>
+    <t>Marijuana_Use</t>
   </si>
 </sst>
 </file>
@@ -753,14 +753,14 @@
   <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:43" ht="31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>36</v>
@@ -769,16 +769,16 @@
         <v>37</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72553E0B-A4DF-C843-9A05-5EDE2D38C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0BE31-073C-674E-853A-2BB8A60D55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0BE31-073C-674E-853A-2BB8A60D55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E964364-D142-2D49-80BA-0B6CCB2C5BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>MVSL_Incorrect</t>
   </si>
@@ -164,12 +164,15 @@
   <si>
     <t>Marijuana_Use</t>
   </si>
+  <si>
+    <t>Substance_Abuse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +195,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -387,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -435,6 +444,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,15 +768,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -780,116 +798,119 @@
       <c r="G1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.6323999999999996</v>
       </c>
@@ -912,136 +933,139 @@
         <f>SUM(D2,E2,F2)</f>
         <v>24</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="27">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7">
         <v>-6.6542000000000004E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.15945799999999999</v>
       </c>
-      <c r="J2">
-        <f>AVERAGE(H2,I2)</f>
+      <c r="K2">
+        <f>AVERAGE(I2,J2)</f>
         <v>-0.11299999999999999</v>
       </c>
-      <c r="K2" s="8">
-        <f>I2-H2</f>
+      <c r="L2" s="8">
+        <f>J2-I2</f>
         <v>-9.2915999999999985E-2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>-0.127364</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-0.100619</v>
       </c>
-      <c r="N2">
-        <f>AVERAGE(L2,M2)</f>
+      <c r="O2">
+        <f>AVERAGE(M2,N2)</f>
         <v>-0.1139915</v>
       </c>
-      <c r="O2" s="8">
-        <f>M2-L2</f>
+      <c r="P2" s="8">
+        <f>N2-M2</f>
         <v>2.6745000000000005E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-8.404E-3</v>
       </c>
-      <c r="R2" s="9">
-        <f>AVERAGE(P2,Q2)</f>
+      <c r="S2" s="9">
+        <f>AVERAGE(Q2,R2)</f>
         <v>1.4905499999999999E-2</v>
       </c>
-      <c r="S2" s="8">
-        <f>Q2-P2</f>
+      <c r="T2" s="8">
+        <f>R2-Q2</f>
         <v>-4.6619000000000001E-2</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.4739E-2</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="V2" s="9">
-        <f>AVERAGE(T2,U2)</f>
+      <c r="W2" s="9">
+        <f>AVERAGE(U2,V2)</f>
         <v>-1.6927499999999998E-2</v>
       </c>
-      <c r="W2" s="9">
-        <f>U2-T2</f>
+      <c r="X2" s="9">
+        <f>V2-U2</f>
         <v>-6.3333E-2</v>
       </c>
-      <c r="X2" s="7">
+      <c r="Y2" s="7">
         <v>0.10792300000000001</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="Z2">
-        <f>AVERAGE(X2,Y2)</f>
+      <c r="AA2">
+        <f>AVERAGE(Y2,Z2)</f>
         <v>9.2483499999999996E-2</v>
       </c>
-      <c r="AA2" s="8">
-        <f>Y2-X2</f>
+      <c r="AB2" s="8">
+        <f>Z2-Y2</f>
         <v>-3.0879000000000004E-2</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AC2" s="7">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.103228</v>
       </c>
-      <c r="AD2">
-        <f>AVERAGE(AB2,AC2)</f>
+      <c r="AE2">
+        <f>AVERAGE(AC2,AD2)</f>
         <v>7.7010999999999996E-2</v>
       </c>
-      <c r="AE2" s="8">
-        <f>AC2-AB2</f>
+      <c r="AF2" s="8">
+        <f>AD2-AC2</f>
         <v>5.2434000000000001E-2</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>-7.3726E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="AH2">
-        <f>AVERAGE(AF2,AG2)</f>
+      <c r="AI2">
+        <f>AVERAGE(AG2,AH2)</f>
         <v>-2.7894000000000002E-2</v>
       </c>
-      <c r="AI2" s="8">
-        <f>AG2-AF2</f>
+      <c r="AJ2" s="8">
+        <f>AH2-AG2</f>
         <v>9.1663999999999995E-2</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="AL2">
-        <f>AVERAGE(AJ2,AK2)</f>
+      <c r="AM2">
+        <f>AVERAGE(AK2,AL2)</f>
         <v>5.0830000000000042E-3</v>
       </c>
-      <c r="AM2" s="8">
-        <f>AK2-AJ2</f>
+      <c r="AN2" s="8">
+        <f>AL2-AK2</f>
         <v>0.128222</v>
       </c>
-      <c r="AN2" s="7">
-        <f>AVERAGE(H2,I2,P2,Q2,)</f>
+      <c r="AO2" s="7">
+        <f>AVERAGE(I2,J2,Q2,R2,)</f>
         <v>-3.9237799999999996E-2</v>
       </c>
-      <c r="AO2" s="9">
-        <f>AVERAGE(L2,M2,T2,U2)</f>
+      <c r="AP2" s="9">
+        <f>AVERAGE(M2,N2,U2,V2)</f>
         <v>-6.5459500000000004E-2</v>
       </c>
-      <c r="AP2" s="9">
-        <f>AVERAGE(X2,Y2,AF2,AG2)</f>
+      <c r="AQ2" s="9">
+        <f>AVERAGE(Y2,Z2,AG2,AH2)</f>
         <v>3.2294749999999997E-2</v>
       </c>
-      <c r="AQ2" s="8">
-        <f>AVERAGE(AB2,AC2,AJ2,AK2)</f>
+      <c r="AR2" s="8">
+        <f>AVERAGE(AC2,AD2,AK2,AL2)</f>
         <v>4.1047E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>5.8707000000000003</v>
       </c>
@@ -1064,136 +1088,139 @@
         <f t="shared" ref="G3:G36" si="0">SUM(D3,E3,F3)</f>
         <v>57</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="27">
+        <v>64</v>
+      </c>
+      <c r="I3" s="7">
         <v>-4.4829000000000001E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.220913</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J36" si="1">AVERAGE(H3,I3)</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K36" si="1">AVERAGE(I3,J3)</f>
         <v>8.8041999999999995E-2</v>
       </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K36" si="2">I3-H3</f>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L36" si="2">J3-I3</f>
         <v>0.26574199999999998</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>-4.4685000000000002E-2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.18799199999999999</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N36" si="3">AVERAGE(L3,M3)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O36" si="3">AVERAGE(M3,N3)</f>
         <v>7.1653499999999995E-2</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3:O36" si="4">M3-L3</f>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P36" si="4">N3-M3</f>
         <v>0.23267699999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R36" si="5">AVERAGE(P3,Q3)</f>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3:S36" si="5">AVERAGE(Q3,R3)</f>
         <v>3.1843500000000004E-2</v>
       </c>
-      <c r="S3" s="8">
-        <f t="shared" ref="S3:S36" si="6">Q3-P3</f>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T36" si="6">R3-Q3</f>
         <v>9.4075000000000006E-2</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.14275299999999999</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.14035700000000001</v>
       </c>
-      <c r="V3" s="9">
-        <f t="shared" ref="V3:V36" si="7">AVERAGE(T3,U3)</f>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W36" si="7">AVERAGE(U3,V3)</f>
         <v>0.14155499999999999</v>
       </c>
-      <c r="W3" s="9">
-        <f t="shared" ref="W3:W36" si="8">U3-T3</f>
+      <c r="X3" s="9">
+        <f t="shared" ref="X3:X36" si="8">V3-U3</f>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Y3" s="7">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>5.3681E-2</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z36" si="9">AVERAGE(X3,Y3)</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA36" si="9">AVERAGE(Y3,Z3)</f>
         <v>-1.6001499999999998E-2</v>
       </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA36" si="10">Y3-X3</f>
+      <c r="AB3" s="8">
+        <f t="shared" ref="AB3:AB36" si="10">Z3-Y3</f>
         <v>0.13936499999999999</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AC3" s="7">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.105311</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD36" si="11">AVERAGE(AB3,AC3)</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE36" si="11">AVERAGE(AC3,AD3)</f>
         <v>6.2038999999999997E-2</v>
       </c>
-      <c r="AE3" s="8">
-        <f t="shared" ref="AE3:AE36" si="12">AC3-AB3</f>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF36" si="12">AD3-AC3</f>
         <v>8.654400000000001E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>6.0252E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.193687</v>
       </c>
-      <c r="AH3">
-        <f t="shared" ref="AH3:AH36" si="13">AVERAGE(AF3,AG3)</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI36" si="13">AVERAGE(AG3,AH3)</f>
         <v>0.12696950000000001</v>
       </c>
-      <c r="AI3" s="8">
-        <f t="shared" ref="AI3:AI36" si="14">AG3-AF3</f>
+      <c r="AJ3" s="8">
+        <f t="shared" ref="AJ3:AJ36" si="14">AH3-AG3</f>
         <v>0.133435</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="AL3">
-        <f t="shared" ref="AL3:AL36" si="15">AVERAGE(AJ3,AK3)</f>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM36" si="15">AVERAGE(AK3,AL3)</f>
         <v>3.4513499999999996E-2</v>
       </c>
-      <c r="AM3" s="8">
-        <f t="shared" ref="AM3:AM36" si="16">AK3-AJ3</f>
+      <c r="AN3" s="8">
+        <f t="shared" ref="AN3:AN36" si="16">AL3-AK3</f>
         <v>0.116495</v>
       </c>
-      <c r="AN3" s="7">
-        <f t="shared" ref="AN3:AN36" si="17">AVERAGE(H3,I3,P3,Q3,)</f>
+      <c r="AO3" s="7">
+        <f t="shared" ref="AO3:AO36" si="17">AVERAGE(I3,J3,Q3,R3,)</f>
         <v>4.7954199999999995E-2</v>
       </c>
-      <c r="AO3" s="9">
-        <f t="shared" ref="AO3:AO36" si="18">AVERAGE(L3,M3,T3,U3)</f>
+      <c r="AP3" s="9">
+        <f t="shared" ref="AP3:AP36" si="18">AVERAGE(M3,N3,U3,V3)</f>
         <v>0.10660425</v>
       </c>
-      <c r="AP3" s="9">
-        <f t="shared" ref="AP3:AP36" si="19">AVERAGE(X3,Y3,AF3,AG3)</f>
+      <c r="AQ3" s="9">
+        <f t="shared" ref="AQ3:AQ36" si="19">AVERAGE(Y3,Z3,AG3,AH3)</f>
         <v>5.5483999999999999E-2</v>
       </c>
-      <c r="AQ3" s="8">
-        <f t="shared" ref="AQ3:AQ36" si="20">AVERAGE(AB3,AC3,AJ3,AK3)</f>
+      <c r="AR3" s="8">
+        <f t="shared" ref="AR3:AR36" si="20">AVERAGE(AC3,AD3,AK3,AL3)</f>
         <v>4.8276249999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>10.6219</v>
       </c>
@@ -1216,136 +1243,139 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="27">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
         <v>-9.4667000000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.22715299999999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>-0.16091</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <f t="shared" si="2"/>
         <v>-0.13248599999999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>-8.3731E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-0.111288</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="3"/>
         <v>-9.7509499999999999E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <f t="shared" si="4"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="S4" s="9">
         <f t="shared" si="5"/>
         <v>-4.614E-3</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <f t="shared" si="6"/>
         <v>0.12742999999999999</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-0.181476</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.207646</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <f t="shared" si="7"/>
         <v>1.3084999999999999E-2</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <f t="shared" si="8"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="X4" s="7">
+      <c r="Y4" s="7">
         <v>-0.12708</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.10972</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="9"/>
         <v>-8.6800000000000002E-3</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <f t="shared" si="10"/>
         <v>0.23680000000000001</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AC4" s="7">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.148752</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f t="shared" si="11"/>
         <v>4.0518499999999999E-2</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AF4" s="8">
         <f t="shared" si="12"/>
         <v>0.21646699999999999</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-1.9528E-2</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f t="shared" si="13"/>
         <v>-6.7860000000000004E-3</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AJ4" s="8">
         <f t="shared" si="14"/>
         <v>-2.5484E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-3.6502E-2</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <f t="shared" si="15"/>
         <v>-5.0314499999999998E-2</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AN4" s="8">
         <f t="shared" si="16"/>
         <v>-2.7625000000000004E-2</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AO4" s="7">
         <f t="shared" si="17"/>
         <v>-6.6209599999999993E-2</v>
       </c>
-      <c r="AO4" s="9">
+      <c r="AP4" s="9">
         <f t="shared" si="18"/>
         <v>-4.2212250000000007E-2</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AQ4" s="9">
         <f t="shared" si="19"/>
         <v>-7.7330000000000003E-3</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AR4" s="8">
         <f t="shared" si="20"/>
         <v>-4.8980000000000013E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6.7069999999999999</v>
       </c>
@@ -1368,136 +1398,139 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="27">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
         <v>-7.8688999999999995E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.194741</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>5.8026000000000001E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <f t="shared" si="2"/>
         <v>0.27343000000000001</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>2.7518000000000001E-2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.229794</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="3"/>
         <v>0.12865599999999999</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <f t="shared" si="4"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.12393700000000001</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <f t="shared" si="5"/>
         <v>1.4809500000000003E-2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <f t="shared" si="6"/>
         <v>0.218255</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.23905000000000001</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <f t="shared" si="7"/>
         <v>8.3322000000000007E-2</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <f t="shared" si="8"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f t="shared" si="9"/>
         <v>1.9755499999999999E-2</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <f t="shared" si="10"/>
         <v>0.15478500000000001</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AC5" s="7">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="11"/>
         <v>3.9670999999999998E-2</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AF5" s="8">
         <f t="shared" si="12"/>
         <v>6.2064000000000001E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f t="shared" si="13"/>
         <v>6.6110500000000003E-2</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AJ5" s="8">
         <f t="shared" si="14"/>
         <v>2.2113000000000001E-2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.10002</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="15"/>
         <v>9.687599999999999E-2</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AN5" s="8">
         <f t="shared" si="16"/>
         <v>-6.2880000000000019E-3</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AO5" s="7">
         <f t="shared" si="17"/>
         <v>2.9134199999999999E-2</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AP5" s="9">
         <f t="shared" si="18"/>
         <v>0.105989</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AQ5" s="9">
         <f t="shared" si="19"/>
         <v>4.2932999999999999E-2</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AR5" s="8">
         <f t="shared" si="20"/>
         <v>6.8273500000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>9.8196999999999992</v>
       </c>
@@ -1520,136 +1553,139 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="27">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7">
         <v>-0.25829600000000003</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-7.9472000000000001E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>-0.16888400000000001</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <f t="shared" si="2"/>
         <v>0.17882400000000004</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>-0.34565600000000002</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-0.21967800000000001</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>-0.282667</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <f t="shared" si="4"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.12825500000000001</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <f t="shared" si="5"/>
         <v>0.109762</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <f t="shared" si="6"/>
         <v>3.6986000000000005E-2</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.118052</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.17574200000000001</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <f t="shared" si="7"/>
         <v>0.146897</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <f t="shared" si="8"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>0.194524</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.210281</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="9"/>
         <v>0.20240249999999999</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB6" s="8">
         <f t="shared" si="10"/>
         <v>1.5756999999999993E-2</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AC6" s="7">
         <v>0.154333</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.17183999999999999</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f t="shared" si="11"/>
         <v>0.1630865</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AF6" s="8">
         <f t="shared" si="12"/>
         <v>1.7506999999999995E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f t="shared" si="13"/>
         <v>7.3873999999999995E-2</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AJ6" s="8">
         <f t="shared" si="14"/>
         <v>-2.6520000000000002E-2</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="15"/>
         <v>-5.4784999999999999E-3</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AN6" s="8">
         <f t="shared" si="16"/>
         <v>-1.8792999999999997E-2</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AO6" s="7">
         <f t="shared" si="17"/>
         <v>-2.3648800000000005E-2</v>
       </c>
-      <c r="AO6" s="9">
+      <c r="AP6" s="9">
         <f t="shared" si="18"/>
         <v>-6.7885000000000001E-2</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AQ6" s="9">
         <f t="shared" si="19"/>
         <v>0.13813824999999999</v>
       </c>
-      <c r="AQ6" s="8">
+      <c r="AR6" s="8">
         <f t="shared" si="20"/>
         <v>7.8803999999999985E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>9.8634000000000004</v>
       </c>
@@ -1672,136 +1708,139 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>-0.16339500000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.6807000000000005E-2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>-4.8294000000000004E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <f t="shared" si="2"/>
         <v>0.23020200000000002</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>-0.192084</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-1.6109999999999999E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>-0.104097</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <f t="shared" si="4"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <f t="shared" si="5"/>
         <v>-9.2248999999999998E-2</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <f t="shared" si="6"/>
         <v>3.5346000000000002E-2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-1.1429E-2</v>
       </c>
-      <c r="V7" s="9">
+      <c r="W7" s="9">
         <f t="shared" si="7"/>
         <v>4.8250000000000029E-4</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X7" s="9">
         <f t="shared" si="8"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="X7" s="7">
+      <c r="Y7" s="7">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1.325E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="9"/>
         <v>-4.1672500000000001E-2</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AB7" s="8">
         <f t="shared" si="10"/>
         <v>5.6845000000000007E-2</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AC7" s="7">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f t="shared" si="11"/>
         <v>-4.6443000000000005E-2</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AF7" s="8">
         <f t="shared" si="12"/>
         <v>4.3810000000000002E-2</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-0.102829</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-5.705E-3</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <f t="shared" si="13"/>
         <v>-5.4267000000000003E-2</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AJ7" s="8">
         <f t="shared" si="14"/>
         <v>9.7124000000000002E-2</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="15"/>
         <v>-7.2575000000000001E-3</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AN7" s="8">
         <f t="shared" si="16"/>
         <v>0.17085900000000001</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AO7" s="7">
         <f t="shared" si="17"/>
         <v>-5.6217200000000009E-2</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AP7" s="9">
         <f t="shared" si="18"/>
         <v>-5.1807249999999999E-2</v>
       </c>
-      <c r="AP7" s="9">
+      <c r="AQ7" s="9">
         <f t="shared" si="19"/>
         <v>-4.7969749999999999E-2</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AR7" s="8">
         <f t="shared" si="20"/>
         <v>-2.6850250000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6.4911000000000003</v>
       </c>
@@ -1824,136 +1863,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
         <v>-0.13142100000000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-4.9435E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>-9.0428000000000008E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="2"/>
         <v>8.1986000000000003E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>4.6022E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.102522</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>7.4272000000000005E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <f t="shared" si="4"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-5.646E-3</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <f t="shared" si="5"/>
         <v>3.3617500000000002E-2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <f t="shared" si="6"/>
         <v>7.8527E-2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.19786000000000001</v>
       </c>
-      <c r="V8" s="9">
+      <c r="W8" s="9">
         <f t="shared" si="7"/>
         <v>0.11440650000000001</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X8" s="9">
         <f t="shared" si="8"/>
         <v>0.166907</v>
       </c>
-      <c r="X8" s="7">
+      <c r="Y8" s="7">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="9"/>
         <v>-5.344500000000002E-3</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AB8" s="8">
         <f t="shared" si="10"/>
         <v>0.17458899999999999</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.132909</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f t="shared" si="11"/>
         <v>6.24865E-2</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AF8" s="8">
         <f t="shared" si="12"/>
         <v>0.140845</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-2.4506E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <f t="shared" si="13"/>
         <v>-1.0533000000000001E-2</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AJ8" s="8">
         <f t="shared" si="14"/>
         <v>2.7945999999999999E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.10079100000000001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="15"/>
         <v>6.8009E-2</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AN8" s="8">
         <f t="shared" si="16"/>
         <v>6.5564000000000011E-2</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AO8" s="7">
         <f t="shared" si="17"/>
         <v>-2.2724200000000007E-2</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AP8" s="9">
         <f t="shared" si="18"/>
         <v>9.4339250000000013E-2</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AQ8" s="9">
         <f t="shared" si="19"/>
         <v>-7.9387500000000014E-3</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AR8" s="8">
         <f t="shared" si="20"/>
         <v>6.5247750000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3.8052999999999999</v>
       </c>
@@ -1976,136 +2018,139 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="27">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7">
         <v>8.3090999999999998E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5.3991999999999998E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>6.8541500000000005E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="2"/>
         <v>-2.9099E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>-4.5204000000000001E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.8467000000000001E-2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>-1.33685E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <f t="shared" si="4"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-0.117303</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <f t="shared" si="5"/>
         <v>-2.3758000000000001E-2</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <f t="shared" si="6"/>
         <v>0.18709000000000001</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <f t="shared" si="7"/>
         <v>1.964500000000001E-3</v>
       </c>
-      <c r="W9" s="9">
+      <c r="X9" s="9">
         <f t="shared" si="8"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="X9" s="7">
+      <c r="Y9" s="7">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="9"/>
         <v>2.8199999999999996E-3</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AB9" s="8">
         <f t="shared" si="10"/>
         <v>7.4401999999999996E-2</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AC9" s="7">
         <v>-4.823E-3</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f t="shared" si="11"/>
         <v>2.3730499999999998E-2</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AF9" s="8">
         <f t="shared" si="12"/>
         <v>5.7106999999999998E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <f t="shared" si="13"/>
         <v>5.8800999999999999E-2</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AJ9" s="8">
         <f t="shared" si="14"/>
         <v>-5.7054000000000007E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="15"/>
         <v>5.9011000000000001E-2</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AN9" s="8">
         <f t="shared" si="16"/>
         <v>2.8873999999999997E-2</v>
       </c>
-      <c r="AN9" s="7">
+      <c r="AO9" s="7">
         <f t="shared" si="17"/>
         <v>1.7913400000000003E-2</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AP9" s="9">
         <f t="shared" si="18"/>
         <v>-5.7020000000000005E-3</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AQ9" s="9">
         <f t="shared" si="19"/>
         <v>3.0810499999999998E-2</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AR9" s="8">
         <f t="shared" si="20"/>
         <v>4.1370749999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8.9419000000000004</v>
       </c>
@@ -2128,136 +2173,139 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="27">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
         <v>4.9106999999999998E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.8681000000000002E-2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>3.8893999999999998E-2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="2"/>
         <v>-2.0425999999999996E-2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>-8.5933999999999996E-2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.18237999999999999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>-0.134157</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <f t="shared" si="4"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <f t="shared" si="5"/>
         <v>-0.1938665</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <f t="shared" si="6"/>
         <v>1.2610999999999983E-2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <f t="shared" si="7"/>
         <v>-3.0419500000000002E-2</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <f t="shared" si="8"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="X10" s="7">
+      <c r="Y10" s="7">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="9"/>
         <v>-5.8316999999999994E-2</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AB10" s="8">
         <f t="shared" si="10"/>
         <v>-4.8214E-2</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f t="shared" si="11"/>
         <v>-6.6747500000000001E-2</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AF10" s="8">
         <f t="shared" si="12"/>
         <v>1.7470999999999993E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1.0061E-2</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <f t="shared" si="13"/>
         <v>9.388500000000001E-3</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AJ10" s="8">
         <f t="shared" si="14"/>
         <v>1.3450000000000007E-3</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="15"/>
         <v>4.8164499999999999E-2</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AN10" s="8">
         <f t="shared" si="16"/>
         <v>-3.4949000000000008E-2</v>
       </c>
-      <c r="AN10" s="7">
+      <c r="AO10" s="7">
         <f t="shared" si="17"/>
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AP10" s="9">
         <f t="shared" si="18"/>
         <v>-8.2288249999999993E-2</v>
       </c>
-      <c r="AP10" s="9">
+      <c r="AQ10" s="9">
         <f t="shared" si="19"/>
         <v>-2.4464249999999996E-2</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AR10" s="8">
         <f t="shared" si="20"/>
         <v>-9.2915000000000011E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>7.8029000000000002</v>
       </c>
@@ -2280,136 +2328,139 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="27">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
         <v>-5.5462999999999998E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.15373800000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>4.9137500000000008E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="2"/>
         <v>0.20920100000000003</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>-6.019E-3</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.123721</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="3"/>
         <v>5.8851000000000001E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <f t="shared" si="4"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <f t="shared" si="5"/>
         <v>-7.5781500000000002E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <f t="shared" si="6"/>
         <v>4.5821000000000001E-2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.12706000000000001</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <f t="shared" si="7"/>
         <v>9.7461500000000006E-2</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <f t="shared" si="8"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="X11" s="7">
+      <c r="Y11" s="7">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.117577</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="9"/>
         <v>5.0700500000000003E-2</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AB11" s="8">
         <f t="shared" si="10"/>
         <v>0.13375300000000001</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AC11" s="7">
         <v>-4.3059E-2</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f t="shared" si="11"/>
         <v>2.5501000000000003E-2</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AF11" s="8">
         <f t="shared" si="12"/>
         <v>0.13712000000000002</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <f t="shared" si="13"/>
         <v>-0.184562</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AJ11" s="8">
         <f t="shared" si="14"/>
         <v>0.26239400000000002</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-2.0787E-2</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="15"/>
         <v>-9.0207999999999997E-2</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AN11" s="8">
         <f t="shared" si="16"/>
         <v>0.13884199999999999</v>
       </c>
-      <c r="AN11" s="7">
+      <c r="AO11" s="7">
         <f t="shared" si="17"/>
         <v>-1.0657599999999998E-2</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AP11" s="9">
         <f t="shared" si="18"/>
         <v>7.815625000000001E-2</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AQ11" s="9">
         <f t="shared" si="19"/>
         <v>-6.6930749999999997E-2</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AR11" s="8">
         <f t="shared" si="20"/>
         <v>-3.2353499999999993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9.8434000000000008</v>
       </c>
@@ -2432,136 +2483,139 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>-0.13824</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-6.7613000000000006E-2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>-0.1029265</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="2"/>
         <v>7.0626999999999995E-2</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>-0.33188800000000002</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-0.12595500000000001</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>-0.2289215</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <f t="shared" si="4"/>
         <v>0.205933</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.28608899999999998</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.128694</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <f t="shared" si="5"/>
         <v>0.20739150000000001</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <f t="shared" si="6"/>
         <v>-0.15739499999999998</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="V12" s="9">
+      <c r="W12" s="9">
         <f t="shared" si="7"/>
         <v>5.2226000000000002E-2</v>
       </c>
-      <c r="W12" s="9">
+      <c r="X12" s="9">
         <f t="shared" si="8"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="X12" s="7">
+      <c r="Y12" s="7">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.215258</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="9"/>
         <v>0.139156</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AB12" s="8">
         <f t="shared" si="10"/>
         <v>0.15220400000000001</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AC12" s="7">
         <v>4.6105E-2</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>0.137603</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f t="shared" si="11"/>
         <v>9.1854000000000005E-2</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AF12" s="8">
         <f t="shared" si="12"/>
         <v>9.1497999999999996E-2</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-0.13494</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <f t="shared" si="13"/>
         <v>-0.10613500000000001</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AJ12" s="8">
         <f t="shared" si="14"/>
         <v>5.7610000000000008E-2</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-0.138872</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="15"/>
         <v>-8.1703499999999998E-2</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AN12" s="8">
         <f t="shared" si="16"/>
         <v>0.11433699999999999</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AO12" s="7">
         <f t="shared" si="17"/>
         <v>4.1785999999999997E-2</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AP12" s="9">
         <f t="shared" si="18"/>
         <v>-8.8347749999999989E-2</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AQ12" s="9">
         <f t="shared" si="19"/>
         <v>1.6510500000000001E-2</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AR12" s="8">
         <f t="shared" si="20"/>
         <v>5.0752500000000034E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6.5369000000000002</v>
       </c>
@@ -2584,136 +2638,139 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="27">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
         <v>-0.38839600000000002</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.12812999999999999</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>-0.130133</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="2"/>
         <v>0.51652600000000004</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>-0.15731800000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.20866000000000001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>2.5670999999999999E-2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <f t="shared" si="4"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-0.234845</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <f t="shared" si="5"/>
         <v>-7.8157000000000004E-2</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <f t="shared" si="6"/>
         <v>0.31337599999999999</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.11221399999999999</v>
       </c>
-      <c r="V13" s="9">
+      <c r="W13" s="9">
         <f t="shared" si="7"/>
         <v>-1.0256000000000008E-2</v>
       </c>
-      <c r="W13" s="9">
+      <c r="X13" s="9">
         <f t="shared" si="8"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="X13" s="7">
+      <c r="Y13" s="7">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-0.11538</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="9"/>
         <v>-0.22326849999999998</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AB13" s="8">
         <f t="shared" si="10"/>
         <v>0.215777</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AC13" s="7">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f t="shared" si="11"/>
         <v>-0.12353550000000001</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AF13" s="8">
         <f t="shared" si="12"/>
         <v>0.26383699999999999</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <f t="shared" si="13"/>
         <v>-9.4799499999999995E-2</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AJ13" s="8">
         <f t="shared" si="14"/>
         <v>0.37654500000000002</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.11176899999999999</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="15"/>
         <v>-3.2333500000000008E-2</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AN13" s="8">
         <f t="shared" si="16"/>
         <v>0.28820499999999999</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AO13" s="7">
         <f t="shared" si="17"/>
         <v>-8.3315999999999987E-2</v>
       </c>
-      <c r="AO13" s="9">
+      <c r="AP13" s="9">
         <f t="shared" si="18"/>
         <v>7.7074999999999956E-3</v>
       </c>
-      <c r="AP13" s="9">
+      <c r="AQ13" s="9">
         <f t="shared" si="19"/>
         <v>-0.15903399999999998</v>
       </c>
-      <c r="AQ13" s="8">
+      <c r="AR13" s="8">
         <f t="shared" si="20"/>
         <v>-7.7934500000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>6.3827999999999996</v>
       </c>
@@ -2736,136 +2793,139 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="27">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
         <v>-0.11112</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9.7069000000000003E-2</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>-7.025499999999997E-3</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="2"/>
         <v>0.20818900000000001</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>-5.3636000000000003E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.110414</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>2.8388999999999998E-2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <f t="shared" si="4"/>
         <v>0.16405</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.10111000000000001</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <f t="shared" si="5"/>
         <v>8.2768499999999995E-2</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <f t="shared" si="6"/>
         <v>3.6683000000000007E-2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.19539500000000001</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W14" s="9">
         <f t="shared" si="7"/>
         <v>0.10770150000000001</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <f t="shared" si="8"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="X14" s="7">
+      <c r="Y14" s="7">
         <v>1.7904E-2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f t="shared" si="9"/>
         <v>2.7759499999999999E-2</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AB14" s="8">
         <f t="shared" si="10"/>
         <v>1.9711000000000003E-2</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f t="shared" si="11"/>
         <v>6.5410999999999997E-2</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AF14" s="8">
         <f t="shared" si="12"/>
         <v>3.7484000000000003E-2</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1.1417E-2</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <f t="shared" si="13"/>
         <v>-6.6409999999999993E-3</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AJ14" s="8">
         <f t="shared" si="14"/>
         <v>3.6115999999999995E-2</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="15"/>
         <v>5.4339499999999999E-2</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AN14" s="8">
         <f t="shared" si="16"/>
         <v>8.2510000000000014E-3</v>
       </c>
-      <c r="AN14" s="7">
+      <c r="AO14" s="7">
         <f t="shared" si="17"/>
         <v>3.0297200000000003E-2</v>
       </c>
-      <c r="AO14" s="9">
+      <c r="AP14" s="9">
         <f t="shared" si="18"/>
         <v>6.8045250000000002E-2</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AQ14" s="9">
         <f t="shared" si="19"/>
         <v>1.0559249999999999E-2</v>
       </c>
-      <c r="AQ14" s="8">
+      <c r="AR14" s="8">
         <f t="shared" si="20"/>
         <v>5.9875250000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>7.1338999999999997</v>
       </c>
@@ -2888,136 +2948,139 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="27">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
         <v>9.8320000000000005E-3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6.0309000000000001E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>3.5070500000000004E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="2"/>
         <v>5.0477000000000001E-2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>0.18918499999999999</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.11498899999999999</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>0.152087</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <f t="shared" si="4"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.6889E-2</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S15" s="9">
         <f t="shared" si="5"/>
         <v>2.1953500000000001E-2</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <f t="shared" si="6"/>
         <v>9.8710000000000013E-3</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="V15" s="9">
+      <c r="W15" s="9">
         <f t="shared" si="7"/>
         <v>-7.3528499999999997E-2</v>
       </c>
-      <c r="W15" s="9">
+      <c r="X15" s="9">
         <f t="shared" si="8"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="X15" s="7">
+      <c r="Y15" s="7">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <f t="shared" si="9"/>
         <v>4.3827000000000005E-2</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AB15" s="8">
         <f t="shared" si="10"/>
         <v>2.4275999999999999E-2</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AC15" s="7">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.13961200000000001</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f t="shared" si="11"/>
         <v>0.11247800000000001</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AF15" s="8">
         <f t="shared" si="12"/>
         <v>5.4268000000000011E-2</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.22964499999999999</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <f t="shared" si="13"/>
         <v>0.146786</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AJ15" s="8">
         <f t="shared" si="14"/>
         <v>0.16571799999999998</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.23819199999999999</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="15"/>
         <v>0.15093299999999998</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AN15" s="8">
         <f t="shared" si="16"/>
         <v>0.17451800000000001</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AO15" s="7">
         <f t="shared" si="17"/>
         <v>2.2809600000000003E-2</v>
       </c>
-      <c r="AO15" s="9">
+      <c r="AP15" s="9">
         <f t="shared" si="18"/>
         <v>3.9279250000000002E-2</v>
       </c>
-      <c r="AP15" s="9">
+      <c r="AQ15" s="9">
         <f t="shared" si="19"/>
         <v>9.5306500000000002E-2</v>
       </c>
-      <c r="AQ15" s="8">
+      <c r="AR15" s="8">
         <f t="shared" si="20"/>
         <v>0.1317055</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>9.2367000000000008</v>
       </c>
@@ -3040,136 +3103,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="27">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
         <v>-5.2725000000000001E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9.3939999999999996E-3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>-2.1665500000000001E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <f t="shared" si="2"/>
         <v>6.2119000000000001E-2</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>-3.0328999999999998E-2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.116038</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>4.2854500000000004E-2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <f t="shared" si="4"/>
         <v>0.146367</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.5961E-2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.21001400000000001</v>
       </c>
-      <c r="R16" s="9">
+      <c r="S16" s="9">
         <f t="shared" si="5"/>
         <v>0.1229875</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <f t="shared" si="6"/>
         <v>0.17405300000000001</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.143349</v>
       </c>
-      <c r="V16" s="9">
+      <c r="W16" s="9">
         <f t="shared" si="7"/>
         <v>0.12111250000000001</v>
       </c>
-      <c r="W16" s="9">
+      <c r="X16" s="9">
         <f t="shared" si="8"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="X16" s="7">
+      <c r="Y16" s="7">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="9"/>
         <v>7.8873499999999999E-2</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AB16" s="8">
         <f t="shared" si="10"/>
         <v>-2.5912999999999992E-2</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AC16" s="7">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <f t="shared" si="11"/>
         <v>6.1331499999999997E-2</v>
       </c>
-      <c r="AE16" s="8">
+      <c r="AF16" s="8">
         <f t="shared" si="12"/>
         <v>3.7024999999999995E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <f t="shared" si="13"/>
         <v>-8.7895000000000001E-2</v>
       </c>
-      <c r="AI16" s="8">
+      <c r="AJ16" s="8">
         <f t="shared" si="14"/>
         <v>3.8897999999999988E-2</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.9552E-2</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="15"/>
         <v>-1.5866999999999999E-2</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AN16" s="8">
         <f t="shared" si="16"/>
         <v>7.0837999999999998E-2</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AO16" s="7">
         <f t="shared" si="17"/>
         <v>4.0528799999999997E-2</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AP16" s="9">
         <f t="shared" si="18"/>
         <v>8.1983500000000001E-2</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AQ16" s="9">
         <f t="shared" si="19"/>
         <v>-4.5107500000000009E-3</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AR16" s="8">
         <f t="shared" si="20"/>
         <v>2.2732249999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>7.0613999999999999</v>
       </c>
@@ -3192,136 +3258,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
         <v>-0.30178100000000002</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.101994</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>-0.2018875</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <f t="shared" si="2"/>
         <v>0.19978700000000002</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>-1.1540000000000001E-3</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-2.9968999999999999E-2</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>-1.5561499999999999E-2</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <f t="shared" si="4"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-0.123182</v>
       </c>
-      <c r="R17" s="9">
+      <c r="S17" s="9">
         <f t="shared" si="5"/>
         <v>-0.19197</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <f t="shared" si="6"/>
         <v>0.13757599999999998</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="V17" s="9">
+      <c r="W17" s="9">
         <f t="shared" si="7"/>
         <v>-8.9928499999999995E-2</v>
       </c>
-      <c r="W17" s="9">
+      <c r="X17" s="9">
         <f t="shared" si="8"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="X17" s="7">
+      <c r="Y17" s="7">
         <v>-5.3668E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-0.140128</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <f t="shared" si="9"/>
         <v>-9.6897999999999998E-2</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AB17" s="8">
         <f t="shared" si="10"/>
         <v>-8.6460000000000009E-2</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AC17" s="7">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-0.186363</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <f t="shared" si="11"/>
         <v>-0.12797449999999999</v>
       </c>
-      <c r="AE17" s="8">
+      <c r="AF17" s="8">
         <f t="shared" si="12"/>
         <v>-0.11677700000000001</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <f t="shared" si="13"/>
         <v>-6.8197999999999995E-2</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AJ17" s="8">
         <f t="shared" si="14"/>
         <v>5.1035999999999991E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1.4598E-2</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="15"/>
         <v>1.0647500000000001E-2</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AN17" s="8">
         <f t="shared" si="16"/>
         <v>-7.901E-3</v>
       </c>
-      <c r="AN17" s="7">
+      <c r="AO17" s="7">
         <f t="shared" si="17"/>
         <v>-0.15754300000000002</v>
       </c>
-      <c r="AO17" s="9">
+      <c r="AP17" s="9">
         <f t="shared" si="18"/>
         <v>-5.2745E-2</v>
       </c>
-      <c r="AP17" s="9">
+      <c r="AQ17" s="9">
         <f t="shared" si="19"/>
         <v>-8.2547999999999996E-2</v>
       </c>
-      <c r="AQ17" s="8">
+      <c r="AR17" s="8">
         <f t="shared" si="20"/>
         <v>-5.8663499999999993E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>6.7188999999999997</v>
       </c>
@@ -3344,136 +3413,139 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="27">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
         <v>5.2864000000000001E-2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6.2269999999999999E-3</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>2.9545500000000002E-2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="2"/>
         <v>-4.6636999999999998E-2</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>8.4306000000000006E-2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-5.7305000000000002E-2</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="3"/>
         <v>1.3500500000000002E-2</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <f t="shared" si="4"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.22051399999999999</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
         <f t="shared" si="5"/>
         <v>0.132192</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <f t="shared" si="6"/>
         <v>0.176644</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.21227699999999999</v>
       </c>
-      <c r="V18" s="9">
+      <c r="W18" s="9">
         <f t="shared" si="7"/>
         <v>0.1103565</v>
       </c>
-      <c r="W18" s="9">
+      <c r="X18" s="9">
         <f t="shared" si="8"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="X18" s="7">
+      <c r="Y18" s="7">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.141262</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <f t="shared" si="9"/>
         <v>8.6817000000000005E-2</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AB18" s="8">
         <f t="shared" si="10"/>
         <v>0.10889</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AC18" s="7">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.131714</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <f t="shared" si="11"/>
         <v>8.4319499999999992E-2</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AF18" s="8">
         <f t="shared" si="12"/>
         <v>9.4788999999999998E-2</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <f t="shared" si="13"/>
         <v>1.5301499999999999E-2</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AJ18" s="8">
         <f t="shared" si="14"/>
         <v>-0.107377</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="15"/>
         <v>4.4991500000000004E-2</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AN18" s="8">
         <f t="shared" si="16"/>
         <v>-8.1648999999999999E-2</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AO18" s="7">
         <f t="shared" si="17"/>
         <v>6.4694999999999989E-2</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AP18" s="9">
         <f t="shared" si="18"/>
         <v>6.1928499999999997E-2</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AQ18" s="9">
         <f t="shared" si="19"/>
         <v>5.105925E-2</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AR18" s="8">
         <f t="shared" si="20"/>
         <v>6.4655499999999991E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>9.7673000000000005</v>
       </c>
@@ -3496,136 +3568,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
         <v>-8.3401000000000003E-2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-3.5672000000000002E-2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>-5.9536500000000006E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="2"/>
         <v>4.7729000000000001E-2</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>-3.5095000000000001E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7.6295000000000002E-2</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="3"/>
         <v>2.06E-2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <f t="shared" si="4"/>
         <v>0.11139</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.14959800000000001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.110315</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="9">
         <f t="shared" si="5"/>
         <v>0.1299565</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <f t="shared" si="6"/>
         <v>-3.9283000000000012E-2</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.27354899999999999</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="V19" s="9">
+      <c r="W19" s="9">
         <f t="shared" si="7"/>
         <v>0.18428849999999999</v>
       </c>
-      <c r="W19" s="9">
+      <c r="X19" s="9">
         <f t="shared" si="8"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="X19" s="7">
+      <c r="Y19" s="7">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="9"/>
         <v>7.2911500000000004E-2</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AB19" s="8">
         <f t="shared" si="10"/>
         <v>-5.0679000000000002E-2</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AC19" s="7">
         <v>0.15524299999999999</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f t="shared" si="11"/>
         <v>7.6078999999999994E-2</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AF19" s="8">
         <f t="shared" si="12"/>
         <v>-0.158328</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <f t="shared" si="13"/>
         <v>5.7518E-2</v>
       </c>
-      <c r="AI19" s="8">
+      <c r="AJ19" s="8">
         <f t="shared" si="14"/>
         <v>-1.1815999999999993E-2</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <f t="shared" si="15"/>
         <v>5.3111999999999999E-2</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AN19" s="8">
         <f t="shared" si="16"/>
         <v>5.3892000000000009E-2</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AO19" s="7">
         <f t="shared" si="17"/>
         <v>2.8167999999999999E-2</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AP19" s="9">
         <f t="shared" si="18"/>
         <v>0.10244425</v>
       </c>
-      <c r="AP19" s="9">
+      <c r="AQ19" s="9">
         <f t="shared" si="19"/>
         <v>6.5214750000000002E-2</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AR19" s="8">
         <f t="shared" si="20"/>
         <v>6.45955E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>8.6026000000000007</v>
       </c>
@@ -3648,136 +3723,139 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="27">
+        <v>62</v>
+      </c>
+      <c r="I20" s="7">
         <v>-5.6569999999999997E-3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.4454E-2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>-1.00555E-2</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="2"/>
         <v>-8.7969999999999993E-3</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>2.7300999999999999E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5.6370999999999997E-2</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" si="3"/>
         <v>4.1835999999999998E-2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <f t="shared" si="4"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <f t="shared" si="5"/>
         <v>-0.210621</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <f t="shared" si="6"/>
         <v>7.5739999999999974E-3</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-0.108635</v>
       </c>
-      <c r="V20" s="9">
+      <c r="W20" s="9">
         <f t="shared" si="7"/>
         <v>-7.8283500000000006E-2</v>
       </c>
-      <c r="W20" s="9">
+      <c r="X20" s="9">
         <f t="shared" si="8"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="X20" s="7">
+      <c r="Y20" s="7">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="9"/>
         <v>-0.20884049999999998</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AB20" s="8">
         <f t="shared" si="10"/>
         <v>-3.004900000000002E-2</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AC20" s="7">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-0.243644</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f t="shared" si="11"/>
         <v>-0.2115995</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AF20" s="8">
         <f t="shared" si="12"/>
         <v>-6.4089000000000007E-2</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <f t="shared" si="13"/>
         <v>2.4301999999999997E-2</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AJ20" s="8">
         <f t="shared" si="14"/>
         <v>6.1182E-2</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-2.7833E-2</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <f t="shared" si="15"/>
         <v>-1.4052E-2</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AN20" s="8">
         <f t="shared" si="16"/>
         <v>2.7562E-2</v>
       </c>
-      <c r="AN20" s="7">
+      <c r="AO20" s="7">
         <f t="shared" si="17"/>
         <v>-8.8270600000000005E-2</v>
       </c>
-      <c r="AO20" s="9">
+      <c r="AP20" s="9">
         <f t="shared" si="18"/>
         <v>-1.822375E-2</v>
       </c>
-      <c r="AP20" s="9">
+      <c r="AQ20" s="9">
         <f t="shared" si="19"/>
         <v>-9.2269249999999997E-2</v>
       </c>
-      <c r="AQ20" s="8">
+      <c r="AR20" s="8">
         <f t="shared" si="20"/>
         <v>-0.11282575</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>7.6535000000000002</v>
       </c>
@@ -3800,136 +3878,139 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="27">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7">
         <v>0.14799699999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-3.7810000000000003E-2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>5.509349999999999E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <f t="shared" si="2"/>
         <v>-0.185807</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>9.4934000000000004E-2</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.13406599999999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="3"/>
         <v>0.11449999999999999</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <f t="shared" si="4"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S21" s="9">
         <f t="shared" si="5"/>
         <v>-6.7938999999999999E-2</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <f t="shared" si="6"/>
         <v>0.23082399999999997</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-4.718E-2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.28090999999999999</v>
       </c>
-      <c r="V21" s="9">
+      <c r="W21" s="9">
         <f t="shared" si="7"/>
         <v>0.116865</v>
       </c>
-      <c r="W21" s="9">
+      <c r="X21" s="9">
         <f t="shared" si="8"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="X21" s="7">
+      <c r="Y21" s="7">
         <v>-3.8438E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.12843599999999999</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f t="shared" si="9"/>
         <v>4.4998999999999997E-2</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AB21" s="8">
         <f t="shared" si="10"/>
         <v>0.16687399999999999</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AC21" s="7">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.148115</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <f t="shared" si="11"/>
         <v>3.3486999999999996E-2</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AF21" s="8">
         <f t="shared" si="12"/>
         <v>0.22925600000000002</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>6.2327E-2</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <f t="shared" si="13"/>
         <v>6.4046000000000006E-2</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AJ21" s="8">
         <f t="shared" si="14"/>
         <v>3.4380000000000036E-3</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3.0948E-2</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>6.0911E-2</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <f t="shared" si="15"/>
         <v>4.5929499999999998E-2</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AN21" s="8">
         <f t="shared" si="16"/>
         <v>2.9963E-2</v>
       </c>
-      <c r="AN21" s="7">
+      <c r="AO21" s="7">
         <f t="shared" si="17"/>
         <v>-5.1382000000000008E-3</v>
       </c>
-      <c r="AO21" s="9">
+      <c r="AP21" s="9">
         <f t="shared" si="18"/>
         <v>0.11568249999999999</v>
       </c>
-      <c r="AP21" s="9">
+      <c r="AQ21" s="9">
         <f t="shared" si="19"/>
         <v>5.4522500000000002E-2</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AR21" s="8">
         <f t="shared" si="20"/>
         <v>3.970825E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>7.0533000000000001</v>
       </c>
@@ -3952,136 +4033,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
         <v>-0.12661800000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.5799999999999998E-3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>-6.1519000000000004E-2</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="2"/>
         <v>0.13019800000000001</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>-0.20003399999999999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-7.4226E-2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" si="3"/>
         <v>-0.13713</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <f t="shared" si="4"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-0.195438</v>
       </c>
-      <c r="R22" s="9">
+      <c r="S22" s="9">
         <f t="shared" si="5"/>
         <v>-0.18106949999999999</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <f t="shared" si="6"/>
         <v>-2.8737000000000013E-2</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-0.141933</v>
       </c>
-      <c r="V22" s="9">
+      <c r="W22" s="9">
         <f t="shared" si="7"/>
         <v>-0.1150215</v>
       </c>
-      <c r="W22" s="9">
+      <c r="X22" s="9">
         <f t="shared" si="8"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="X22" s="7">
+      <c r="Y22" s="7">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f t="shared" si="9"/>
         <v>-0.18010350000000003</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AB22" s="8">
         <f t="shared" si="10"/>
         <v>3.2915E-2</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AC22" s="7">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-0.101881</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <f t="shared" si="11"/>
         <v>-0.12039800000000001</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AF22" s="8">
         <f t="shared" si="12"/>
         <v>3.7034000000000011E-2</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <f t="shared" si="13"/>
         <v>-0.13316600000000001</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AJ22" s="8">
         <f t="shared" si="14"/>
         <v>0.12108999999999999</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <f t="shared" si="15"/>
         <v>-7.1504000000000012E-2</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AN22" s="8">
         <f t="shared" si="16"/>
         <v>-1.6820000000000029E-3</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AO22" s="7">
         <f t="shared" si="17"/>
         <v>-9.7035399999999994E-2</v>
       </c>
-      <c r="AO22" s="9">
+      <c r="AP22" s="9">
         <f t="shared" si="18"/>
         <v>-0.12607574999999999</v>
       </c>
-      <c r="AP22" s="9">
+      <c r="AQ22" s="9">
         <f t="shared" si="19"/>
         <v>-0.15663475000000002</v>
       </c>
-      <c r="AQ22" s="8">
+      <c r="AR22" s="8">
         <f t="shared" si="20"/>
         <v>-9.5951000000000009E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>5.4255000000000004</v>
       </c>
@@ -4104,136 +4188,139 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="27">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7">
         <v>-6.4061000000000007E-2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8.0751000000000003E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>8.3449999999999983E-3</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <f t="shared" si="2"/>
         <v>0.144812</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>-7.7161999999999994E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1.0193000000000001E-2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="3"/>
         <v>-3.34845E-2</v>
       </c>
-      <c r="O23" s="8">
+      <c r="P23" s="8">
         <f t="shared" si="4"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="R23" s="9">
+      <c r="S23" s="9">
         <f t="shared" si="5"/>
         <v>5.3096000000000004E-2</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <f t="shared" si="6"/>
         <v>5.4838000000000005E-2</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.136959</v>
       </c>
-      <c r="V23" s="9">
+      <c r="W23" s="9">
         <f t="shared" si="7"/>
         <v>0.11422450000000001</v>
       </c>
-      <c r="W23" s="9">
+      <c r="X23" s="9">
         <f t="shared" si="8"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="X23" s="7">
+      <c r="Y23" s="7">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="9"/>
         <v>6.3663999999999998E-2</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AB23" s="8">
         <f t="shared" si="10"/>
         <v>2.0130000000000002E-2</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AC23" s="7">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f t="shared" si="11"/>
         <v>-8.3564999999999993E-3</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AF23" s="8">
         <f t="shared" si="12"/>
         <v>3.6769999999999988E-3</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2.9855E-2</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <f t="shared" si="13"/>
         <v>5.9869000000000006E-2</v>
       </c>
-      <c r="AI23" s="8">
+      <c r="AJ23" s="8">
         <f t="shared" si="14"/>
         <v>6.0028000000000005E-2</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-1.7505E-2</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <f t="shared" si="15"/>
         <v>1.5484000000000001E-2</v>
       </c>
-      <c r="AM23" s="8">
+      <c r="AN23" s="8">
         <f t="shared" si="16"/>
         <v>6.5978000000000009E-2</v>
       </c>
-      <c r="AN23" s="7">
+      <c r="AO23" s="7">
         <f t="shared" si="17"/>
         <v>2.4576399999999998E-2</v>
       </c>
-      <c r="AO23" s="9">
+      <c r="AP23" s="9">
         <f t="shared" si="18"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="AP23" s="9">
+      <c r="AQ23" s="9">
         <f t="shared" si="19"/>
         <v>6.1766500000000002E-2</v>
       </c>
-      <c r="AQ23" s="8">
+      <c r="AR23" s="8">
         <f t="shared" si="20"/>
         <v>3.5637500000000009E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>7.1264000000000003</v>
       </c>
@@ -4256,136 +4343,139 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="27">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
         <v>-0.134769</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-4.9349999999999998E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>-9.2059500000000002E-2</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <f t="shared" si="2"/>
         <v>8.5418999999999995E-2</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <v>-5.0312000000000003E-2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>8.9726E-2</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="3"/>
         <v>1.9706999999999999E-2</v>
       </c>
-      <c r="O24" s="8">
+      <c r="P24" s="8">
         <f t="shared" si="4"/>
         <v>0.140038</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="R24" s="9">
+      <c r="S24" s="9">
         <f t="shared" si="5"/>
         <v>-4.5608500000000003E-2</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <f t="shared" si="6"/>
         <v>7.6007000000000005E-2</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="V24" s="9">
+      <c r="W24" s="9">
         <f t="shared" si="7"/>
         <v>6.3249999999999973E-3</v>
       </c>
-      <c r="W24" s="9">
+      <c r="X24" s="9">
         <f t="shared" si="8"/>
         <v>0.17113</v>
       </c>
-      <c r="X24" s="7">
+      <c r="Y24" s="7">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-0.120354</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="9"/>
         <v>-0.221527</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AB24" s="8">
         <f t="shared" si="10"/>
         <v>0.20234599999999997</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AC24" s="7">
         <v>-0.180978</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f t="shared" si="11"/>
         <v>-7.9823500000000006E-2</v>
       </c>
-      <c r="AE24" s="8">
+      <c r="AF24" s="8">
         <f t="shared" si="12"/>
         <v>0.20230899999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-4.326E-2</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <f t="shared" si="13"/>
         <v>-0.10291449999999999</v>
       </c>
-      <c r="AI24" s="8">
+      <c r="AJ24" s="8">
         <f t="shared" si="14"/>
         <v>0.119309</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <f t="shared" si="15"/>
         <v>-1.2176500000000002E-2</v>
       </c>
-      <c r="AM24" s="8">
+      <c r="AN24" s="8">
         <f t="shared" si="16"/>
         <v>5.7551000000000005E-2</v>
       </c>
-      <c r="AN24" s="7">
+      <c r="AO24" s="7">
         <f t="shared" si="17"/>
         <v>-5.5067199999999997E-2</v>
       </c>
-      <c r="AO24" s="9">
+      <c r="AP24" s="9">
         <f t="shared" si="18"/>
         <v>1.3015999999999998E-2</v>
       </c>
-      <c r="AP24" s="9">
+      <c r="AQ24" s="9">
         <f t="shared" si="19"/>
         <v>-0.16222075</v>
       </c>
-      <c r="AQ24" s="8">
+      <c r="AR24" s="8">
         <f t="shared" si="20"/>
         <v>-4.6000000000000006E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>8.3969000000000005</v>
       </c>
@@ -4408,136 +4498,139 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="27">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
         <v>-0.18016799999999999</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7.5980000000000006E-2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>-5.2093999999999994E-2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <f t="shared" si="2"/>
         <v>0.25614799999999999</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <v>-0.163575</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.12099799999999999</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="3"/>
         <v>-0.14228649999999998</v>
       </c>
-      <c r="O25" s="8">
+      <c r="P25" s="8">
         <f t="shared" si="4"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="R25" s="9">
+      <c r="S25" s="9">
         <f t="shared" si="5"/>
         <v>6.2475000000000003E-2</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <f t="shared" si="6"/>
         <v>-8.5760000000000003E-3</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.109371</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="V25" s="9">
+      <c r="W25" s="9">
         <f t="shared" si="7"/>
         <v>9.9341499999999999E-2</v>
       </c>
-      <c r="W25" s="9">
+      <c r="X25" s="9">
         <f t="shared" si="8"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="X25" s="7">
+      <c r="Y25" s="7">
         <v>1.3393E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.151031</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <f t="shared" si="9"/>
         <v>8.2211999999999993E-2</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AB25" s="8">
         <f t="shared" si="10"/>
         <v>0.13763800000000001</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AC25" s="7">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <f t="shared" si="11"/>
         <v>6.5942500000000001E-2</v>
       </c>
-      <c r="AE25" s="8">
+      <c r="AF25" s="8">
         <f t="shared" si="12"/>
         <v>5.9520999999999998E-2</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-0.127494</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <f t="shared" si="13"/>
         <v>-6.6061499999999995E-2</v>
       </c>
-      <c r="AI25" s="8">
+      <c r="AJ25" s="8">
         <f t="shared" si="14"/>
         <v>0.122865</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <f t="shared" si="15"/>
         <v>-1.72695E-2</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AN25" s="8">
         <f t="shared" si="16"/>
         <v>0.11473899999999999</v>
       </c>
-      <c r="AN25" s="7">
+      <c r="AO25" s="7">
         <f t="shared" si="17"/>
         <v>4.1524000000000031E-3</v>
       </c>
-      <c r="AO25" s="9">
+      <c r="AP25" s="9">
         <f t="shared" si="18"/>
         <v>-2.1472499999999992E-2</v>
       </c>
-      <c r="AP25" s="9">
+      <c r="AQ25" s="9">
         <f t="shared" si="19"/>
         <v>8.0752499999999974E-3</v>
       </c>
-      <c r="AQ25" s="8">
+      <c r="AR25" s="8">
         <f t="shared" si="20"/>
         <v>2.43365E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>10.875999999999999</v>
       </c>
@@ -4560,136 +4653,139 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="27">
+        <v>34</v>
+      </c>
+      <c r="I26" s="7">
         <v>-6.6739000000000007E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.293433</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>0.113347</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <f t="shared" si="2"/>
         <v>0.36017199999999999</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>3.3617000000000001E-2</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.17433000000000001</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="3"/>
         <v>0.10397350000000001</v>
       </c>
-      <c r="O26" s="8">
+      <c r="P26" s="8">
         <f t="shared" si="4"/>
         <v>0.140713</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.16288</v>
       </c>
-      <c r="R26" s="9">
+      <c r="S26" s="9">
         <f t="shared" si="5"/>
         <v>0.111093</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <f t="shared" si="6"/>
         <v>0.103574</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-5.4826E-2</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="V26" s="9">
+      <c r="W26" s="9">
         <f t="shared" si="7"/>
         <v>-1.8710999999999998E-2</v>
       </c>
-      <c r="W26" s="9">
+      <c r="X26" s="9">
         <f t="shared" si="8"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="X26" s="7">
+      <c r="Y26" s="7">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.13849800000000001</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <f t="shared" si="9"/>
         <v>9.4159500000000007E-2</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AB26" s="8">
         <f t="shared" si="10"/>
         <v>8.8677000000000006E-2</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AC26" s="7">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.161245</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <f t="shared" si="11"/>
         <v>9.6601999999999993E-2</v>
       </c>
-      <c r="AE26" s="8">
+      <c r="AF26" s="8">
         <f t="shared" si="12"/>
         <v>0.12928600000000001</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <f t="shared" si="13"/>
         <v>5.4131000000000006E-2</v>
       </c>
-      <c r="AI26" s="8">
+      <c r="AJ26" s="8">
         <f t="shared" si="14"/>
         <v>6.7872000000000002E-2</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.19259299999999999</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <f t="shared" si="15"/>
         <v>0.13812099999999999</v>
       </c>
-      <c r="AM26" s="8">
+      <c r="AN26" s="8">
         <f t="shared" si="16"/>
         <v>0.10894399999999999</v>
       </c>
-      <c r="AN26" s="7">
+      <c r="AO26" s="7">
         <f t="shared" si="17"/>
         <v>8.9776000000000009E-2</v>
       </c>
-      <c r="AO26" s="9">
+      <c r="AP26" s="9">
         <f t="shared" si="18"/>
         <v>4.2631250000000002E-2</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AQ26" s="9">
         <f t="shared" si="19"/>
         <v>7.4145249999999996E-2</v>
       </c>
-      <c r="AQ26" s="8">
+      <c r="AR26" s="8">
         <f t="shared" si="20"/>
         <v>0.11736150000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>8.4403000000000006</v>
       </c>
@@ -4712,136 +4808,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
         <v>-0.123791</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-6.2100000000000002E-4</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>-6.2205999999999997E-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <f t="shared" si="2"/>
         <v>0.12317</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>-0.20208100000000001</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-5.6236000000000001E-2</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="3"/>
         <v>-0.12915850000000001</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <f t="shared" si="4"/>
         <v>0.145845</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-0.114108</v>
       </c>
-      <c r="R27" s="9">
+      <c r="S27" s="9">
         <f t="shared" si="5"/>
         <v>-8.0347000000000002E-2</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <f t="shared" si="6"/>
         <v>-6.7521999999999999E-2</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="V27" s="9">
+      <c r="W27" s="9">
         <f t="shared" si="7"/>
         <v>-7.1576500000000001E-2</v>
       </c>
-      <c r="W27" s="9">
+      <c r="X27" s="9">
         <f t="shared" si="8"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="X27" s="7">
+      <c r="Y27" s="7">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <f t="shared" si="9"/>
         <v>-1.6562999999999998E-2</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AB27" s="8">
         <f t="shared" si="10"/>
         <v>-0.105016</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AC27" s="7">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-0.123275</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <f t="shared" si="11"/>
         <v>-5.0494999999999998E-2</v>
       </c>
-      <c r="AE27" s="8">
+      <c r="AF27" s="8">
         <f t="shared" si="12"/>
         <v>-0.14555999999999999</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <f t="shared" si="13"/>
         <v>-0.1063225</v>
       </c>
-      <c r="AI27" s="8">
+      <c r="AJ27" s="8">
         <f t="shared" si="14"/>
         <v>8.9771000000000017E-2</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <f t="shared" si="15"/>
         <v>-0.10208099999999999</v>
       </c>
-      <c r="AM27" s="8">
+      <c r="AN27" s="8">
         <f t="shared" si="16"/>
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="AN27" s="7">
+      <c r="AO27" s="7">
         <f t="shared" si="17"/>
         <v>-5.7021199999999994E-2</v>
       </c>
-      <c r="AO27" s="9">
+      <c r="AP27" s="9">
         <f t="shared" si="18"/>
         <v>-0.1003675</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AQ27" s="9">
         <f t="shared" si="19"/>
         <v>-6.1442749999999997E-2</v>
       </c>
-      <c r="AQ27" s="8">
+      <c r="AR27" s="8">
         <f t="shared" si="20"/>
         <v>-7.6287999999999995E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>6.7473000000000001</v>
       </c>
@@ -4864,136 +4963,139 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="27">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
         <v>-8.9329000000000006E-2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3.9376000000000001E-2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>-2.4976500000000002E-2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <f t="shared" si="2"/>
         <v>0.12870500000000001</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>-0.23002300000000001</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.102991</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="3"/>
         <v>-0.16650700000000002</v>
       </c>
-      <c r="O28" s="8">
+      <c r="P28" s="8">
         <f t="shared" si="4"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="R28" s="9">
+      <c r="S28" s="9">
         <f t="shared" si="5"/>
         <v>-3.9793500000000002E-2</v>
       </c>
-      <c r="S28" s="8">
+      <c r="T28" s="8">
         <f t="shared" si="6"/>
         <v>0.207509</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-0.187551</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="V28" s="9">
+      <c r="W28" s="9">
         <f t="shared" si="7"/>
         <v>-6.0641500000000001E-2</v>
       </c>
-      <c r="W28" s="9">
+      <c r="X28" s="9">
         <f t="shared" si="8"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="X28" s="7">
+      <c r="Y28" s="7">
         <v>1.6114E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.11569400000000001</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <f t="shared" si="9"/>
         <v>6.5904000000000004E-2</v>
       </c>
-      <c r="AA28" s="8">
+      <c r="AB28" s="8">
         <f t="shared" si="10"/>
         <v>9.9580000000000002E-2</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AC28" s="7">
         <v>0.13467999999999999</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.19463</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <f t="shared" si="11"/>
         <v>0.164655</v>
       </c>
-      <c r="AE28" s="8">
+      <c r="AF28" s="8">
         <f t="shared" si="12"/>
         <v>5.9950000000000003E-2</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.12603200000000001</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2.8617E-2</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <f t="shared" si="13"/>
         <v>7.7324500000000004E-2</v>
       </c>
-      <c r="AI28" s="8">
+      <c r="AJ28" s="8">
         <f t="shared" si="14"/>
         <v>-9.7415000000000002E-2</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-1.9386E-2</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <f t="shared" si="15"/>
         <v>-2.65805E-2</v>
       </c>
-      <c r="AM28" s="8">
+      <c r="AN28" s="8">
         <f t="shared" si="16"/>
         <v>1.4388999999999999E-2</v>
       </c>
-      <c r="AN28" s="7">
+      <c r="AO28" s="7">
         <f t="shared" si="17"/>
         <v>-2.5907999999999997E-2</v>
       </c>
-      <c r="AO28" s="9">
+      <c r="AP28" s="9">
         <f t="shared" si="18"/>
         <v>-0.11357425000000002</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AQ28" s="9">
         <f t="shared" si="19"/>
         <v>7.1614250000000004E-2</v>
       </c>
-      <c r="AQ28" s="8">
+      <c r="AR28" s="8">
         <f t="shared" si="20"/>
         <v>6.9037249999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>5.7484999999999999</v>
       </c>
@@ -5016,136 +5118,139 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="27">
+        <v>56</v>
+      </c>
+      <c r="I29" s="7">
         <v>-0.11485099999999999</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.3073E-2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>-4.5888999999999999E-2</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <f t="shared" si="2"/>
         <v>0.13792399999999999</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>3.1149E-2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.18643399999999999</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f t="shared" si="3"/>
         <v>0.1087915</v>
       </c>
-      <c r="O29" s="8">
+      <c r="P29" s="8">
         <f t="shared" si="4"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="R29" s="9">
+      <c r="S29" s="9">
         <f t="shared" si="5"/>
         <v>1.5129000000000004E-2</v>
       </c>
-      <c r="S29" s="8">
+      <c r="T29" s="8">
         <f t="shared" si="6"/>
         <v>0.136658</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.119044</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.19715199999999999</v>
       </c>
-      <c r="V29" s="9">
+      <c r="W29" s="9">
         <f t="shared" si="7"/>
         <v>0.15809799999999999</v>
       </c>
-      <c r="W29" s="9">
+      <c r="X29" s="9">
         <f t="shared" si="8"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="X29" s="7">
+      <c r="Y29" s="7">
         <v>-0.161076</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <f t="shared" si="9"/>
         <v>-0.12481200000000001</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AB29" s="8">
         <f t="shared" si="10"/>
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AC29" s="7">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <f t="shared" si="11"/>
         <v>-5.4471499999999999E-2</v>
       </c>
-      <c r="AE29" s="8">
+      <c r="AF29" s="8">
         <f t="shared" si="12"/>
         <v>1.4099E-2</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>2.1512E-2</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <f t="shared" si="13"/>
         <v>-6.8503499999999995E-2</v>
       </c>
-      <c r="AI29" s="8">
+      <c r="AJ29" s="8">
         <f t="shared" si="14"/>
         <v>0.180031</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <f t="shared" si="15"/>
         <v>-3.1339999999999979E-3</v>
       </c>
-      <c r="AM29" s="8">
+      <c r="AN29" s="8">
         <f t="shared" si="16"/>
         <v>0.177814</v>
       </c>
-      <c r="AN29" s="7">
+      <c r="AO29" s="7">
         <f t="shared" si="17"/>
         <v>-1.2303999999999999E-2</v>
       </c>
-      <c r="AO29" s="9">
+      <c r="AP29" s="9">
         <f t="shared" si="18"/>
         <v>0.13344475</v>
       </c>
-      <c r="AP29" s="9">
+      <c r="AQ29" s="9">
         <f t="shared" si="19"/>
         <v>-9.6657750000000014E-2</v>
       </c>
-      <c r="AQ29" s="8">
+      <c r="AR29" s="8">
         <f t="shared" si="20"/>
         <v>-2.8802749999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>6.6740000000000004</v>
       </c>
@@ -5168,136 +5273,139 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="27">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
         <v>-0.217475</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.8468000000000002E-2</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>-8.95035E-2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <f t="shared" si="2"/>
         <v>0.25594300000000003</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>-0.178921</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.212E-3</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f t="shared" si="3"/>
         <v>-8.8354500000000002E-2</v>
       </c>
-      <c r="O30" s="8">
+      <c r="P30" s="8">
         <f t="shared" si="4"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.17960000000000001</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="R30" s="9">
+      <c r="S30" s="9">
         <f t="shared" si="5"/>
         <v>9.8144000000000009E-2</v>
       </c>
-      <c r="S30" s="8">
+      <c r="T30" s="8">
         <f t="shared" si="6"/>
         <v>-0.162912</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.21753500000000001</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.18332100000000001</v>
       </c>
-      <c r="V30" s="9">
+      <c r="W30" s="9">
         <f t="shared" si="7"/>
         <v>0.200428</v>
       </c>
-      <c r="W30" s="9">
+      <c r="X30" s="9">
         <f t="shared" si="8"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="X30" s="7">
+      <c r="Y30" s="7">
         <v>0.114172</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.136208</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <f t="shared" si="9"/>
         <v>0.12519</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AB30" s="8">
         <f t="shared" si="10"/>
         <v>2.2036E-2</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AC30" s="7">
         <v>0.13848099999999999</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.122512</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <f t="shared" si="11"/>
         <v>0.13049649999999999</v>
       </c>
-      <c r="AE30" s="8">
+      <c r="AF30" s="8">
         <f t="shared" si="12"/>
         <v>-1.5968999999999997E-2</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2.7618E-2</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <f t="shared" si="13"/>
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="AI30" s="8">
+      <c r="AJ30" s="8">
         <f t="shared" si="14"/>
         <v>0.10863600000000001</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <f t="shared" si="15"/>
         <v>-5.0150000000000194E-4</v>
       </c>
-      <c r="AM30" s="8">
+      <c r="AN30" s="8">
         <f t="shared" si="16"/>
         <v>0.138019</v>
       </c>
-      <c r="AN30" s="7">
+      <c r="AO30" s="7">
         <f t="shared" si="17"/>
         <v>3.4562000000000022E-3</v>
       </c>
-      <c r="AO30" s="9">
+      <c r="AP30" s="9">
         <f t="shared" si="18"/>
         <v>5.6036750000000003E-2</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AQ30" s="9">
         <f t="shared" si="19"/>
         <v>4.9244999999999997E-2</v>
       </c>
-      <c r="AQ30" s="8">
+      <c r="AR30" s="8">
         <f t="shared" si="20"/>
         <v>6.49975E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>7.1413000000000002</v>
       </c>
@@ -5320,136 +5428,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
         <v>-0.27234599999999998</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-4.3165000000000002E-2</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>-0.15775549999999999</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <f t="shared" si="2"/>
         <v>0.22918099999999997</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <v>-0.11481</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.3671000000000001E-2</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" si="3"/>
         <v>-4.5569499999999999E-2</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <f t="shared" si="4"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.151338</v>
       </c>
-      <c r="R31" s="9">
+      <c r="S31" s="9">
         <f t="shared" si="5"/>
         <v>-1.1190000000000005E-2</v>
       </c>
-      <c r="S31" s="8">
+      <c r="T31" s="8">
         <f t="shared" si="6"/>
         <v>0.32505600000000001</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.28891099999999997</v>
       </c>
-      <c r="V31" s="9">
+      <c r="W31" s="9">
         <f t="shared" si="7"/>
         <v>4.7141999999999989E-2</v>
       </c>
-      <c r="W31" s="9">
+      <c r="X31" s="9">
         <f t="shared" si="8"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="X31" s="7">
+      <c r="Y31" s="7">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.18018500000000001</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <f t="shared" si="9"/>
         <v>-7.0324999999999971E-3</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AB31" s="8">
         <f t="shared" si="10"/>
         <v>0.37443500000000002</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AC31" s="7">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.156164</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <f t="shared" si="11"/>
         <v>7.9600000000000504E-4</v>
       </c>
-      <c r="AE31" s="8">
+      <c r="AF31" s="8">
         <f t="shared" si="12"/>
         <v>0.31073600000000001</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <f t="shared" si="13"/>
         <v>-2.5719999999999996E-3</v>
       </c>
-      <c r="AI31" s="8">
+      <c r="AJ31" s="8">
         <f t="shared" si="14"/>
         <v>1.559E-2</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <f t="shared" si="15"/>
         <v>-1.1622499999999999E-2</v>
       </c>
-      <c r="AM31" s="8">
+      <c r="AN31" s="8">
         <f t="shared" si="16"/>
         <v>2.4188999999999999E-2</v>
       </c>
-      <c r="AN31" s="7">
+      <c r="AO31" s="7">
         <f t="shared" si="17"/>
         <v>-6.7578200000000005E-2</v>
       </c>
-      <c r="AO31" s="9">
+      <c r="AP31" s="9">
         <f t="shared" si="18"/>
         <v>7.8625000000000222E-4</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AQ31" s="9">
         <f t="shared" si="19"/>
         <v>-4.8022499999999992E-3</v>
       </c>
-      <c r="AQ31" s="8">
+      <c r="AR31" s="8">
         <f t="shared" si="20"/>
         <v>-5.4132499999999971E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>5.1193</v>
       </c>
@@ -5472,136 +5583,139 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="27">
+        <v>46</v>
+      </c>
+      <c r="I32" s="7">
         <v>1.2302E-2</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.13015099999999999</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>7.1226499999999998E-2</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <f t="shared" si="2"/>
         <v>0.11784899999999998</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <v>3.4256000000000002E-2</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.124375</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" si="3"/>
         <v>7.9315499999999997E-2</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <f t="shared" si="4"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="R32" s="9">
+      <c r="S32" s="9">
         <f t="shared" si="5"/>
         <v>3.3142999999999999E-2</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T32" s="8">
         <f t="shared" si="6"/>
         <v>-1.3997999999999997E-2</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.11580600000000001</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="V32" s="9">
+      <c r="W32" s="9">
         <f t="shared" si="7"/>
         <v>5.5590500000000001E-2</v>
       </c>
-      <c r="W32" s="9">
+      <c r="X32" s="9">
         <f t="shared" si="8"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="X32" s="7">
+      <c r="Y32" s="7">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <f t="shared" si="9"/>
         <v>1.41815E-2</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AB32" s="8">
         <f t="shared" si="10"/>
         <v>-1.2735000000000002E-2</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AC32" s="7">
         <v>-1.2631E-2</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <f t="shared" si="11"/>
         <v>-2.9183000000000001E-2</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AF32" s="8">
         <f t="shared" si="12"/>
         <v>-3.3103999999999995E-2</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <f t="shared" si="13"/>
         <v>2.6494500000000001E-2</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AJ32" s="8">
         <f t="shared" si="14"/>
         <v>5.9737000000000005E-2</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <f t="shared" si="15"/>
         <v>1.3552499999999999E-2</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AN32" s="8">
         <f t="shared" si="16"/>
         <v>0.12911500000000001</v>
       </c>
-      <c r="AN32" s="7">
+      <c r="AO32" s="7">
         <f t="shared" si="17"/>
         <v>4.1747800000000002E-2</v>
       </c>
-      <c r="AO32" s="9">
+      <c r="AP32" s="9">
         <f t="shared" si="18"/>
         <v>6.7452999999999999E-2</v>
       </c>
-      <c r="AP32" s="9">
+      <c r="AQ32" s="9">
         <f t="shared" si="19"/>
         <v>2.0338000000000002E-2</v>
       </c>
-      <c r="AQ32" s="8">
+      <c r="AR32" s="8">
         <f t="shared" si="20"/>
         <v>-7.8152499999999993E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>6.8760000000000003</v>
       </c>
@@ -5624,136 +5738,139 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="27">
+        <v>43</v>
+      </c>
+      <c r="I33" s="7">
         <v>-0.123058</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.30115599999999998</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>8.9048999999999989E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <f t="shared" si="2"/>
         <v>0.42421399999999998</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <v>-0.15879399999999999</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.21249899999999999</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" si="3"/>
         <v>2.6852500000000001E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="P33" s="8">
         <f t="shared" si="4"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.26120700000000002</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="R33" s="9">
+      <c r="S33" s="9">
         <f t="shared" si="5"/>
         <v>0.11033100000000001</v>
       </c>
-      <c r="S33" s="8">
+      <c r="T33" s="8">
         <f t="shared" si="6"/>
         <v>-0.30175200000000002</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.23862700000000001</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="V33" s="9">
+      <c r="W33" s="9">
         <f t="shared" si="7"/>
         <v>8.2987000000000005E-2</v>
       </c>
-      <c r="W33" s="9">
+      <c r="X33" s="9">
         <f t="shared" si="8"/>
         <v>-0.31128</v>
       </c>
-      <c r="X33" s="7">
+      <c r="Y33" s="7">
         <v>0.12012</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.16584499999999999</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <f t="shared" si="9"/>
         <v>0.14298250000000001</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AB33" s="8">
         <f t="shared" si="10"/>
         <v>4.5724999999999988E-2</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AC33" s="7">
         <v>0.13563500000000001</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.18754899999999999</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <f t="shared" si="11"/>
         <v>0.16159200000000001</v>
       </c>
-      <c r="AE33" s="8">
+      <c r="AF33" s="8">
         <f t="shared" si="12"/>
         <v>5.1913999999999988E-2</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <f t="shared" si="13"/>
         <v>-0.11981849999999999</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AJ33" s="8">
         <f t="shared" si="14"/>
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <f t="shared" si="15"/>
         <v>-3.1166499999999996E-2</v>
       </c>
-      <c r="AM33" s="8">
+      <c r="AN33" s="8">
         <f t="shared" si="16"/>
         <v>0.13767299999999999</v>
       </c>
-      <c r="AN33" s="7">
+      <c r="AO33" s="7">
         <f t="shared" si="17"/>
         <v>7.9752000000000003E-2</v>
       </c>
-      <c r="AO33" s="9">
+      <c r="AP33" s="9">
         <f t="shared" si="18"/>
         <v>5.491975000000001E-2</v>
       </c>
-      <c r="AP33" s="9">
+      <c r="AQ33" s="9">
         <f t="shared" si="19"/>
         <v>1.1582000000000009E-2</v>
       </c>
-      <c r="AQ33" s="8">
+      <c r="AR33" s="8">
         <f t="shared" si="20"/>
         <v>6.521275E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>10.682600000000001</v>
       </c>
@@ -5776,136 +5893,139 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="27">
+        <v>32</v>
+      </c>
+      <c r="I34" s="7">
         <v>1.686E-2</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.16614799999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>-7.4643999999999988E-2</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <f t="shared" si="2"/>
         <v>-0.183008</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <v>3.026E-3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>3.4047000000000001E-2</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <f t="shared" si="3"/>
         <v>1.8536500000000001E-2</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <f t="shared" si="4"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-0.1232</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="R34" s="9">
+      <c r="S34" s="9">
         <f t="shared" si="5"/>
         <v>-9.5607999999999999E-2</v>
       </c>
-      <c r="S34" s="8">
+      <c r="T34" s="8">
         <f t="shared" si="6"/>
         <v>5.5184000000000011E-2</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-0.30429</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="V34" s="9">
+      <c r="W34" s="9">
         <f t="shared" si="7"/>
         <v>-0.19554250000000001</v>
       </c>
-      <c r="W34" s="9">
+      <c r="X34" s="9">
         <f t="shared" si="8"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="X34" s="7">
+      <c r="Y34" s="7">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <f t="shared" si="9"/>
         <v>-5.7687000000000002E-2</v>
       </c>
-      <c r="AA34" s="8">
+      <c r="AB34" s="8">
         <f t="shared" si="10"/>
         <v>7.3879999999999987E-3</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AC34" s="7">
         <v>-0.161796</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <f t="shared" si="11"/>
         <v>-0.13003199999999998</v>
       </c>
-      <c r="AE34" s="8">
+      <c r="AF34" s="8">
         <f t="shared" si="12"/>
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.116092</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <f t="shared" si="13"/>
         <v>3.8714999999999999E-2</v>
       </c>
-      <c r="AI34" s="8">
+      <c r="AJ34" s="8">
         <f t="shared" si="14"/>
         <v>-0.154754</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.12664800000000001</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <f t="shared" si="15"/>
         <v>9.4638E-2</v>
       </c>
-      <c r="AM34" s="8">
+      <c r="AN34" s="8">
         <f t="shared" si="16"/>
         <v>-6.4020000000000007E-2</v>
       </c>
-      <c r="AN34" s="7">
+      <c r="AO34" s="7">
         <f t="shared" si="17"/>
         <v>-6.8100799999999989E-2</v>
       </c>
-      <c r="AO34" s="9">
+      <c r="AP34" s="9">
         <f t="shared" si="18"/>
         <v>-8.8502999999999998E-2</v>
       </c>
-      <c r="AP34" s="9">
+      <c r="AQ34" s="9">
         <f t="shared" si="19"/>
         <v>-9.4860000000000014E-3</v>
       </c>
-      <c r="AQ34" s="8">
+      <c r="AR34" s="8">
         <f t="shared" si="20"/>
         <v>-1.7696999999999987E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>9.7484000000000002</v>
       </c>
@@ -5928,136 +6048,139 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="27">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7">
         <v>-0.20955199999999999</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.26041500000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>-0.23498350000000001</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <f t="shared" si="2"/>
         <v>-5.0863000000000019E-2</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <v>-0.119703</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-0.20413899999999999</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <f t="shared" si="3"/>
         <v>-0.16192099999999998</v>
       </c>
-      <c r="O35" s="8">
+      <c r="P35" s="8">
         <f t="shared" si="4"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="R35" s="9">
+      <c r="S35" s="9">
         <f t="shared" si="5"/>
         <v>2.7268500000000001E-2</v>
       </c>
-      <c r="S35" s="8">
+      <c r="T35" s="8">
         <f t="shared" si="6"/>
         <v>-2.1519E-2</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="V35" s="9">
+      <c r="W35" s="9">
         <f t="shared" si="7"/>
         <v>-7.3791999999999996E-2</v>
       </c>
-      <c r="W35" s="9">
+      <c r="X35" s="9">
         <f t="shared" si="8"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="X35" s="7">
+      <c r="Y35" s="7">
         <v>1.89E-2</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <f t="shared" si="9"/>
         <v>-3.0525999999999998E-2</v>
       </c>
-      <c r="AA35" s="8">
+      <c r="AB35" s="8">
         <f t="shared" si="10"/>
         <v>-9.8851999999999995E-2</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AC35" s="7">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <f t="shared" si="11"/>
         <v>4.9056000000000002E-2</v>
       </c>
-      <c r="AE35" s="8">
+      <c r="AF35" s="8">
         <f t="shared" si="12"/>
         <v>-5.3184000000000009E-2</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <f t="shared" si="13"/>
         <v>-0.18121399999999999</v>
       </c>
-      <c r="AI35" s="8">
+      <c r="AJ35" s="8">
         <f t="shared" si="14"/>
         <v>3.2143999999999978E-2</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>-5.527E-2</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <f t="shared" si="15"/>
         <v>-6.8565000000000001E-2</v>
       </c>
-      <c r="AM35" s="8">
+      <c r="AN35" s="8">
         <f t="shared" si="16"/>
         <v>2.6590000000000003E-2</v>
       </c>
-      <c r="AN35" s="7">
+      <c r="AO35" s="7">
         <f t="shared" si="17"/>
         <v>-8.3086000000000007E-2</v>
       </c>
-      <c r="AO35" s="9">
+      <c r="AP35" s="9">
         <f t="shared" si="18"/>
         <v>-0.11785649999999999</v>
       </c>
-      <c r="AP35" s="9">
+      <c r="AQ35" s="9">
         <f t="shared" si="19"/>
         <v>-0.10586999999999999</v>
       </c>
-      <c r="AQ35" s="8">
+      <c r="AR35" s="8">
         <f t="shared" si="20"/>
         <v>-9.7544999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>6.3623000000000003</v>
       </c>
@@ -6080,131 +6203,134 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="28">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3">
         <v>0.1038</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>0.214334</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <f t="shared" si="1"/>
         <v>0.15906700000000001</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <f t="shared" si="2"/>
         <v>0.11053399999999999</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>1.358E-2</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>0.114554</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <f t="shared" si="3"/>
         <v>6.4066999999999999E-2</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <f t="shared" si="4"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="5"/>
         <v>-4.64E-3</v>
       </c>
-      <c r="S36" s="5">
+      <c r="T36" s="5">
         <f t="shared" si="6"/>
         <v>4.3043999999999999E-2</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="7"/>
         <v>-4.7122499999999998E-2</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <f t="shared" si="8"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="X36" s="3">
+      <c r="Y36" s="3">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="Z36" s="4">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AA36" s="4">
         <f t="shared" si="9"/>
         <v>3.2489499999999998E-2</v>
       </c>
-      <c r="AA36" s="5">
+      <c r="AB36" s="5">
         <f t="shared" si="10"/>
         <v>-5.0270000000000002E-3</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AC36" s="3">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
         <v>-3.39E-4</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AE36" s="4">
         <f t="shared" si="11"/>
         <v>-4.2500000000000003E-5</v>
       </c>
-      <c r="AE36" s="5">
+      <c r="AF36" s="5">
         <f t="shared" si="12"/>
         <v>-5.9299999999999999E-4</v>
       </c>
-      <c r="AF36" s="4">
+      <c r="AG36" s="4">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="AG36" s="4">
+      <c r="AH36" s="4">
         <v>0.13294400000000001</v>
       </c>
-      <c r="AH36" s="4">
+      <c r="AI36" s="4">
         <f t="shared" si="13"/>
         <v>9.3179999999999999E-2</v>
       </c>
-      <c r="AI36" s="5">
+      <c r="AJ36" s="5">
         <f t="shared" si="14"/>
         <v>7.9528000000000015E-2</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AK36" s="4">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="AK36" s="4">
+      <c r="AL36" s="4">
         <v>0.190882</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AM36" s="4">
         <f t="shared" si="15"/>
         <v>0.12955250000000001</v>
       </c>
-      <c r="AM36" s="5">
+      <c r="AN36" s="5">
         <f t="shared" si="16"/>
         <v>0.12265899999999999</v>
       </c>
-      <c r="AN36" s="3">
+      <c r="AO36" s="3">
         <f t="shared" si="17"/>
         <v>6.1770800000000001E-2</v>
       </c>
-      <c r="AO36" s="4">
+      <c r="AP36" s="4">
         <f t="shared" si="18"/>
         <v>8.4722499999999989E-3</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="AQ36" s="4">
         <f t="shared" si="19"/>
         <v>6.2834749999999995E-2</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AR36" s="5">
         <f t="shared" si="20"/>
         <v>6.4755000000000007E-2</v>
       </c>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E964364-D142-2D49-80BA-0B6CCB2C5BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68659AFA-67DA-BF4E-9CF3-455C133A3F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/NMxAccuracy/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxAccuracy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68659AFA-67DA-BF4E-9CF3-455C133A3F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCACE26-3E29-FF40-A8C8-413E2530A7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="28980" yWindow="2760" windowWidth="25600" windowHeight="14780" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,50 +204,19 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -361,98 +330,98 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,5566 +740,5569 @@
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
+        <v>7.0149834107063498</v>
+      </c>
+      <c r="B2" s="7">
         <v>6.6323999999999996</v>
       </c>
-      <c r="B2" s="14">
-        <v>7.0149834107063498</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="C2" s="9">
         <v>7.6414811230000002</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="11">
         <v>9</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="11">
         <v>15</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="10">
         <f>SUM(D2,E2,F2)</f>
         <v>24</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="29">
         <v>24</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="12">
         <v>-6.6542000000000004E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>-0.15945799999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="13">
         <f>AVERAGE(I2,J2)</f>
         <v>-0.11299999999999999</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="14">
         <f>J2-I2</f>
         <v>-9.2915999999999985E-2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="12">
         <v>-0.127364</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="13">
         <v>-0.100619</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="13">
         <f>AVERAGE(M2,N2)</f>
         <v>-0.1139915</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="14">
         <f>N2-M2</f>
         <v>2.6745000000000005E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="13">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="13">
         <v>-8.404E-3</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="15">
         <f>AVERAGE(Q2,R2)</f>
         <v>1.4905499999999999E-2</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="14">
         <f>R2-Q2</f>
         <v>-4.6619000000000001E-2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="13">
         <v>1.4739E-2</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="13">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="15">
         <f>AVERAGE(U2,V2)</f>
         <v>-1.6927499999999998E-2</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="15">
         <f>V2-U2</f>
         <v>-6.3333E-2</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="12">
         <v>0.10792300000000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="13">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="13">
         <f>AVERAGE(Y2,Z2)</f>
         <v>9.2483499999999996E-2</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="14">
         <f>Z2-Y2</f>
         <v>-3.0879000000000004E-2</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="12">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="13">
         <v>0.103228</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="13">
         <f>AVERAGE(AC2,AD2)</f>
         <v>7.7010999999999996E-2</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="14">
         <f>AD2-AC2</f>
         <v>5.2434000000000001E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="13">
         <v>-7.3726E-2</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="13">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="13">
         <f>AVERAGE(AG2,AH2)</f>
         <v>-2.7894000000000002E-2</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="14">
         <f>AH2-AG2</f>
         <v>9.1663999999999995E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="13">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="13">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="13">
         <f>AVERAGE(AK2,AL2)</f>
         <v>5.0830000000000042E-3</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="14">
         <f>AL2-AK2</f>
         <v>0.128222</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO2" s="12">
         <f>AVERAGE(I2,J2,Q2,R2,)</f>
         <v>-3.9237799999999996E-2</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AP2" s="15">
         <f>AVERAGE(M2,N2,U2,V2)</f>
         <v>-6.5459500000000004E-2</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="15">
         <f>AVERAGE(Y2,Z2,AG2,AH2)</f>
         <v>3.2294749999999997E-2</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="14">
         <f>AVERAGE(AC2,AD2,AK2,AL2)</f>
         <v>4.1047E-2</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
+        <v>5.2837627456530871</v>
+      </c>
+      <c r="B3" s="7">
         <v>5.8707000000000003</v>
       </c>
-      <c r="B3" s="14">
-        <v>5.2837627456530871</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="C3" s="9">
         <v>4.2660031160000003</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="10">
         <v>21</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="11">
         <v>17</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="11">
         <v>19</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G36" si="0">SUM(D3,E3,F3)</f>
         <v>57</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="29">
         <v>64</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="12">
         <v>-4.4829000000000001E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <v>0.220913</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K36" si="1">AVERAGE(I3,J3)</f>
         <v>8.8041999999999995E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="14">
         <f t="shared" ref="L3:L36" si="2">J3-I3</f>
         <v>0.26574199999999998</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="12">
         <v>-4.4685000000000002E-2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="13">
         <v>0.18799199999999999</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="13">
         <f t="shared" ref="O3:O36" si="3">AVERAGE(M3,N3)</f>
         <v>7.1653499999999995E-2</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="14">
         <f t="shared" ref="P3:P36" si="4">N3-M3</f>
         <v>0.23267699999999999</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="13">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="13">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="15">
         <f t="shared" ref="S3:S36" si="5">AVERAGE(Q3,R3)</f>
         <v>3.1843500000000004E-2</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="14">
         <f t="shared" ref="T3:T36" si="6">R3-Q3</f>
         <v>9.4075000000000006E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="13">
         <v>0.14275299999999999</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="13">
         <v>0.14035700000000001</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="15">
         <f t="shared" ref="W3:W36" si="7">AVERAGE(U3,V3)</f>
         <v>0.14155499999999999</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="15">
         <f t="shared" ref="X3:X36" si="8">V3-U3</f>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="12">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="13">
         <v>5.3681E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="13">
         <f t="shared" ref="AA3:AA36" si="9">AVERAGE(Y3,Z3)</f>
         <v>-1.6001499999999998E-2</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="14">
         <f t="shared" ref="AB3:AB36" si="10">Z3-Y3</f>
         <v>0.13936499999999999</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="12">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="13">
         <v>0.105311</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="13">
         <f t="shared" ref="AE3:AE36" si="11">AVERAGE(AC3,AD3)</f>
         <v>6.2038999999999997E-2</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="14">
         <f t="shared" ref="AF3:AF36" si="12">AD3-AC3</f>
         <v>8.654400000000001E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="13">
         <v>6.0252E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="13">
         <v>0.193687</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="13">
         <f t="shared" ref="AI3:AI36" si="13">AVERAGE(AG3,AH3)</f>
         <v>0.12696950000000001</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="14">
         <f t="shared" ref="AJ3:AJ36" si="14">AH3-AG3</f>
         <v>0.133435</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="13">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="13">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="13">
         <f t="shared" ref="AM3:AM36" si="15">AVERAGE(AK3,AL3)</f>
         <v>3.4513499999999996E-2</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="14">
         <f t="shared" ref="AN3:AN36" si="16">AL3-AK3</f>
         <v>0.116495</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="12">
         <f t="shared" ref="AO3:AO36" si="17">AVERAGE(I3,J3,Q3,R3,)</f>
         <v>4.7954199999999995E-2</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP3" s="15">
         <f t="shared" ref="AP3:AP36" si="18">AVERAGE(M3,N3,U3,V3)</f>
         <v>0.10660425</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AQ3" s="15">
         <f t="shared" ref="AQ3:AQ36" si="19">AVERAGE(Y3,Z3,AG3,AH3)</f>
         <v>5.5483999999999999E-2</v>
       </c>
-      <c r="AR3" s="8">
+      <c r="AR3" s="14">
         <f t="shared" ref="AR3:AR36" si="20">AVERAGE(AC3,AD3,AK3,AL3)</f>
         <v>4.8276249999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="8">
+        <v>11.892850046254784</v>
+      </c>
+      <c r="B4" s="7">
         <v>10.6219</v>
       </c>
-      <c r="B4" s="14">
-        <v>11.892850046254784</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="C4" s="9">
         <v>12.05079462</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="11">
         <v>20</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="29">
         <v>30</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="12">
         <v>-9.4667000000000001E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="13">
         <v>-0.22715299999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="13">
         <f t="shared" si="1"/>
         <v>-0.16091</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="14">
         <f t="shared" si="2"/>
         <v>-0.13248599999999999</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="12">
         <v>-8.3731E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="13">
         <v>-0.111288</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="13">
         <f t="shared" si="3"/>
         <v>-9.7509499999999999E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="14">
         <f t="shared" si="4"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="13">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="13">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="15">
         <f t="shared" si="5"/>
         <v>-4.614E-3</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="14">
         <f t="shared" si="6"/>
         <v>0.12742999999999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="13">
         <v>-0.181476</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="13">
         <v>0.207646</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="15">
         <f t="shared" si="7"/>
         <v>1.3084999999999999E-2</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="15">
         <f t="shared" si="8"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="12">
         <v>-0.12708</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="13">
         <v>0.10972</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="13">
         <f t="shared" si="9"/>
         <v>-8.6800000000000002E-3</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="14">
         <f t="shared" si="10"/>
         <v>0.23680000000000001</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="12">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="13">
         <v>0.148752</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="13">
         <f t="shared" si="11"/>
         <v>4.0518499999999999E-2</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="14">
         <f t="shared" si="12"/>
         <v>0.21646699999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="13">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="13">
         <v>-1.9528E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="13">
         <f t="shared" si="13"/>
         <v>-6.7860000000000004E-3</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="14">
         <f t="shared" si="14"/>
         <v>-2.5484E-2</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="13">
         <v>-3.6502E-2</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="13">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="13">
         <f t="shared" si="15"/>
         <v>-5.0314499999999998E-2</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN4" s="14">
         <f t="shared" si="16"/>
         <v>-2.7625000000000004E-2</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="12">
         <f t="shared" si="17"/>
         <v>-6.6209599999999993E-2</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AP4" s="15">
         <f t="shared" si="18"/>
         <v>-4.2212250000000007E-2</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AQ4" s="15">
         <f t="shared" si="19"/>
         <v>-7.7330000000000003E-3</v>
       </c>
-      <c r="AR4" s="8">
+      <c r="AR4" s="14">
         <f t="shared" si="20"/>
         <v>-4.8980000000000013E-3</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
+        <v>7.4700715552302448</v>
+      </c>
+      <c r="B5" s="7">
         <v>6.7069999999999999</v>
       </c>
-      <c r="B5" s="14">
-        <v>7.4700715552302448</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="C5" s="9">
         <v>7.0349207099999997</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="10">
         <v>19</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="11">
         <v>9</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="11">
         <v>24</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="29">
         <v>50</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="12">
         <v>-7.8688999999999995E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="13">
         <v>0.194741</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>5.8026000000000001E-2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="14">
         <f t="shared" si="2"/>
         <v>0.27343000000000001</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="12">
         <v>2.7518000000000001E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="13">
         <v>0.229794</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="13">
         <f t="shared" si="3"/>
         <v>0.12865599999999999</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="14">
         <f t="shared" si="4"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="13">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="13">
         <v>0.12393700000000001</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="15">
         <f t="shared" si="5"/>
         <v>1.4809500000000003E-2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="14">
         <f t="shared" si="6"/>
         <v>0.218255</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="13">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="13">
         <v>0.23905000000000001</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="15">
         <f t="shared" si="7"/>
         <v>8.3322000000000007E-2</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="15">
         <f t="shared" si="8"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="12">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="13">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="13">
         <f t="shared" si="9"/>
         <v>1.9755499999999999E-2</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="14">
         <f t="shared" si="10"/>
         <v>0.15478500000000001</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="12">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="13">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="13">
         <f t="shared" si="11"/>
         <v>3.9670999999999998E-2</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="14">
         <f t="shared" si="12"/>
         <v>6.2064000000000001E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="13">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="13">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="13">
         <f t="shared" si="13"/>
         <v>6.6110500000000003E-2</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="14">
         <f t="shared" si="14"/>
         <v>2.2113000000000001E-2</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="13">
         <v>0.10002</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="13">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="13">
         <f t="shared" si="15"/>
         <v>9.687599999999999E-2</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="14">
         <f t="shared" si="16"/>
         <v>-6.2880000000000019E-3</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="12">
         <f t="shared" si="17"/>
         <v>2.9134199999999999E-2</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AP5" s="15">
         <f t="shared" si="18"/>
         <v>0.105989</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AQ5" s="15">
         <f t="shared" si="19"/>
         <v>4.2932999999999999E-2</v>
       </c>
-      <c r="AR5" s="8">
+      <c r="AR5" s="14">
         <f t="shared" si="20"/>
         <v>6.8273500000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
+        <v>9.8922949380874048</v>
+      </c>
+      <c r="B6" s="7">
         <v>9.8196999999999992</v>
       </c>
-      <c r="B6" s="14">
-        <v>9.8922949380874048</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="C6" s="9">
         <v>11.273587819999999</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="10">
         <v>9</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="11">
         <v>12</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="29">
         <v>28</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="12">
         <v>-0.25829600000000003</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="13">
         <v>-7.9472000000000001E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="13">
         <f t="shared" si="1"/>
         <v>-0.16888400000000001</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
         <v>0.17882400000000004</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="12">
         <v>-0.34565600000000002</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="13">
         <v>-0.21967800000000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="13">
         <f t="shared" si="3"/>
         <v>-0.282667</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="14">
         <f t="shared" si="4"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="13">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="13">
         <v>0.12825500000000001</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="15">
         <f t="shared" si="5"/>
         <v>0.109762</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="14">
         <f t="shared" si="6"/>
         <v>3.6986000000000005E-2</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="13">
         <v>0.118052</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="13">
         <v>0.17574200000000001</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="15">
         <f t="shared" si="7"/>
         <v>0.146897</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="15">
         <f t="shared" si="8"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="12">
         <v>0.194524</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="13">
         <v>0.210281</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="13">
         <f t="shared" si="9"/>
         <v>0.20240249999999999</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="14">
         <f t="shared" si="10"/>
         <v>1.5756999999999993E-2</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="12">
         <v>0.154333</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="13">
         <v>0.17183999999999999</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="13">
         <f t="shared" si="11"/>
         <v>0.1630865</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="14">
         <f t="shared" si="12"/>
         <v>1.7506999999999995E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="13">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="13">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="13">
         <f t="shared" si="13"/>
         <v>7.3873999999999995E-2</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="14">
         <f t="shared" si="14"/>
         <v>-2.6520000000000002E-2</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="13">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="13">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="13">
         <f t="shared" si="15"/>
         <v>-5.4784999999999999E-3</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AN6" s="14">
         <f t="shared" si="16"/>
         <v>-1.8792999999999997E-2</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AO6" s="12">
         <f t="shared" si="17"/>
         <v>-2.3648800000000005E-2</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AP6" s="15">
         <f t="shared" si="18"/>
         <v>-6.7885000000000001E-2</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AQ6" s="15">
         <f t="shared" si="19"/>
         <v>0.13813824999999999</v>
       </c>
-      <c r="AR6" s="8">
+      <c r="AR6" s="14">
         <f t="shared" si="20"/>
         <v>7.8803999999999985E-2</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
+        <v>10.030146939800558</v>
+      </c>
+      <c r="B7" s="7">
         <v>9.8634000000000004</v>
       </c>
-      <c r="B7" s="14">
-        <v>10.030146939800558</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="C7" s="9">
         <v>12.429412989999999</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="12">
         <v>-0.16339500000000001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="13">
         <v>6.6807000000000005E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="13">
         <f t="shared" si="1"/>
         <v>-4.8294000000000004E-2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="14">
         <f t="shared" si="2"/>
         <v>0.23020200000000002</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <v>-0.192084</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="13">
         <v>-1.6109999999999999E-2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="13">
         <f t="shared" si="3"/>
         <v>-0.104097</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="14">
         <f t="shared" si="4"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="13">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="13">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="15">
         <f t="shared" si="5"/>
         <v>-9.2248999999999998E-2</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="14">
         <f t="shared" si="6"/>
         <v>3.5346000000000002E-2</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="13">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="13">
         <v>-1.1429E-2</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="15">
         <f t="shared" si="7"/>
         <v>4.8250000000000029E-4</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="15">
         <f t="shared" si="8"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="12">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="13">
         <v>-1.325E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="13">
         <f t="shared" si="9"/>
         <v>-4.1672500000000001E-2</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="14">
         <f t="shared" si="10"/>
         <v>5.6845000000000007E-2</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="12">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="13">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="13">
         <f t="shared" si="11"/>
         <v>-4.6443000000000005E-2</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="14">
         <f t="shared" si="12"/>
         <v>4.3810000000000002E-2</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="13">
         <v>-0.102829</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="13">
         <v>-5.705E-3</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="13">
         <f t="shared" si="13"/>
         <v>-5.4267000000000003E-2</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="14">
         <f t="shared" si="14"/>
         <v>9.7124000000000002E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="13">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="13">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="13">
         <f t="shared" si="15"/>
         <v>-7.2575000000000001E-3</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="14">
         <f t="shared" si="16"/>
         <v>0.17085900000000001</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="12">
         <f t="shared" si="17"/>
         <v>-5.6217200000000009E-2</v>
       </c>
-      <c r="AP7" s="9">
+      <c r="AP7" s="15">
         <f t="shared" si="18"/>
         <v>-5.1807249999999999E-2</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AQ7" s="15">
         <f t="shared" si="19"/>
         <v>-4.7969749999999999E-2</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AR7" s="14">
         <f t="shared" si="20"/>
         <v>-2.6850250000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
+        <v>6.3420774994341764</v>
+      </c>
+      <c r="B8" s="7">
         <v>6.4911000000000003</v>
       </c>
-      <c r="B8" s="14">
-        <v>6.3420774994341764</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="C8" s="9">
         <v>8.7373284790000003</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="12">
         <v>-0.13142100000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="13">
         <v>-4.9435E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="13">
         <f t="shared" si="1"/>
         <v>-9.0428000000000008E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="14">
         <f t="shared" si="2"/>
         <v>8.1986000000000003E-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="12">
         <v>4.6022E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="13">
         <v>0.102522</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="13">
         <f t="shared" si="3"/>
         <v>7.4272000000000005E-2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="14">
         <f t="shared" si="4"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="13">
         <v>-5.646E-3</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="13">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="15">
         <f t="shared" si="5"/>
         <v>3.3617500000000002E-2</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="14">
         <f t="shared" si="6"/>
         <v>7.8527E-2</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="13">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="13">
         <v>0.19786000000000001</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="15">
         <f t="shared" si="7"/>
         <v>0.11440650000000001</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="15">
         <f t="shared" si="8"/>
         <v>0.166907</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="12">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="13">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="13">
         <f t="shared" si="9"/>
         <v>-5.344500000000002E-3</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="14">
         <f t="shared" si="10"/>
         <v>0.17458899999999999</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="12">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="13">
         <v>0.132909</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="13">
         <f t="shared" si="11"/>
         <v>6.24865E-2</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="14">
         <f t="shared" si="12"/>
         <v>0.140845</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="13">
         <v>-2.4506E-2</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="13">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="13">
         <f t="shared" si="13"/>
         <v>-1.0533000000000001E-2</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="14">
         <f t="shared" si="14"/>
         <v>2.7945999999999999E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="13">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="13">
         <v>0.10079100000000001</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="13">
         <f t="shared" si="15"/>
         <v>6.8009E-2</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN8" s="14">
         <f t="shared" si="16"/>
         <v>6.5564000000000011E-2</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="12">
         <f t="shared" si="17"/>
         <v>-2.2724200000000007E-2</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AP8" s="15">
         <f t="shared" si="18"/>
         <v>9.4339250000000013E-2</v>
       </c>
-      <c r="AQ8" s="9">
+      <c r="AQ8" s="15">
         <f t="shared" si="19"/>
         <v>-7.9387500000000014E-3</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AR8" s="14">
         <f t="shared" si="20"/>
         <v>6.5247750000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
+        <v>4.6882489382216104</v>
+      </c>
+      <c r="B9" s="7">
         <v>3.8052999999999999</v>
       </c>
-      <c r="B9" s="14">
-        <v>4.6882489382216104</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="C9" s="9">
         <v>5.4920039220000003</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="10">
         <v>13</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="11">
         <v>12</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="29">
         <v>27</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="12">
         <v>8.3090999999999998E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="13">
         <v>5.3991999999999998E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="13">
         <f t="shared" si="1"/>
         <v>6.8541500000000005E-2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="14">
         <f t="shared" si="2"/>
         <v>-2.9099E-2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="12">
         <v>-4.5204000000000001E-2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="13">
         <v>1.8467000000000001E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="13">
         <f t="shared" si="3"/>
         <v>-1.33685E-2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="14">
         <f t="shared" si="4"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="13">
         <v>-0.117303</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="13">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="15">
         <f t="shared" si="5"/>
         <v>-2.3758000000000001E-2</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="14">
         <f t="shared" si="6"/>
         <v>0.18709000000000001</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="13">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="13">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="15">
         <f t="shared" si="7"/>
         <v>1.964500000000001E-3</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="15">
         <f t="shared" si="8"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="12">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="13">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="13">
         <f t="shared" si="9"/>
         <v>2.8199999999999996E-3</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="14">
         <f t="shared" si="10"/>
         <v>7.4401999999999996E-2</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="12">
         <v>-4.823E-3</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="13">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="13">
         <f t="shared" si="11"/>
         <v>2.3730499999999998E-2</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="14">
         <f t="shared" si="12"/>
         <v>5.7106999999999998E-2</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="13">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="13">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="13">
         <f t="shared" si="13"/>
         <v>5.8800999999999999E-2</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="14">
         <f t="shared" si="14"/>
         <v>-5.7054000000000007E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="13">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="13">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="13">
         <f t="shared" si="15"/>
         <v>5.9011000000000001E-2</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AN9" s="14">
         <f t="shared" si="16"/>
         <v>2.8873999999999997E-2</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AO9" s="12">
         <f t="shared" si="17"/>
         <v>1.7913400000000003E-2</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AP9" s="15">
         <f t="shared" si="18"/>
         <v>-5.7020000000000005E-3</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AQ9" s="15">
         <f t="shared" si="19"/>
         <v>3.0810499999999998E-2</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AR9" s="14">
         <f t="shared" si="20"/>
         <v>4.1370749999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
+        <v>10.418130132974177</v>
+      </c>
+      <c r="B10" s="7">
         <v>8.9419000000000004</v>
       </c>
-      <c r="B10" s="14">
-        <v>10.418130132974177</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="C10" s="9">
         <v>13.860031380000001</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="11">
         <v>2</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="29">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="12">
         <v>4.9106999999999998E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="13">
         <v>2.8681000000000002E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="13">
         <f t="shared" si="1"/>
         <v>3.8893999999999998E-2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="14">
         <f t="shared" si="2"/>
         <v>-2.0425999999999996E-2</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="12">
         <v>-8.5933999999999996E-2</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="13">
         <v>-0.18237999999999999</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="13">
         <f t="shared" si="3"/>
         <v>-0.134157</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="14">
         <f t="shared" si="4"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="13">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="13">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="15">
         <f t="shared" si="5"/>
         <v>-0.1938665</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="14">
         <f t="shared" si="6"/>
         <v>1.2610999999999983E-2</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="13">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="13">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="15">
         <f t="shared" si="7"/>
         <v>-3.0419500000000002E-2</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="15">
         <f t="shared" si="8"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="12">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="13">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="13">
         <f t="shared" si="9"/>
         <v>-5.8316999999999994E-2</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="14">
         <f t="shared" si="10"/>
         <v>-4.8214E-2</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="12">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="13">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="13">
         <f t="shared" si="11"/>
         <v>-6.6747500000000001E-2</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="14">
         <f t="shared" si="12"/>
         <v>1.7470999999999993E-2</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="13">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="13">
         <v>1.0061E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="13">
         <f t="shared" si="13"/>
         <v>9.388500000000001E-3</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="14">
         <f t="shared" si="14"/>
         <v>1.3450000000000007E-3</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="13">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="13">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="13">
         <f t="shared" si="15"/>
         <v>4.8164499999999999E-2</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AN10" s="14">
         <f t="shared" si="16"/>
         <v>-3.4949000000000008E-2</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="12">
         <f t="shared" si="17"/>
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="AP10" s="9">
+      <c r="AP10" s="15">
         <f t="shared" si="18"/>
         <v>-8.2288249999999993E-2</v>
       </c>
-      <c r="AQ10" s="9">
+      <c r="AQ10" s="15">
         <f t="shared" si="19"/>
         <v>-2.4464249999999996E-2</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AR10" s="14">
         <f t="shared" si="20"/>
         <v>-9.2915000000000011E-3</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
+        <v>8.2012861652681384</v>
+      </c>
+      <c r="B11" s="7">
         <v>7.8029000000000002</v>
       </c>
-      <c r="B11" s="14">
-        <v>8.2012861652681384</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>9.2408135530000006</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="29">
         <v>3</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="12">
         <v>-5.5462999999999998E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="13">
         <v>0.15373800000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <f t="shared" si="1"/>
         <v>4.9137500000000008E-2</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="14">
         <f t="shared" si="2"/>
         <v>0.20920100000000003</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="12">
         <v>-6.019E-3</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="13">
         <v>0.123721</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="13">
         <f t="shared" si="3"/>
         <v>5.8851000000000001E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="14">
         <f t="shared" si="4"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="13">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="13">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="15">
         <f t="shared" si="5"/>
         <v>-7.5781500000000002E-2</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="14">
         <f t="shared" si="6"/>
         <v>4.5821000000000001E-2</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="13">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="13">
         <v>0.12706000000000001</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="15">
         <f t="shared" si="7"/>
         <v>9.7461500000000006E-2</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="15">
         <f t="shared" si="8"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="12">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="13">
         <v>0.117577</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="13">
         <f t="shared" si="9"/>
         <v>5.0700500000000003E-2</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="14">
         <f t="shared" si="10"/>
         <v>0.13375300000000001</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="12">
         <v>-4.3059E-2</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="13">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="13">
         <f t="shared" si="11"/>
         <v>2.5501000000000003E-2</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="14">
         <f t="shared" si="12"/>
         <v>0.13712000000000002</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="13">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="13">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="13">
         <f t="shared" si="13"/>
         <v>-0.184562</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="14">
         <f t="shared" si="14"/>
         <v>0.26239400000000002</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="13">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="13">
         <v>-2.0787E-2</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="13">
         <f t="shared" si="15"/>
         <v>-9.0207999999999997E-2</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AN11" s="14">
         <f t="shared" si="16"/>
         <v>0.13884199999999999</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AO11" s="12">
         <f t="shared" si="17"/>
         <v>-1.0657599999999998E-2</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AP11" s="15">
         <f t="shared" si="18"/>
         <v>7.815625000000001E-2</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AQ11" s="15">
         <f t="shared" si="19"/>
         <v>-6.6930749999999997E-2</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AR11" s="14">
         <f t="shared" si="20"/>
         <v>-3.2353499999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
+        <v>11.849808998487028</v>
+      </c>
+      <c r="B12" s="7">
         <v>9.8434000000000008</v>
       </c>
-      <c r="B12" s="14">
-        <v>11.849808998487028</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="C12" s="9">
         <v>13.07892122</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="29">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="12">
         <v>-0.13824</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="13">
         <v>-6.7613000000000006E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
         <v>-0.1029265</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="14">
         <f t="shared" si="2"/>
         <v>7.0626999999999995E-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="12">
         <v>-0.33188800000000002</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="13">
         <v>-0.12595500000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="13">
         <f t="shared" si="3"/>
         <v>-0.2289215</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="14">
         <f t="shared" si="4"/>
         <v>0.205933</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="13">
         <v>0.28608899999999998</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="13">
         <v>0.128694</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="15">
         <f t="shared" si="5"/>
         <v>0.20739150000000001</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="14">
         <f t="shared" si="6"/>
         <v>-0.15739499999999998</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="13">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="13">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="15">
         <f t="shared" si="7"/>
         <v>5.2226000000000002E-2</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="15">
         <f t="shared" si="8"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="12">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="13">
         <v>0.215258</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="13">
         <f t="shared" si="9"/>
         <v>0.139156</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="14">
         <f t="shared" si="10"/>
         <v>0.15220400000000001</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="12">
         <v>4.6105E-2</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="13">
         <v>0.137603</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="13">
         <f t="shared" si="11"/>
         <v>9.1854000000000005E-2</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="14">
         <f t="shared" si="12"/>
         <v>9.1497999999999996E-2</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="13">
         <v>-0.13494</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="13">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="13">
         <f t="shared" si="13"/>
         <v>-0.10613500000000001</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="14">
         <f t="shared" si="14"/>
         <v>5.7610000000000008E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="13">
         <v>-0.138872</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="13">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="13">
         <f t="shared" si="15"/>
         <v>-8.1703499999999998E-2</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="14">
         <f t="shared" si="16"/>
         <v>0.11433699999999999</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="12">
         <f t="shared" si="17"/>
         <v>4.1785999999999997E-2</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AP12" s="15">
         <f t="shared" si="18"/>
         <v>-8.8347749999999989E-2</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="15">
         <f t="shared" si="19"/>
         <v>1.6510500000000001E-2</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="14">
         <f t="shared" si="20"/>
         <v>5.0752500000000034E-3</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="8">
+        <v>8.5473098880952634</v>
+      </c>
+      <c r="B13" s="7">
         <v>6.5369000000000002</v>
       </c>
-      <c r="B13" s="14">
-        <v>8.5473098880952634</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="C13" s="9">
         <v>10.94592845</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="11">
         <v>10</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="29">
         <v>13</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="12">
         <v>-0.38839600000000002</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="13">
         <v>0.12812999999999999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <f t="shared" si="1"/>
         <v>-0.130133</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="14">
         <f t="shared" si="2"/>
         <v>0.51652600000000004</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="12">
         <v>-0.15731800000000001</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="13">
         <v>0.20866000000000001</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="13">
         <f t="shared" si="3"/>
         <v>2.5670999999999999E-2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="14">
         <f t="shared" si="4"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="13">
         <v>-0.234845</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="13">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="15">
         <f t="shared" si="5"/>
         <v>-7.8157000000000004E-2</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="14">
         <f t="shared" si="6"/>
         <v>0.31337599999999999</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="13">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="13">
         <v>0.11221399999999999</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="15">
         <f t="shared" si="7"/>
         <v>-1.0256000000000008E-2</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="15">
         <f t="shared" si="8"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="12">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="13">
         <v>-0.11538</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="13">
         <f t="shared" si="9"/>
         <v>-0.22326849999999998</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="14">
         <f t="shared" si="10"/>
         <v>0.215777</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="12">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="13">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="13">
         <f t="shared" si="11"/>
         <v>-0.12353550000000001</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13" s="14">
         <f t="shared" si="12"/>
         <v>0.26383699999999999</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="13">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="13">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="13">
         <f t="shared" si="13"/>
         <v>-9.4799499999999995E-2</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AJ13" s="14">
         <f t="shared" si="14"/>
         <v>0.37654500000000002</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="13">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="13">
         <v>0.11176899999999999</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="13">
         <f t="shared" si="15"/>
         <v>-3.2333500000000008E-2</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="14">
         <f t="shared" si="16"/>
         <v>0.28820499999999999</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="12">
         <f t="shared" si="17"/>
         <v>-8.3315999999999987E-2</v>
       </c>
-      <c r="AP13" s="9">
+      <c r="AP13" s="15">
         <f t="shared" si="18"/>
         <v>7.7074999999999956E-3</v>
       </c>
-      <c r="AQ13" s="9">
+      <c r="AQ13" s="15">
         <f t="shared" si="19"/>
         <v>-0.15903399999999998</v>
       </c>
-      <c r="AR13" s="8">
+      <c r="AR13" s="14">
         <f t="shared" si="20"/>
         <v>-7.7934500000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="8">
+        <v>8.8874420110024559</v>
+      </c>
+      <c r="B14" s="7">
         <v>6.3827999999999996</v>
       </c>
-      <c r="B14" s="14">
-        <v>8.8874420110024559</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="C14" s="9">
         <v>11.70584311</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="11">
         <v>8</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="29">
         <v>8</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="12">
         <v>-0.11112</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="13">
         <v>9.7069000000000003E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
         <f t="shared" si="1"/>
         <v>-7.025499999999997E-3</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="14">
         <f t="shared" si="2"/>
         <v>0.20818900000000001</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="12">
         <v>-5.3636000000000003E-2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="13">
         <v>0.110414</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="13">
         <f t="shared" si="3"/>
         <v>2.8388999999999998E-2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="14">
         <f t="shared" si="4"/>
         <v>0.16405</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="13">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="13">
         <v>0.10111000000000001</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="15">
         <f t="shared" si="5"/>
         <v>8.2768499999999995E-2</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="14">
         <f t="shared" si="6"/>
         <v>3.6683000000000007E-2</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="13">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="13">
         <v>0.19539500000000001</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="15">
         <f t="shared" si="7"/>
         <v>0.10770150000000001</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="15">
         <f t="shared" si="8"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="12">
         <v>1.7904E-2</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="13">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="13">
         <f t="shared" si="9"/>
         <v>2.7759499999999999E-2</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="14">
         <f t="shared" si="10"/>
         <v>1.9711000000000003E-2</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="12">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="13">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="13">
         <f t="shared" si="11"/>
         <v>6.5410999999999997E-2</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AF14" s="14">
         <f t="shared" si="12"/>
         <v>3.7484000000000003E-2</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="13">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="13">
         <v>1.1417E-2</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="13">
         <f t="shared" si="13"/>
         <v>-6.6409999999999993E-3</v>
       </c>
-      <c r="AJ14" s="8">
+      <c r="AJ14" s="14">
         <f t="shared" si="14"/>
         <v>3.6115999999999995E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="13">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="13">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="13">
         <f t="shared" si="15"/>
         <v>5.4339499999999999E-2</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="14">
         <f t="shared" si="16"/>
         <v>8.2510000000000014E-3</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AO14" s="12">
         <f t="shared" si="17"/>
         <v>3.0297200000000003E-2</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AP14" s="15">
         <f t="shared" si="18"/>
         <v>6.8045250000000002E-2</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AQ14" s="15">
         <f t="shared" si="19"/>
         <v>1.0559249999999999E-2</v>
       </c>
-      <c r="AR14" s="8">
+      <c r="AR14" s="14">
         <f t="shared" si="20"/>
         <v>5.9875250000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="8">
+        <v>8.2229687366414979</v>
+      </c>
+      <c r="B15" s="7">
         <v>7.1338999999999997</v>
       </c>
-      <c r="B15" s="14">
-        <v>8.2229687366414979</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="C15" s="9">
         <v>10.948607470000001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="11">
         <v>8</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="29">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="12">
         <v>9.8320000000000005E-3</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="13">
         <v>6.0309000000000001E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <f t="shared" si="1"/>
         <v>3.5070500000000004E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="14">
         <f t="shared" si="2"/>
         <v>5.0477000000000001E-2</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="12">
         <v>0.18918499999999999</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="13">
         <v>0.11498899999999999</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="13">
         <f t="shared" si="3"/>
         <v>0.152087</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="14">
         <f t="shared" si="4"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="13">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="13">
         <v>2.6889E-2</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="15">
         <f t="shared" si="5"/>
         <v>2.1953500000000001E-2</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="14">
         <f t="shared" si="6"/>
         <v>9.8710000000000013E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="13">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="13">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="15">
         <f t="shared" si="7"/>
         <v>-7.3528499999999997E-2</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="15">
         <f t="shared" si="8"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="12">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="13">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="13">
         <f t="shared" si="9"/>
         <v>4.3827000000000005E-2</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="14">
         <f t="shared" si="10"/>
         <v>2.4275999999999999E-2</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="12">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="13">
         <v>0.13961200000000001</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="13">
         <f t="shared" si="11"/>
         <v>0.11247800000000001</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="14">
         <f t="shared" si="12"/>
         <v>5.4268000000000011E-2</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="13">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="13">
         <v>0.22964499999999999</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="13">
         <f t="shared" si="13"/>
         <v>0.146786</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="14">
         <f t="shared" si="14"/>
         <v>0.16571799999999998</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="13">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="13">
         <v>0.23819199999999999</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="13">
         <f t="shared" si="15"/>
         <v>0.15093299999999998</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="14">
         <f t="shared" si="16"/>
         <v>0.17451800000000001</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AO15" s="12">
         <f t="shared" si="17"/>
         <v>2.2809600000000003E-2</v>
       </c>
-      <c r="AP15" s="9">
+      <c r="AP15" s="15">
         <f t="shared" si="18"/>
         <v>3.9279250000000002E-2</v>
       </c>
-      <c r="AQ15" s="9">
+      <c r="AQ15" s="15">
         <f t="shared" si="19"/>
         <v>9.5306500000000002E-2</v>
       </c>
-      <c r="AR15" s="8">
+      <c r="AR15" s="14">
         <f t="shared" si="20"/>
         <v>0.1317055</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
+        <v>9.3975206284041697</v>
+      </c>
+      <c r="B16" s="7">
         <v>9.2367000000000008</v>
       </c>
-      <c r="B16" s="14">
-        <v>9.3975206284041697</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="C16" s="9">
         <v>11.808293000000001</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="29">
         <v>3</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="12">
         <v>-5.2725000000000001E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="13">
         <v>9.3939999999999996E-3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
         <v>-2.1665500000000001E-2</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="14">
         <f t="shared" si="2"/>
         <v>6.2119000000000001E-2</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="12">
         <v>-3.0328999999999998E-2</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="13">
         <v>0.116038</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="13">
         <f t="shared" si="3"/>
         <v>4.2854500000000004E-2</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="14">
         <f t="shared" si="4"/>
         <v>0.146367</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="13">
         <v>3.5961E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="13">
         <v>0.21001400000000001</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="15">
         <f t="shared" si="5"/>
         <v>0.1229875</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="14">
         <f t="shared" si="6"/>
         <v>0.17405300000000001</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="13">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="13">
         <v>0.143349</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="15">
         <f t="shared" si="7"/>
         <v>0.12111250000000001</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="15">
         <f t="shared" si="8"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="12">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="13">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="13">
         <f t="shared" si="9"/>
         <v>7.8873499999999999E-2</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AB16" s="14">
         <f t="shared" si="10"/>
         <v>-2.5912999999999992E-2</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="12">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="13">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="13">
         <f t="shared" si="11"/>
         <v>6.1331499999999997E-2</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="14">
         <f t="shared" si="12"/>
         <v>3.7024999999999995E-2</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="13">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="13">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="13">
         <f t="shared" si="13"/>
         <v>-8.7895000000000001E-2</v>
       </c>
-      <c r="AJ16" s="8">
+      <c r="AJ16" s="14">
         <f t="shared" si="14"/>
         <v>3.8897999999999988E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="13">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="13">
         <v>1.9552E-2</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="13">
         <f t="shared" si="15"/>
         <v>-1.5866999999999999E-2</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="14">
         <f t="shared" si="16"/>
         <v>7.0837999999999998E-2</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AO16" s="12">
         <f t="shared" si="17"/>
         <v>4.0528799999999997E-2</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AP16" s="15">
         <f t="shared" si="18"/>
         <v>8.1983500000000001E-2</v>
       </c>
-      <c r="AQ16" s="9">
+      <c r="AQ16" s="15">
         <f t="shared" si="19"/>
         <v>-4.5107500000000009E-3</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AR16" s="14">
         <f t="shared" si="20"/>
         <v>2.2732249999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
+        <v>8.2672692874524767</v>
+      </c>
+      <c r="B17" s="7">
         <v>7.0613999999999999</v>
       </c>
-      <c r="B17" s="14">
-        <v>8.2672692874524767</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="C17" s="9">
         <v>10.221946129999999</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="29">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="12">
         <v>-0.30178100000000002</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="13">
         <v>-0.101994</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>-0.2018875</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="14">
         <f t="shared" si="2"/>
         <v>0.19978700000000002</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="12">
         <v>-1.1540000000000001E-3</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="13">
         <v>-2.9968999999999999E-2</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="13">
         <f t="shared" si="3"/>
         <v>-1.5561499999999999E-2</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="14">
         <f t="shared" si="4"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="13">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="13">
         <v>-0.123182</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="15">
         <f t="shared" si="5"/>
         <v>-0.19197</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="14">
         <f t="shared" si="6"/>
         <v>0.13757599999999998</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="13">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="13">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="15">
         <f t="shared" si="7"/>
         <v>-8.9928499999999995E-2</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="15">
         <f t="shared" si="8"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="12">
         <v>-5.3668E-2</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="13">
         <v>-0.140128</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="13">
         <f t="shared" si="9"/>
         <v>-9.6897999999999998E-2</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="14">
         <f t="shared" si="10"/>
         <v>-8.6460000000000009E-2</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="12">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="13">
         <v>-0.186363</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="13">
         <f t="shared" si="11"/>
         <v>-0.12797449999999999</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="14">
         <f t="shared" si="12"/>
         <v>-0.11677700000000001</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="13">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="13">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="13">
         <f t="shared" si="13"/>
         <v>-6.8197999999999995E-2</v>
       </c>
-      <c r="AJ17" s="8">
+      <c r="AJ17" s="14">
         <f t="shared" si="14"/>
         <v>5.1035999999999991E-2</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="13">
         <v>1.4598E-2</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="13">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="13">
         <f t="shared" si="15"/>
         <v>1.0647500000000001E-2</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="14">
         <f t="shared" si="16"/>
         <v>-7.901E-3</v>
       </c>
-      <c r="AO17" s="7">
+      <c r="AO17" s="12">
         <f t="shared" si="17"/>
         <v>-0.15754300000000002</v>
       </c>
-      <c r="AP17" s="9">
+      <c r="AP17" s="15">
         <f t="shared" si="18"/>
         <v>-5.2745E-2</v>
       </c>
-      <c r="AQ17" s="9">
+      <c r="AQ17" s="15">
         <f t="shared" si="19"/>
         <v>-8.2547999999999996E-2</v>
       </c>
-      <c r="AR17" s="8">
+      <c r="AR17" s="14">
         <f t="shared" si="20"/>
         <v>-5.8663499999999993E-2</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
+        <v>7.7223976425901304</v>
+      </c>
+      <c r="B18" s="7">
         <v>6.7188999999999997</v>
       </c>
-      <c r="B18" s="14">
-        <v>7.7223976425901304</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="C18" s="9">
         <v>9.4026280890000002</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="10">
         <v>7</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="11">
         <v>5</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="11">
         <v>12</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <v>24</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="12">
         <v>5.2864000000000001E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="13">
         <v>6.2269999999999999E-3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <f t="shared" si="1"/>
         <v>2.9545500000000002E-2</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="14">
         <f t="shared" si="2"/>
         <v>-4.6636999999999998E-2</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="12">
         <v>8.4306000000000006E-2</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="13">
         <v>-5.7305000000000002E-2</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="13">
         <f t="shared" si="3"/>
         <v>1.3500500000000002E-2</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="14">
         <f t="shared" si="4"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="13">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="13">
         <v>0.22051399999999999</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="15">
         <f t="shared" si="5"/>
         <v>0.132192</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="14">
         <f t="shared" si="6"/>
         <v>0.176644</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="13">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="13">
         <v>0.21227699999999999</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="15">
         <f t="shared" si="7"/>
         <v>0.1103565</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="15">
         <f t="shared" si="8"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="12">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="13">
         <v>0.141262</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="13">
         <f t="shared" si="9"/>
         <v>8.6817000000000005E-2</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="14">
         <f t="shared" si="10"/>
         <v>0.10889</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="12">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="13">
         <v>0.131714</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="13">
         <f t="shared" si="11"/>
         <v>8.4319499999999992E-2</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="14">
         <f t="shared" si="12"/>
         <v>9.4788999999999998E-2</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="13">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="13">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="13">
         <f t="shared" si="13"/>
         <v>1.5301499999999999E-2</v>
       </c>
-      <c r="AJ18" s="8">
+      <c r="AJ18" s="14">
         <f t="shared" si="14"/>
         <v>-0.107377</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="13">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="13">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="13">
         <f t="shared" si="15"/>
         <v>4.4991500000000004E-2</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="14">
         <f t="shared" si="16"/>
         <v>-8.1648999999999999E-2</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AO18" s="12">
         <f t="shared" si="17"/>
         <v>6.4694999999999989E-2</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AP18" s="15">
         <f t="shared" si="18"/>
         <v>6.1928499999999997E-2</v>
       </c>
-      <c r="AQ18" s="9">
+      <c r="AQ18" s="15">
         <f t="shared" si="19"/>
         <v>5.105925E-2</v>
       </c>
-      <c r="AR18" s="8">
+      <c r="AR18" s="14">
         <f t="shared" si="20"/>
         <v>6.4655499999999991E-2</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
+        <v>12.399481036848044</v>
+      </c>
+      <c r="B19" s="7">
         <v>9.7673000000000005</v>
       </c>
-      <c r="B19" s="14">
-        <v>12.399481036848044</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="C19" s="9">
         <v>15.963724239999999</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="29">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="12">
         <v>-8.3401000000000003E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="13">
         <v>-3.5672000000000002E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <f t="shared" si="1"/>
         <v>-5.9536500000000006E-2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="14">
         <f t="shared" si="2"/>
         <v>4.7729000000000001E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="12">
         <v>-3.5095000000000001E-2</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="13">
         <v>7.6295000000000002E-2</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="13">
         <f t="shared" si="3"/>
         <v>2.06E-2</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="14">
         <f t="shared" si="4"/>
         <v>0.11139</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="13">
         <v>0.14959800000000001</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="13">
         <v>0.110315</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="15">
         <f t="shared" si="5"/>
         <v>0.1299565</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="14">
         <f t="shared" si="6"/>
         <v>-3.9283000000000012E-2</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="13">
         <v>0.27354899999999999</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="13">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="15">
         <f t="shared" si="7"/>
         <v>0.18428849999999999</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="15">
         <f t="shared" si="8"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="12">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="13">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="13">
         <f t="shared" si="9"/>
         <v>7.2911500000000004E-2</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB19" s="14">
         <f t="shared" si="10"/>
         <v>-5.0679000000000002E-2</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="12">
         <v>0.15524299999999999</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="13">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="13">
         <f t="shared" si="11"/>
         <v>7.6078999999999994E-2</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="14">
         <f t="shared" si="12"/>
         <v>-0.158328</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="13">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="13">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="13">
         <f t="shared" si="13"/>
         <v>5.7518E-2</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AJ19" s="14">
         <f t="shared" si="14"/>
         <v>-1.1815999999999993E-2</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="13">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="13">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="13">
         <f t="shared" si="15"/>
         <v>5.3111999999999999E-2</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="14">
         <f t="shared" si="16"/>
         <v>5.3892000000000009E-2</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AO19" s="12">
         <f t="shared" si="17"/>
         <v>2.8167999999999999E-2</v>
       </c>
-      <c r="AP19" s="9">
+      <c r="AP19" s="15">
         <f t="shared" si="18"/>
         <v>0.10244425</v>
       </c>
-      <c r="AQ19" s="9">
+      <c r="AQ19" s="15">
         <f t="shared" si="19"/>
         <v>6.5214750000000002E-2</v>
       </c>
-      <c r="AR19" s="8">
+      <c r="AR19" s="14">
         <f t="shared" si="20"/>
         <v>6.45955E-2</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
+        <v>8.4076809707103966</v>
+      </c>
+      <c r="B20" s="7">
         <v>8.6026000000000007</v>
       </c>
-      <c r="B20" s="14">
-        <v>8.4076809707103966</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="C20" s="9">
         <v>7.5069632940000002</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="10">
         <v>17</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="11">
         <v>11</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="11">
         <v>22</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="29">
         <v>62</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="12">
         <v>-5.6569999999999997E-3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="13">
         <v>-1.4454E-2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="13">
         <f t="shared" si="1"/>
         <v>-1.00555E-2</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="14">
         <f t="shared" si="2"/>
         <v>-8.7969999999999993E-3</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="12">
         <v>2.7300999999999999E-2</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="13">
         <v>5.6370999999999997E-2</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="13">
         <f t="shared" si="3"/>
         <v>4.1835999999999998E-2</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="14">
         <f t="shared" si="4"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="13">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="13">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="15">
         <f t="shared" si="5"/>
         <v>-0.210621</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="14">
         <f t="shared" si="6"/>
         <v>7.5739999999999974E-3</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="13">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="13">
         <v>-0.108635</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="15">
         <f t="shared" si="7"/>
         <v>-7.8283500000000006E-2</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="15">
         <f t="shared" si="8"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="12">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="13">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="13">
         <f t="shared" si="9"/>
         <v>-0.20884049999999998</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="14">
         <f t="shared" si="10"/>
         <v>-3.004900000000002E-2</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="12">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="13">
         <v>-0.243644</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="13">
         <f t="shared" si="11"/>
         <v>-0.2115995</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="14">
         <f t="shared" si="12"/>
         <v>-6.4089000000000007E-2</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="13">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="13">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="13">
         <f t="shared" si="13"/>
         <v>2.4301999999999997E-2</v>
       </c>
-      <c r="AJ20" s="8">
+      <c r="AJ20" s="14">
         <f t="shared" si="14"/>
         <v>6.1182E-2</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="13">
         <v>-2.7833E-2</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="13">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="13">
         <f t="shared" si="15"/>
         <v>-1.4052E-2</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="14">
         <f t="shared" si="16"/>
         <v>2.7562E-2</v>
       </c>
-      <c r="AO20" s="7">
+      <c r="AO20" s="12">
         <f t="shared" si="17"/>
         <v>-8.8270600000000005E-2</v>
       </c>
-      <c r="AP20" s="9">
+      <c r="AP20" s="15">
         <f t="shared" si="18"/>
         <v>-1.822375E-2</v>
       </c>
-      <c r="AQ20" s="9">
+      <c r="AQ20" s="15">
         <f t="shared" si="19"/>
         <v>-9.2269249999999997E-2</v>
       </c>
-      <c r="AR20" s="8">
+      <c r="AR20" s="14">
         <f t="shared" si="20"/>
         <v>-0.11282575</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
+        <v>8.5382332059638912</v>
+      </c>
+      <c r="B21" s="7">
         <v>7.6535000000000002</v>
       </c>
-      <c r="B21" s="14">
-        <v>8.5382332059638912</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="C21" s="9">
         <v>8.9995920520000006</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="10">
         <v>12</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="11">
         <v>19</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="29">
         <v>29</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="12">
         <v>0.14799699999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="13">
         <v>-3.7810000000000003E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="13">
         <f t="shared" si="1"/>
         <v>5.509349999999999E-2</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="14">
         <f t="shared" si="2"/>
         <v>-0.185807</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="12">
         <v>9.4934000000000004E-2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="13">
         <v>0.13406599999999999</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="13">
         <f t="shared" si="3"/>
         <v>0.11449999999999999</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="14">
         <f t="shared" si="4"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="13">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="13">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="15">
         <f t="shared" si="5"/>
         <v>-6.7938999999999999E-2</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="14">
         <f t="shared" si="6"/>
         <v>0.23082399999999997</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="13">
         <v>-4.718E-2</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="13">
         <v>0.28090999999999999</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="15">
         <f t="shared" si="7"/>
         <v>0.116865</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="15">
         <f t="shared" si="8"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="12">
         <v>-3.8438E-2</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="13">
         <v>0.12843599999999999</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="13">
         <f t="shared" si="9"/>
         <v>4.4998999999999997E-2</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AB21" s="14">
         <f t="shared" si="10"/>
         <v>0.16687399999999999</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="12">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="13">
         <v>0.148115</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="13">
         <f t="shared" si="11"/>
         <v>3.3486999999999996E-2</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="14">
         <f t="shared" si="12"/>
         <v>0.22925600000000002</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="13">
         <v>6.2327E-2</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="13">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="13">
         <f t="shared" si="13"/>
         <v>6.4046000000000006E-2</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AJ21" s="14">
         <f t="shared" si="14"/>
         <v>3.4380000000000036E-3</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="13">
         <v>3.0948E-2</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="13">
         <v>6.0911E-2</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="13">
         <f t="shared" si="15"/>
         <v>4.5929499999999998E-2</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="14">
         <f t="shared" si="16"/>
         <v>2.9963E-2</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="AO21" s="12">
         <f t="shared" si="17"/>
         <v>-5.1382000000000008E-3</v>
       </c>
-      <c r="AP21" s="9">
+      <c r="AP21" s="15">
         <f t="shared" si="18"/>
         <v>0.11568249999999999</v>
       </c>
-      <c r="AQ21" s="9">
+      <c r="AQ21" s="15">
         <f t="shared" si="19"/>
         <v>5.4522500000000002E-2</v>
       </c>
-      <c r="AR21" s="8">
+      <c r="AR21" s="14">
         <f t="shared" si="20"/>
         <v>3.970825E-2</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
+        <v>9.5472100648138536</v>
+      </c>
+      <c r="B22" s="7">
         <v>7.0533000000000001</v>
       </c>
-      <c r="B22" s="14">
-        <v>9.5472100648138536</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="C22" s="9">
         <v>12.483967140000001</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="29">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="12">
         <v>-0.12661800000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="13">
         <v>3.5799999999999998E-3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="13">
         <f t="shared" si="1"/>
         <v>-6.1519000000000004E-2</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="14">
         <f t="shared" si="2"/>
         <v>0.13019800000000001</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="12">
         <v>-0.20003399999999999</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="13">
         <v>-7.4226E-2</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="13">
         <f t="shared" si="3"/>
         <v>-0.13713</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="14">
         <f t="shared" si="4"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="13">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="13">
         <v>-0.195438</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="15">
         <f t="shared" si="5"/>
         <v>-0.18106949999999999</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="14">
         <f t="shared" si="6"/>
         <v>-2.8737000000000013E-2</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="13">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="13">
         <v>-0.141933</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="15">
         <f t="shared" si="7"/>
         <v>-0.1150215</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="15">
         <f t="shared" si="8"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="12">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="13">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="13">
         <f t="shared" si="9"/>
         <v>-0.18010350000000003</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AB22" s="14">
         <f t="shared" si="10"/>
         <v>3.2915E-2</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="12">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="13">
         <v>-0.101881</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="13">
         <f t="shared" si="11"/>
         <v>-0.12039800000000001</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="14">
         <f t="shared" si="12"/>
         <v>3.7034000000000011E-2</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="13">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="13">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="13">
         <f t="shared" si="13"/>
         <v>-0.13316600000000001</v>
       </c>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="14">
         <f t="shared" si="14"/>
         <v>0.12108999999999999</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="13">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="13">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="13">
         <f t="shared" si="15"/>
         <v>-7.1504000000000012E-2</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="14">
         <f t="shared" si="16"/>
         <v>-1.6820000000000029E-3</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="12">
         <f t="shared" si="17"/>
         <v>-9.7035399999999994E-2</v>
       </c>
-      <c r="AP22" s="9">
+      <c r="AP22" s="15">
         <f t="shared" si="18"/>
         <v>-0.12607574999999999</v>
       </c>
-      <c r="AQ22" s="9">
+      <c r="AQ22" s="15">
         <f t="shared" si="19"/>
         <v>-0.15663475000000002</v>
       </c>
-      <c r="AR22" s="8">
+      <c r="AR22" s="14">
         <f t="shared" si="20"/>
         <v>-9.5951000000000009E-2</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
+        <v>5.6497598372328932</v>
+      </c>
+      <c r="B23" s="7">
         <v>5.4255000000000004</v>
       </c>
-      <c r="B23" s="14">
-        <v>5.6497598372328932</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="C23" s="9">
         <v>4.8856946829999996</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="10">
         <v>9</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="11">
         <v>22</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="29">
         <v>33</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="12">
         <v>-6.4061000000000007E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="13">
         <v>8.0751000000000003E-2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="13">
         <f t="shared" si="1"/>
         <v>8.3449999999999983E-3</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="14">
         <f t="shared" si="2"/>
         <v>0.144812</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="12">
         <v>-7.7161999999999994E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="13">
         <v>1.0193000000000001E-2</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="13">
         <f t="shared" si="3"/>
         <v>-3.34845E-2</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="14">
         <f t="shared" si="4"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="13">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="13">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="15">
         <f t="shared" si="5"/>
         <v>5.3096000000000004E-2</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="14">
         <f t="shared" si="6"/>
         <v>5.4838000000000005E-2</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="13">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="13">
         <v>0.136959</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="15">
         <f t="shared" si="7"/>
         <v>0.11422450000000001</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="15">
         <f t="shared" si="8"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="12">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="13">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="13">
         <f t="shared" si="9"/>
         <v>6.3663999999999998E-2</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AB23" s="14">
         <f t="shared" si="10"/>
         <v>2.0130000000000002E-2</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="12">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="13">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="13">
         <f t="shared" si="11"/>
         <v>-8.3564999999999993E-3</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="14">
         <f t="shared" si="12"/>
         <v>3.6769999999999988E-3</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="13">
         <v>2.9855E-2</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="13">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="13">
         <f t="shared" si="13"/>
         <v>5.9869000000000006E-2</v>
       </c>
-      <c r="AJ23" s="8">
+      <c r="AJ23" s="14">
         <f t="shared" si="14"/>
         <v>6.0028000000000005E-2</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="13">
         <v>-1.7505E-2</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="13">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" s="13">
         <f t="shared" si="15"/>
         <v>1.5484000000000001E-2</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="14">
         <f t="shared" si="16"/>
         <v>6.5978000000000009E-2</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AO23" s="12">
         <f t="shared" si="17"/>
         <v>2.4576399999999998E-2</v>
       </c>
-      <c r="AP23" s="9">
+      <c r="AP23" s="15">
         <f t="shared" si="18"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="AQ23" s="9">
+      <c r="AQ23" s="15">
         <f t="shared" si="19"/>
         <v>6.1766500000000002E-2</v>
       </c>
-      <c r="AR23" s="8">
+      <c r="AR23" s="14">
         <f t="shared" si="20"/>
         <v>3.5637500000000009E-3</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
+        <v>9.2220832703784765</v>
+      </c>
+      <c r="B24" s="7">
         <v>7.1264000000000003</v>
       </c>
-      <c r="B24" s="14">
-        <v>9.2220832703784765</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="C24" s="9">
         <v>10.528787530000001</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="10">
         <v>18</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="11">
         <v>6</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="11">
         <v>18</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="29">
         <v>54</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="12">
         <v>-0.134769</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="13">
         <v>-4.9349999999999998E-2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="13">
         <f t="shared" si="1"/>
         <v>-9.2059500000000002E-2</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="14">
         <f t="shared" si="2"/>
         <v>8.5418999999999995E-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="12">
         <v>-5.0312000000000003E-2</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="13">
         <v>8.9726E-2</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="13">
         <f t="shared" si="3"/>
         <v>1.9706999999999999E-2</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="14">
         <f t="shared" si="4"/>
         <v>0.140038</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="13">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="13">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="15">
         <f t="shared" si="5"/>
         <v>-4.5608500000000003E-2</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="14">
         <f t="shared" si="6"/>
         <v>7.6007000000000005E-2</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="13">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="13">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="15">
         <f t="shared" si="7"/>
         <v>6.3249999999999973E-3</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="15">
         <f t="shared" si="8"/>
         <v>0.17113</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="12">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="13">
         <v>-0.120354</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="13">
         <f t="shared" si="9"/>
         <v>-0.221527</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AB24" s="14">
         <f t="shared" si="10"/>
         <v>0.20234599999999997</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC24" s="12">
         <v>-0.180978</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="13">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="13">
         <f t="shared" si="11"/>
         <v>-7.9823500000000006E-2</v>
       </c>
-      <c r="AF24" s="8">
+      <c r="AF24" s="14">
         <f t="shared" si="12"/>
         <v>0.20230899999999999</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="13">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="13">
         <v>-4.326E-2</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="13">
         <f t="shared" si="13"/>
         <v>-0.10291449999999999</v>
       </c>
-      <c r="AJ24" s="8">
+      <c r="AJ24" s="14">
         <f t="shared" si="14"/>
         <v>0.119309</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="13">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="13">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" s="13">
         <f t="shared" si="15"/>
         <v>-1.2176500000000002E-2</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="14">
         <f t="shared" si="16"/>
         <v>5.7551000000000005E-2</v>
       </c>
-      <c r="AO24" s="7">
+      <c r="AO24" s="12">
         <f t="shared" si="17"/>
         <v>-5.5067199999999997E-2</v>
       </c>
-      <c r="AP24" s="9">
+      <c r="AP24" s="15">
         <f t="shared" si="18"/>
         <v>1.3015999999999998E-2</v>
       </c>
-      <c r="AQ24" s="9">
+      <c r="AQ24" s="15">
         <f t="shared" si="19"/>
         <v>-0.16222075</v>
       </c>
-      <c r="AR24" s="8">
+      <c r="AR24" s="14">
         <f t="shared" si="20"/>
         <v>-4.6000000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
+        <v>9.0754258772358298</v>
+      </c>
+      <c r="B25" s="7">
         <v>8.3969000000000005</v>
       </c>
-      <c r="B25" s="14">
-        <v>9.0754258772358298</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="C25" s="9">
         <v>12.057069289999999</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="11">
         <v>4</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="29">
         <v>4</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="12">
         <v>-0.18016799999999999</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="13">
         <v>7.5980000000000006E-2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="13">
         <f t="shared" si="1"/>
         <v>-5.2093999999999994E-2</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="14">
         <f t="shared" si="2"/>
         <v>0.25614799999999999</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="12">
         <v>-0.163575</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="13">
         <v>-0.12099799999999999</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="13">
         <f t="shared" si="3"/>
         <v>-0.14228649999999998</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="14">
         <f t="shared" si="4"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="13">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="13">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="15">
         <f t="shared" si="5"/>
         <v>6.2475000000000003E-2</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="14">
         <f t="shared" si="6"/>
         <v>-8.5760000000000003E-3</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="13">
         <v>0.109371</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="13">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="15">
         <f t="shared" si="7"/>
         <v>9.9341499999999999E-2</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="15">
         <f t="shared" si="8"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="12">
         <v>1.3393E-2</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="13">
         <v>0.151031</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="13">
         <f t="shared" si="9"/>
         <v>8.2211999999999993E-2</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AB25" s="14">
         <f t="shared" si="10"/>
         <v>0.13763800000000001</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="12">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="13">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="13">
         <f t="shared" si="11"/>
         <v>6.5942500000000001E-2</v>
       </c>
-      <c r="AF25" s="8">
+      <c r="AF25" s="14">
         <f t="shared" si="12"/>
         <v>5.9520999999999998E-2</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="13">
         <v>-0.127494</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="13">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="13">
         <f t="shared" si="13"/>
         <v>-6.6061499999999995E-2</v>
       </c>
-      <c r="AJ25" s="8">
+      <c r="AJ25" s="14">
         <f t="shared" si="14"/>
         <v>0.122865</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="13">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="13">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="13">
         <f t="shared" si="15"/>
         <v>-1.72695E-2</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="14">
         <f t="shared" si="16"/>
         <v>0.11473899999999999</v>
       </c>
-      <c r="AO25" s="7">
+      <c r="AO25" s="12">
         <f t="shared" si="17"/>
         <v>4.1524000000000031E-3</v>
       </c>
-      <c r="AP25" s="9">
+      <c r="AP25" s="15">
         <f t="shared" si="18"/>
         <v>-2.1472499999999992E-2</v>
       </c>
-      <c r="AQ25" s="9">
+      <c r="AQ25" s="15">
         <f t="shared" si="19"/>
         <v>8.0752499999999974E-3</v>
       </c>
-      <c r="AR25" s="8">
+      <c r="AR25" s="14">
         <f t="shared" si="20"/>
         <v>2.43365E-2</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
+        <v>12.455561512425106</v>
+      </c>
+      <c r="B26" s="7">
         <v>10.875999999999999</v>
       </c>
-      <c r="B26" s="14">
-        <v>12.455561512425106</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="C26" s="9">
         <v>14.627827590000001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="11">
         <v>22</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="29">
         <v>34</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="12">
         <v>-6.6739000000000007E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="13">
         <v>0.293433</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="13">
         <f t="shared" si="1"/>
         <v>0.113347</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="14">
         <f t="shared" si="2"/>
         <v>0.36017199999999999</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="12">
         <v>3.3617000000000001E-2</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="13">
         <v>0.17433000000000001</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="13">
         <f t="shared" si="3"/>
         <v>0.10397350000000001</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="14">
         <f t="shared" si="4"/>
         <v>0.140713</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="13">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="13">
         <v>0.16288</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="15">
         <f t="shared" si="5"/>
         <v>0.111093</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="14">
         <f t="shared" si="6"/>
         <v>0.103574</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="13">
         <v>-5.4826E-2</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="13">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="15">
         <f t="shared" si="7"/>
         <v>-1.8710999999999998E-2</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="15">
         <f t="shared" si="8"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="12">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="13">
         <v>0.13849800000000001</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="13">
         <f t="shared" si="9"/>
         <v>9.4159500000000007E-2</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AB26" s="14">
         <f t="shared" si="10"/>
         <v>8.8677000000000006E-2</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="12">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="13">
         <v>0.161245</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="13">
         <f t="shared" si="11"/>
         <v>9.6601999999999993E-2</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AF26" s="14">
         <f t="shared" si="12"/>
         <v>0.12928600000000001</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="13">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="13">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="13">
         <f t="shared" si="13"/>
         <v>5.4131000000000006E-2</v>
       </c>
-      <c r="AJ26" s="8">
+      <c r="AJ26" s="14">
         <f t="shared" si="14"/>
         <v>6.7872000000000002E-2</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="13">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="13">
         <v>0.19259299999999999</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="13">
         <f t="shared" si="15"/>
         <v>0.13812099999999999</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="14">
         <f t="shared" si="16"/>
         <v>0.10894399999999999</v>
       </c>
-      <c r="AO26" s="7">
+      <c r="AO26" s="12">
         <f t="shared" si="17"/>
         <v>8.9776000000000009E-2</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AP26" s="15">
         <f t="shared" si="18"/>
         <v>4.2631250000000002E-2</v>
       </c>
-      <c r="AQ26" s="9">
+      <c r="AQ26" s="15">
         <f t="shared" si="19"/>
         <v>7.4145249999999996E-2</v>
       </c>
-      <c r="AR26" s="8">
+      <c r="AR26" s="14">
         <f t="shared" si="20"/>
         <v>0.11736150000000001</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
+        <v>9.5907081896161976</v>
+      </c>
+      <c r="B27" s="7">
         <v>8.4403000000000006</v>
       </c>
-      <c r="B27" s="14">
-        <v>9.5907081896161976</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="C27" s="9">
         <v>12.46350005</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="11">
         <v>0</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="11">
         <v>0</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="29">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="12">
         <v>-0.123791</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="13">
         <v>-6.2100000000000002E-4</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="13">
         <f t="shared" si="1"/>
         <v>-6.2205999999999997E-2</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="14">
         <f t="shared" si="2"/>
         <v>0.12317</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="12">
         <v>-0.20208100000000001</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="13">
         <v>-5.6236000000000001E-2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="13">
         <f t="shared" si="3"/>
         <v>-0.12915850000000001</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="14">
         <f t="shared" si="4"/>
         <v>0.145845</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="13">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="13">
         <v>-0.114108</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="15">
         <f t="shared" si="5"/>
         <v>-8.0347000000000002E-2</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="14">
         <f t="shared" si="6"/>
         <v>-6.7521999999999999E-2</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="13">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="13">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="15">
         <f t="shared" si="7"/>
         <v>-7.1576500000000001E-2</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="15">
         <f t="shared" si="8"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="12">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="13">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="13">
         <f t="shared" si="9"/>
         <v>-1.6562999999999998E-2</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AB27" s="14">
         <f t="shared" si="10"/>
         <v>-0.105016</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AC27" s="12">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="13">
         <v>-0.123275</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="13">
         <f t="shared" si="11"/>
         <v>-5.0494999999999998E-2</v>
       </c>
-      <c r="AF27" s="8">
+      <c r="AF27" s="14">
         <f t="shared" si="12"/>
         <v>-0.14555999999999999</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="13">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="13">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="13">
         <f t="shared" si="13"/>
         <v>-0.1063225</v>
       </c>
-      <c r="AJ27" s="8">
+      <c r="AJ27" s="14">
         <f t="shared" si="14"/>
         <v>8.9771000000000017E-2</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="13">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="13">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="13">
         <f t="shared" si="15"/>
         <v>-0.10208099999999999</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="14">
         <f t="shared" si="16"/>
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="AO27" s="7">
+      <c r="AO27" s="12">
         <f t="shared" si="17"/>
         <v>-5.7021199999999994E-2</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AP27" s="15">
         <f t="shared" si="18"/>
         <v>-0.1003675</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AQ27" s="15">
         <f t="shared" si="19"/>
         <v>-6.1442749999999997E-2</v>
       </c>
-      <c r="AR27" s="8">
+      <c r="AR27" s="14">
         <f t="shared" si="20"/>
         <v>-7.6287999999999995E-2</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
+        <v>8.0717615454786209</v>
+      </c>
+      <c r="B28" s="7">
         <v>6.7473000000000001</v>
       </c>
-      <c r="B28" s="14">
-        <v>8.0717615454786209</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="C28" s="9">
         <v>8.5250877129999996</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="10">
         <v>9</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="11">
         <v>4</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="11">
         <v>6</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="29">
         <v>16</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="12">
         <v>-8.9329000000000006E-2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="13">
         <v>3.9376000000000001E-2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <f t="shared" si="1"/>
         <v>-2.4976500000000002E-2</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="14">
         <f t="shared" si="2"/>
         <v>0.12870500000000001</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="12">
         <v>-0.23002300000000001</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="13">
         <v>-0.102991</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="13">
         <f t="shared" si="3"/>
         <v>-0.16650700000000002</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="14">
         <f t="shared" si="4"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="13">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="13">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="15">
         <f t="shared" si="5"/>
         <v>-3.9793500000000002E-2</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="14">
         <f t="shared" si="6"/>
         <v>0.207509</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="13">
         <v>-0.187551</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="13">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="15">
         <f t="shared" si="7"/>
         <v>-6.0641500000000001E-2</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28" s="15">
         <f t="shared" si="8"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="12">
         <v>1.6114E-2</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="13">
         <v>0.11569400000000001</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="13">
         <f t="shared" si="9"/>
         <v>6.5904000000000004E-2</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AB28" s="14">
         <f t="shared" si="10"/>
         <v>9.9580000000000002E-2</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="12">
         <v>0.13467999999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="13">
         <v>0.19463</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="13">
         <f t="shared" si="11"/>
         <v>0.164655</v>
       </c>
-      <c r="AF28" s="8">
+      <c r="AF28" s="14">
         <f t="shared" si="12"/>
         <v>5.9950000000000003E-2</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="13">
         <v>0.12603200000000001</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="13">
         <v>2.8617E-2</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="13">
         <f t="shared" si="13"/>
         <v>7.7324500000000004E-2</v>
       </c>
-      <c r="AJ28" s="8">
+      <c r="AJ28" s="14">
         <f t="shared" si="14"/>
         <v>-9.7415000000000002E-2</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="13">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="13">
         <v>-1.9386E-2</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="13">
         <f t="shared" si="15"/>
         <v>-2.65805E-2</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="14">
         <f t="shared" si="16"/>
         <v>1.4388999999999999E-2</v>
       </c>
-      <c r="AO28" s="7">
+      <c r="AO28" s="12">
         <f t="shared" si="17"/>
         <v>-2.5907999999999997E-2</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AP28" s="15">
         <f t="shared" si="18"/>
         <v>-0.11357425000000002</v>
       </c>
-      <c r="AQ28" s="9">
+      <c r="AQ28" s="15">
         <f t="shared" si="19"/>
         <v>7.1614250000000004E-2</v>
       </c>
-      <c r="AR28" s="8">
+      <c r="AR28" s="14">
         <f t="shared" si="20"/>
         <v>6.9037249999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="8">
+        <v>7.3426819357114868</v>
+      </c>
+      <c r="B29" s="7">
         <v>5.7484999999999999</v>
       </c>
-      <c r="B29" s="14">
-        <v>7.3426819357114868</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="C29" s="9">
         <v>6.4453271479999996</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="10">
         <v>19</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="11">
         <v>15</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="11">
         <v>21</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="29">
         <v>56</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="12">
         <v>-0.11485099999999999</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="13">
         <v>2.3073E-2</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="13">
         <f t="shared" si="1"/>
         <v>-4.5888999999999999E-2</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="14">
         <f t="shared" si="2"/>
         <v>0.13792399999999999</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="12">
         <v>3.1149E-2</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="13">
         <v>0.18643399999999999</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="13">
         <f t="shared" si="3"/>
         <v>0.1087915</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="14">
         <f t="shared" si="4"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="13">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="13">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="15">
         <f t="shared" si="5"/>
         <v>1.5129000000000004E-2</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="14">
         <f t="shared" si="6"/>
         <v>0.136658</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="13">
         <v>0.119044</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="13">
         <v>0.19715199999999999</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="15">
         <f t="shared" si="7"/>
         <v>0.15809799999999999</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="15">
         <f t="shared" si="8"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="12">
         <v>-0.161076</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="13">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="13">
         <f t="shared" si="9"/>
         <v>-0.12481200000000001</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AB29" s="14">
         <f t="shared" si="10"/>
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AC29" s="12">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="13">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="13">
         <f t="shared" si="11"/>
         <v>-5.4471499999999999E-2</v>
       </c>
-      <c r="AF29" s="8">
+      <c r="AF29" s="14">
         <f t="shared" si="12"/>
         <v>1.4099E-2</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="13">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="13">
         <v>2.1512E-2</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="13">
         <f t="shared" si="13"/>
         <v>-6.8503499999999995E-2</v>
       </c>
-      <c r="AJ29" s="8">
+      <c r="AJ29" s="14">
         <f t="shared" si="14"/>
         <v>0.180031</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="13">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="13">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="13">
         <f t="shared" si="15"/>
         <v>-3.1339999999999979E-3</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="14">
         <f t="shared" si="16"/>
         <v>0.177814</v>
       </c>
-      <c r="AO29" s="7">
+      <c r="AO29" s="12">
         <f t="shared" si="17"/>
         <v>-1.2303999999999999E-2</v>
       </c>
-      <c r="AP29" s="9">
+      <c r="AP29" s="15">
         <f t="shared" si="18"/>
         <v>0.13344475</v>
       </c>
-      <c r="AQ29" s="9">
+      <c r="AQ29" s="15">
         <f t="shared" si="19"/>
         <v>-9.6657750000000014E-2</v>
       </c>
-      <c r="AR29" s="8">
+      <c r="AR29" s="14">
         <f t="shared" si="20"/>
         <v>-2.8802749999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
+        <v>6.4145326760646997</v>
+      </c>
+      <c r="B30" s="7">
         <v>6.6740000000000004</v>
       </c>
-      <c r="B30" s="14">
-        <v>6.4145326760646997</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="C30" s="9">
         <v>8.6941014849999991</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="11">
         <v>3</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="29">
         <v>3</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="12">
         <v>-0.217475</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="13">
         <v>3.8468000000000002E-2</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="13">
         <f t="shared" si="1"/>
         <v>-8.95035E-2</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="14">
         <f t="shared" si="2"/>
         <v>0.25594300000000003</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="12">
         <v>-0.178921</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="13">
         <v>2.212E-3</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="13">
         <f t="shared" si="3"/>
         <v>-8.8354500000000002E-2</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="14">
         <f t="shared" si="4"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="13">
         <v>0.17960000000000001</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="13">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="15">
         <f t="shared" si="5"/>
         <v>9.8144000000000009E-2</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="14">
         <f t="shared" si="6"/>
         <v>-0.162912</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="13">
         <v>0.21753500000000001</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="13">
         <v>0.18332100000000001</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="15">
         <f t="shared" si="7"/>
         <v>0.200428</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X30" s="15">
         <f t="shared" si="8"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="12">
         <v>0.114172</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="13">
         <v>0.136208</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="13">
         <f t="shared" si="9"/>
         <v>0.12519</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AB30" s="14">
         <f t="shared" si="10"/>
         <v>2.2036E-2</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AC30" s="12">
         <v>0.13848099999999999</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="13">
         <v>0.122512</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="13">
         <f t="shared" si="11"/>
         <v>0.13049649999999999</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="14">
         <f t="shared" si="12"/>
         <v>-1.5968999999999997E-2</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="13">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="13">
         <v>2.7618E-2</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="13">
         <f t="shared" si="13"/>
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="AJ30" s="8">
+      <c r="AJ30" s="14">
         <f t="shared" si="14"/>
         <v>0.10863600000000001</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" s="13">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" s="13">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" s="13">
         <f t="shared" si="15"/>
         <v>-5.0150000000000194E-4</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="14">
         <f t="shared" si="16"/>
         <v>0.138019</v>
       </c>
-      <c r="AO30" s="7">
+      <c r="AO30" s="12">
         <f t="shared" si="17"/>
         <v>3.4562000000000022E-3</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AP30" s="15">
         <f t="shared" si="18"/>
         <v>5.6036750000000003E-2</v>
       </c>
-      <c r="AQ30" s="9">
+      <c r="AQ30" s="15">
         <f t="shared" si="19"/>
         <v>4.9244999999999997E-2</v>
       </c>
-      <c r="AR30" s="8">
+      <c r="AR30" s="14">
         <f t="shared" si="20"/>
         <v>6.49975E-2</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
+        <v>7.5935271155393673</v>
+      </c>
+      <c r="B31" s="7">
         <v>7.1413000000000002</v>
       </c>
-      <c r="B31" s="14">
-        <v>7.5935271155393673</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="C31" s="9">
         <v>10.050356000000001</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="11">
         <v>0</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="29">
         <v>0</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="12">
         <v>-0.27234599999999998</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="13">
         <v>-4.3165000000000002E-2</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="13">
         <f t="shared" si="1"/>
         <v>-0.15775549999999999</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="14">
         <f t="shared" si="2"/>
         <v>0.22918099999999997</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="12">
         <v>-0.11481</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="13">
         <v>2.3671000000000001E-2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="13">
         <f t="shared" si="3"/>
         <v>-4.5569499999999999E-2</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="14">
         <f t="shared" si="4"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="13">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="13">
         <v>0.151338</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="15">
         <f t="shared" si="5"/>
         <v>-1.1190000000000005E-2</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="14">
         <f t="shared" si="6"/>
         <v>0.32505600000000001</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="13">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="13">
         <v>0.28891099999999997</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="15">
         <f t="shared" si="7"/>
         <v>4.7141999999999989E-2</v>
       </c>
-      <c r="X31" s="9">
+      <c r="X31" s="15">
         <f t="shared" si="8"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="12">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="13">
         <v>0.18018500000000001</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="13">
         <f t="shared" si="9"/>
         <v>-7.0324999999999971E-3</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB31" s="14">
         <f t="shared" si="10"/>
         <v>0.37443500000000002</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AC31" s="12">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="13">
         <v>0.156164</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="13">
         <f t="shared" si="11"/>
         <v>7.9600000000000504E-4</v>
       </c>
-      <c r="AF31" s="8">
+      <c r="AF31" s="14">
         <f t="shared" si="12"/>
         <v>0.31073600000000001</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="13">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="13">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="13">
         <f t="shared" si="13"/>
         <v>-2.5719999999999996E-3</v>
       </c>
-      <c r="AJ31" s="8">
+      <c r="AJ31" s="14">
         <f t="shared" si="14"/>
         <v>1.559E-2</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="13">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="13">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="AM31">
+      <c r="AM31" s="13">
         <f t="shared" si="15"/>
         <v>-1.1622499999999999E-2</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="14">
         <f t="shared" si="16"/>
         <v>2.4188999999999999E-2</v>
       </c>
-      <c r="AO31" s="7">
+      <c r="AO31" s="12">
         <f t="shared" si="17"/>
         <v>-6.7578200000000005E-2</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AP31" s="15">
         <f t="shared" si="18"/>
         <v>7.8625000000000222E-4</v>
       </c>
-      <c r="AQ31" s="9">
+      <c r="AQ31" s="15">
         <f t="shared" si="19"/>
         <v>-4.8022499999999992E-3</v>
       </c>
-      <c r="AR31" s="8">
+      <c r="AR31" s="14">
         <f t="shared" si="20"/>
         <v>-5.4132499999999971E-3</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
+        <v>6.08623994699522</v>
+      </c>
+      <c r="B32" s="7">
         <v>5.1193</v>
       </c>
-      <c r="B32" s="14">
-        <v>6.08623994699522</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="C32" s="9">
         <v>6.5108023690000003</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="10">
         <v>9</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="11">
         <v>11</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="11">
         <v>23</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="29">
         <v>46</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="12">
         <v>1.2302E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="13">
         <v>0.13015099999999999</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="13">
         <f t="shared" si="1"/>
         <v>7.1226499999999998E-2</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="14">
         <f t="shared" si="2"/>
         <v>0.11784899999999998</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="12">
         <v>3.4256000000000002E-2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="13">
         <v>0.124375</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="13">
         <f t="shared" si="3"/>
         <v>7.9315499999999997E-2</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="14">
         <f t="shared" si="4"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="13">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="13">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="15">
         <f t="shared" si="5"/>
         <v>3.3142999999999999E-2</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="14">
         <f t="shared" si="6"/>
         <v>-1.3997999999999997E-2</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="13">
         <v>0.11580600000000001</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="13">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W32" s="15">
         <f t="shared" si="7"/>
         <v>5.5590500000000001E-2</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X32" s="15">
         <f t="shared" si="8"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="12">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="13">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="13">
         <f t="shared" si="9"/>
         <v>1.41815E-2</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AB32" s="14">
         <f t="shared" si="10"/>
         <v>-1.2735000000000002E-2</v>
       </c>
-      <c r="AC32" s="7">
+      <c r="AC32" s="12">
         <v>-1.2631E-2</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="13">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="13">
         <f t="shared" si="11"/>
         <v>-2.9183000000000001E-2</v>
       </c>
-      <c r="AF32" s="8">
+      <c r="AF32" s="14">
         <f t="shared" si="12"/>
         <v>-3.3103999999999995E-2</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="13">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="13">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="AI32">
+      <c r="AI32" s="13">
         <f t="shared" si="13"/>
         <v>2.6494500000000001E-2</v>
       </c>
-      <c r="AJ32" s="8">
+      <c r="AJ32" s="14">
         <f t="shared" si="14"/>
         <v>5.9737000000000005E-2</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" s="13">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" s="13">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="AM32">
+      <c r="AM32" s="13">
         <f t="shared" si="15"/>
         <v>1.3552499999999999E-2</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="14">
         <f t="shared" si="16"/>
         <v>0.12911500000000001</v>
       </c>
-      <c r="AO32" s="7">
+      <c r="AO32" s="12">
         <f t="shared" si="17"/>
         <v>4.1747800000000002E-2</v>
       </c>
-      <c r="AP32" s="9">
+      <c r="AP32" s="15">
         <f t="shared" si="18"/>
         <v>6.7452999999999999E-2</v>
       </c>
-      <c r="AQ32" s="9">
+      <c r="AQ32" s="15">
         <f t="shared" si="19"/>
         <v>2.0338000000000002E-2</v>
       </c>
-      <c r="AR32" s="8">
+      <c r="AR32" s="14">
         <f t="shared" si="20"/>
         <v>-7.8152499999999993E-3</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
+        <v>7.0814943413392903</v>
+      </c>
+      <c r="B33" s="7">
         <v>6.8760000000000003</v>
       </c>
-      <c r="B33" s="14">
-        <v>7.0814943413392903</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="C33" s="9">
         <v>7.2665695699999997</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="10">
         <v>15</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="11">
         <v>11</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="11">
         <v>16</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="29">
         <v>43</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="12">
         <v>-0.123058</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="13">
         <v>0.30115599999999998</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="13">
         <f t="shared" si="1"/>
         <v>8.9048999999999989E-2</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="14">
         <f t="shared" si="2"/>
         <v>0.42421399999999998</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="12">
         <v>-0.15879399999999999</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="13">
         <v>0.21249899999999999</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="13">
         <f t="shared" si="3"/>
         <v>2.6852500000000001E-2</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="14">
         <f t="shared" si="4"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="13">
         <v>0.26120700000000002</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="13">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="15">
         <f t="shared" si="5"/>
         <v>0.11033100000000001</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="14">
         <f t="shared" si="6"/>
         <v>-0.30175200000000002</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="13">
         <v>0.23862700000000001</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="13">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="15">
         <f t="shared" si="7"/>
         <v>8.2987000000000005E-2</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="15">
         <f t="shared" si="8"/>
         <v>-0.31128</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="12">
         <v>0.12012</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="13">
         <v>0.16584499999999999</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="13">
         <f t="shared" si="9"/>
         <v>0.14298250000000001</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AB33" s="14">
         <f t="shared" si="10"/>
         <v>4.5724999999999988E-2</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="12">
         <v>0.13563500000000001</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="13">
         <v>0.18754899999999999</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="13">
         <f t="shared" si="11"/>
         <v>0.16159200000000001</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AF33" s="14">
         <f t="shared" si="12"/>
         <v>5.1913999999999988E-2</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="13">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="13">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="13">
         <f t="shared" si="13"/>
         <v>-0.11981849999999999</v>
       </c>
-      <c r="AJ33" s="8">
+      <c r="AJ33" s="14">
         <f t="shared" si="14"/>
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="13">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="13">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" s="13">
         <f t="shared" si="15"/>
         <v>-3.1166499999999996E-2</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="14">
         <f t="shared" si="16"/>
         <v>0.13767299999999999</v>
       </c>
-      <c r="AO33" s="7">
+      <c r="AO33" s="12">
         <f t="shared" si="17"/>
         <v>7.9752000000000003E-2</v>
       </c>
-      <c r="AP33" s="9">
+      <c r="AP33" s="15">
         <f t="shared" si="18"/>
         <v>5.491975000000001E-2</v>
       </c>
-      <c r="AQ33" s="9">
+      <c r="AQ33" s="15">
         <f t="shared" si="19"/>
         <v>1.1582000000000009E-2</v>
       </c>
-      <c r="AR33" s="8">
+      <c r="AR33" s="14">
         <f t="shared" si="20"/>
         <v>6.521275E-2</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="8">
+        <v>10.586067830101779</v>
+      </c>
+      <c r="B34" s="7">
         <v>10.682600000000001</v>
       </c>
-      <c r="B34" s="14">
-        <v>10.586067830101779</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="C34" s="9">
         <v>10.506890220000001</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="10">
         <v>12</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="11">
         <v>5</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="11">
         <v>18</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="29">
         <v>32</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="12">
         <v>1.686E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="13">
         <v>-0.16614799999999999</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="13">
         <f t="shared" si="1"/>
         <v>-7.4643999999999988E-2</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="14">
         <f t="shared" si="2"/>
         <v>-0.183008</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="12">
         <v>3.026E-3</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="13">
         <v>3.4047000000000001E-2</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="13">
         <f t="shared" si="3"/>
         <v>1.8536500000000001E-2</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="14">
         <f t="shared" si="4"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="13">
         <v>-0.1232</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="13">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="15">
         <f t="shared" si="5"/>
         <v>-9.5607999999999999E-2</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="14">
         <f t="shared" si="6"/>
         <v>5.5184000000000011E-2</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="13">
         <v>-0.30429</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="13">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="15">
         <f t="shared" si="7"/>
         <v>-0.19554250000000001</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="15">
         <f t="shared" si="8"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="12">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="13">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="13">
         <f t="shared" si="9"/>
         <v>-5.7687000000000002E-2</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AB34" s="14">
         <f t="shared" si="10"/>
         <v>7.3879999999999987E-3</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="12">
         <v>-0.161796</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="13">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="13">
         <f t="shared" si="11"/>
         <v>-0.13003199999999998</v>
       </c>
-      <c r="AF34" s="8">
+      <c r="AF34" s="14">
         <f t="shared" si="12"/>
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="13">
         <v>0.116092</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="13">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="13">
         <f t="shared" si="13"/>
         <v>3.8714999999999999E-2</v>
       </c>
-      <c r="AJ34" s="8">
+      <c r="AJ34" s="14">
         <f t="shared" si="14"/>
         <v>-0.154754</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="13">
         <v>0.12664800000000001</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="13">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="13">
         <f t="shared" si="15"/>
         <v>9.4638E-2</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="14">
         <f t="shared" si="16"/>
         <v>-6.4020000000000007E-2</v>
       </c>
-      <c r="AO34" s="7">
+      <c r="AO34" s="12">
         <f t="shared" si="17"/>
         <v>-6.8100799999999989E-2</v>
       </c>
-      <c r="AP34" s="9">
+      <c r="AP34" s="15">
         <f t="shared" si="18"/>
         <v>-8.8502999999999998E-2</v>
       </c>
-      <c r="AQ34" s="9">
+      <c r="AQ34" s="15">
         <f t="shared" si="19"/>
         <v>-9.4860000000000014E-3</v>
       </c>
-      <c r="AR34" s="8">
+      <c r="AR34" s="14">
         <f t="shared" si="20"/>
         <v>-1.7696999999999987E-2</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="8">
+        <v>11.051443660734622</v>
+      </c>
+      <c r="B35" s="7">
         <v>9.7484000000000002</v>
       </c>
-      <c r="B35" s="14">
-        <v>11.051443660734622</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="C35" s="9">
         <v>12.197230080000001</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="11">
         <v>6</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="29">
         <v>9</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="12">
         <v>-0.20955199999999999</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="13">
         <v>-0.26041500000000001</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="13">
         <f t="shared" si="1"/>
         <v>-0.23498350000000001</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="14">
         <f t="shared" si="2"/>
         <v>-5.0863000000000019E-2</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="12">
         <v>-0.119703</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="13">
         <v>-0.20413899999999999</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="13">
         <f t="shared" si="3"/>
         <v>-0.16192099999999998</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="14">
         <f t="shared" si="4"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="13">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="13">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="15">
         <f t="shared" si="5"/>
         <v>2.7268500000000001E-2</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="14">
         <f t="shared" si="6"/>
         <v>-2.1519E-2</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="13">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="13">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="15">
         <f t="shared" si="7"/>
         <v>-7.3791999999999996E-2</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="15">
         <f t="shared" si="8"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="12">
         <v>1.89E-2</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="13">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="13">
         <f t="shared" si="9"/>
         <v>-3.0525999999999998E-2</v>
       </c>
-      <c r="AB35" s="8">
+      <c r="AB35" s="14">
         <f t="shared" si="10"/>
         <v>-9.8851999999999995E-2</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="12">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="13">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="13">
         <f t="shared" si="11"/>
         <v>4.9056000000000002E-2</v>
       </c>
-      <c r="AF35" s="8">
+      <c r="AF35" s="14">
         <f t="shared" si="12"/>
         <v>-5.3184000000000009E-2</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="13">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="13">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="13">
         <f t="shared" si="13"/>
         <v>-0.18121399999999999</v>
       </c>
-      <c r="AJ35" s="8">
+      <c r="AJ35" s="14">
         <f t="shared" si="14"/>
         <v>3.2143999999999978E-2</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="13">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="13">
         <v>-5.527E-2</v>
       </c>
-      <c r="AM35">
+      <c r="AM35" s="13">
         <f t="shared" si="15"/>
         <v>-6.8565000000000001E-2</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="14">
         <f t="shared" si="16"/>
         <v>2.6590000000000003E-2</v>
       </c>
-      <c r="AO35" s="7">
+      <c r="AO35" s="12">
         <f t="shared" si="17"/>
         <v>-8.3086000000000007E-2</v>
       </c>
-      <c r="AP35" s="9">
+      <c r="AP35" s="15">
         <f t="shared" si="18"/>
         <v>-0.11785649999999999</v>
       </c>
-      <c r="AQ35" s="9">
+      <c r="AQ35" s="15">
         <f t="shared" si="19"/>
         <v>-0.10586999999999999</v>
       </c>
-      <c r="AR35" s="8">
+      <c r="AR35" s="14">
         <f t="shared" si="20"/>
         <v>-9.7544999999999993E-3</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="17">
+        <v>6.4567896815999681</v>
+      </c>
+      <c r="B36" s="16">
         <v>6.3623000000000003</v>
-      </c>
-      <c r="B36" s="15">
-        <v>6.4567896815999681</v>
       </c>
       <c r="C36" s="18">
         <v>7.3136994270000004</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>5</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="20">
         <v>1</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="20">
         <v>20</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="24">
         <v>28</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="21">
         <v>0.1038</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="22">
         <v>0.214334</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="22">
         <f t="shared" si="1"/>
         <v>0.15906700000000001</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="23">
         <f t="shared" si="2"/>
         <v>0.11053399999999999</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="21">
         <v>1.358E-2</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="22">
         <v>0.114554</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="22">
         <f t="shared" si="3"/>
         <v>6.4066999999999999E-2</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="23">
         <f t="shared" si="4"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="22">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="22">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36" s="22">
         <f t="shared" si="5"/>
         <v>-4.64E-3</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="23">
         <f t="shared" si="6"/>
         <v>4.3043999999999999E-2</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36" s="22">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36" s="22">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="22">
         <f t="shared" si="7"/>
         <v>-4.7122499999999998E-2</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X36" s="22">
         <f t="shared" si="8"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y36" s="21">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Z36" s="22">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AA36" s="22">
         <f t="shared" si="9"/>
         <v>3.2489499999999998E-2</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AB36" s="23">
         <f t="shared" si="10"/>
         <v>-5.0270000000000002E-3</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AC36" s="21">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AD36" s="22">
         <v>-3.39E-4</v>
       </c>
-      <c r="AE36" s="4">
+      <c r="AE36" s="22">
         <f t="shared" si="11"/>
         <v>-4.2500000000000003E-5</v>
       </c>
-      <c r="AF36" s="5">
+      <c r="AF36" s="23">
         <f t="shared" si="12"/>
         <v>-5.9299999999999999E-4</v>
       </c>
-      <c r="AG36" s="4">
+      <c r="AG36" s="22">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="AH36" s="4">
+      <c r="AH36" s="22">
         <v>0.13294400000000001</v>
       </c>
-      <c r="AI36" s="4">
+      <c r="AI36" s="22">
         <f t="shared" si="13"/>
         <v>9.3179999999999999E-2</v>
       </c>
-      <c r="AJ36" s="5">
+      <c r="AJ36" s="23">
         <f t="shared" si="14"/>
         <v>7.9528000000000015E-2</v>
       </c>
-      <c r="AK36" s="4">
+      <c r="AK36" s="22">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AL36" s="22">
         <v>0.190882</v>
       </c>
-      <c r="AM36" s="4">
+      <c r="AM36" s="22">
         <f t="shared" si="15"/>
         <v>0.12955250000000001</v>
       </c>
-      <c r="AN36" s="5">
+      <c r="AN36" s="23">
         <f t="shared" si="16"/>
         <v>0.12265899999999999</v>
       </c>
-      <c r="AO36" s="3">
+      <c r="AO36" s="21">
         <f t="shared" si="17"/>
         <v>6.1770800000000001E-2</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="AP36" s="22">
         <f t="shared" si="18"/>
         <v>8.4722499999999989E-3</v>
       </c>
-      <c r="AQ36" s="4">
+      <c r="AQ36" s="22">
         <f t="shared" si="19"/>
         <v>6.2834749999999995E-2</v>
       </c>
-      <c r="AR36" s="5">
+      <c r="AR36" s="23">
         <f t="shared" si="20"/>
         <v>6.4755000000000007E-2</v>
       </c>
